--- a/sistema de registro de docentes/Resources/lista_doc.xlsx
+++ b/sistema de registro de docentes/Resources/lista_doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROYECTO\proyecto registro de asistencia profesores\sistema de registro de docentes\sistema de registro de docentes\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feros\Source\Repos\sistema_de_registro_de_docentes\sistema de registro de docentes\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91A71DB-32B0-4524-86CB-D560A4A4CB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89231EE1-9AED-4C3C-9FC5-520413ABFCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="3075" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="80">
   <si>
     <t>A</t>
   </si>
@@ -104,9 +104,6 @@
     <t xml:space="preserve">FERNANDO </t>
   </si>
   <si>
-    <t xml:space="preserve">579580 Or. </t>
-  </si>
-  <si>
     <t>ANÁLISIS DE CIRCUITOS</t>
   </si>
   <si>
@@ -255,6 +252,27 @@
   </si>
   <si>
     <t>ING. DE SISTEMAS</t>
+  </si>
+  <si>
+    <t>10:00-11:45</t>
+  </si>
+  <si>
+    <t>Viernes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179580 Or. </t>
+  </si>
+  <si>
+    <t>ingeniero</t>
+  </si>
+  <si>
+    <t>quien</t>
+  </si>
+  <si>
+    <t>soy</t>
+  </si>
+  <si>
+    <t>nose</t>
   </si>
 </sst>
 </file>
@@ -375,7 +393,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -395,6 +413,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,27 +697,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534D26E8-8FF6-4A1F-B862-3E7EEC9CA17A}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="7" width="37.5546875" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" customWidth="1"/>
-    <col min="16" max="16" width="14.44140625" customWidth="1"/>
-    <col min="17" max="17" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -721,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>6</v>
@@ -739,36 +758,36 @@
         <v>13</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>0</v>
@@ -780,19 +799,13 @@
         <v>14</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -809,10 +822,10 @@
         <v>22</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>19</v>
@@ -824,45 +837,43 @@
         <v>4</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="G4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>0</v>
@@ -872,40 +883,40 @@
         <v>15</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>19</v>
@@ -920,19 +931,17 @@
         <v>15</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -940,22 +949,22 @@
         <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
@@ -967,42 +976,40 @@
         <v>14</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>0</v>
@@ -1014,30 +1021,30 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>0</v>
@@ -1049,30 +1056,30 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>0</v>
@@ -1084,30 +1091,30 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>0</v>
@@ -1119,30 +1126,30 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>0</v>
@@ -1154,17 +1161,104 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I14" s="5"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E19" s="5"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12">
+        <v>12514210</v>
+      </c>
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13">
+        <v>12514210</v>
+      </c>
+      <c r="G13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14">
+        <v>12514210</v>
+      </c>
+      <c r="G14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sistema de registro de docentes/Resources/lista_doc.xlsx
+++ b/sistema de registro de docentes/Resources/lista_doc.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROYECTO\proyecto registro de asistencia profesores\sistema de registro de docentes\sistema de registro de docentes\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\proyecto sistema docente\sistema_de_registro_de_docentes\sistema de registro de docentes\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91A71DB-32B0-4524-86CB-D560A4A4CB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,51 +32,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
+  <si>
+    <t>Nº</t>
+  </si>
+  <si>
+    <t>Grdo</t>
+  </si>
+  <si>
+    <t>Apellido Paterno</t>
+  </si>
+  <si>
+    <t>Apellido Materno</t>
+  </si>
+  <si>
+    <t>Nombres</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Asignatura</t>
+  </si>
+  <si>
+    <t>Semestre Académico</t>
+  </si>
+  <si>
+    <t>Paralelo</t>
+  </si>
+  <si>
+    <t>Carga horaria</t>
+  </si>
+  <si>
+    <t>Dia</t>
+  </si>
+  <si>
+    <t>Hora entrada</t>
+  </si>
+  <si>
+    <t>Dia 2</t>
+  </si>
+  <si>
+    <t>Hora entrada 2</t>
+  </si>
+  <si>
+    <t>Atraso minutos</t>
+  </si>
+  <si>
+    <t>ING</t>
+  </si>
+  <si>
+    <t>SUNTURA</t>
+  </si>
+  <si>
+    <t>MAMANI</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7025952 LP </t>
+  </si>
+  <si>
+    <t>ELECTRONICA</t>
+  </si>
+  <si>
+    <t>TERCER SEMESTRE</t>
+  </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>Nº</t>
-  </si>
-  <si>
-    <t>Apellido Paterno</t>
-  </si>
-  <si>
-    <t>Apellido Materno</t>
-  </si>
-  <si>
-    <t>Nombres</t>
-  </si>
-  <si>
-    <t>Asignatura</t>
-  </si>
-  <si>
-    <t>Paralelo</t>
-  </si>
-  <si>
-    <t>Grdo</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>Carga horaria</t>
-  </si>
-  <si>
-    <t>Dia</t>
-  </si>
-  <si>
-    <t>Hora entrada</t>
+    <t xml:space="preserve">ING. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOQUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALARCON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERNANDO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">579580 Or. </t>
+  </si>
+  <si>
+    <t>ANÁLISIS DE CIRCUITOS</t>
+  </si>
+  <si>
+    <t>Tercer Semestre</t>
+  </si>
+  <si>
+    <t>Lunes</t>
+  </si>
+  <si>
+    <t>7:45-10:00</t>
   </si>
   <si>
     <t>Miercoles</t>
   </si>
   <si>
-    <t>Dia 2</t>
-  </si>
-  <si>
-    <t>Lunes</t>
+    <t>10:15-11:45</t>
+  </si>
+  <si>
+    <t>ING.</t>
+  </si>
+  <si>
+    <t>NARVAEZ</t>
+  </si>
+  <si>
+    <t>TAMAYO</t>
+  </si>
+  <si>
+    <t>JULIO CESAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55555555 LP. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRABAJO DE GRADO II </t>
+  </si>
+  <si>
+    <t>DECIMO SEMESTRE</t>
+  </si>
+  <si>
+    <t>ING. DE SISTEMAS</t>
+  </si>
+  <si>
+    <t>DAEN (RA)</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>FERNANDEZ</t>
+  </si>
+  <si>
+    <t>LUIS HUMBERTO</t>
+  </si>
+  <si>
+    <t>2689307 LP.</t>
+  </si>
+  <si>
+    <t>METODOLOGÍA DE LA INVESTIGACIÓN</t>
   </si>
   <si>
     <t>Martes</t>
@@ -86,48 +184,6 @@
     <t>Jueves</t>
   </si>
   <si>
-    <t>Atraso minutos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ING. </t>
-  </si>
-  <si>
-    <t>Tercer Semestre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHOQUE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALARCON </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERNANDO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">579580 Or. </t>
-  </si>
-  <si>
-    <t>ANÁLISIS DE CIRCUITOS</t>
-  </si>
-  <si>
-    <t>DAEN (RA)</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>FERNANDEZ</t>
-  </si>
-  <si>
-    <t>LUIS HUMBERTO</t>
-  </si>
-  <si>
-    <t>2689307 LP.</t>
-  </si>
-  <si>
-    <t>METODOLOGÍA DE LA INVESTIGACIÓN</t>
-  </si>
-  <si>
     <t xml:space="preserve">YAÑIQUEZ </t>
   </si>
   <si>
@@ -146,27 +202,9 @@
     <t>Cuarto Semestre</t>
   </si>
   <si>
-    <t>Semestre Académico</t>
-  </si>
-  <si>
     <t>9:15-11:45</t>
   </si>
   <si>
-    <t>7:45-10:00</t>
-  </si>
-  <si>
-    <t>10:15-11:45</t>
-  </si>
-  <si>
-    <t>Hora entrada 2</t>
-  </si>
-  <si>
-    <t>ING</t>
-  </si>
-  <si>
-    <t>MAMANI</t>
-  </si>
-  <si>
     <t>QUISPE</t>
   </si>
   <si>
@@ -203,24 +241,6 @@
     <t>QUINTO SEMESTRE</t>
   </si>
   <si>
-    <t>SUNTURA</t>
-  </si>
-  <si>
-    <t>JESUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7025952 LP </t>
-  </si>
-  <si>
-    <t>ELECTRONICA</t>
-  </si>
-  <si>
-    <t>TERCER SEMESTRE</t>
-  </si>
-  <si>
-    <t>ING.</t>
-  </si>
-  <si>
     <t>CASTAÑETA</t>
   </si>
   <si>
@@ -236,31 +256,13 @@
     <t xml:space="preserve">ANÁLISIS Y DISEÑO DE SISTEMAS BASADOS EN MICROPROCESADORES </t>
   </si>
   <si>
-    <t xml:space="preserve">TRABAJO DE GRADO II </t>
-  </si>
-  <si>
-    <t>DECIMO SEMESTRE</t>
-  </si>
-  <si>
-    <t>NARVAEZ</t>
-  </si>
-  <si>
-    <t>TAMAYO</t>
-  </si>
-  <si>
-    <t>JULIO CESAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55555555 LP. </t>
-  </si>
-  <si>
-    <t>ING. DE SISTEMAS</t>
+    <t>Viernes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,20 +372,20 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -393,14 +395,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{CB7EA4BA-F587-431E-B764-0BBDEDB4781F}"/>
-    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{0E26D87F-ECF7-4F1F-AEFC-D1FA0657BE14}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -677,33 +679,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534D26E8-8FF6-4A1F-B862-3E7EEC9CA17A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="7" width="37.5546875" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" customWidth="1"/>
-    <col min="16" max="16" width="14.44140625" customWidth="1"/>
-    <col min="17" max="17" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
@@ -715,16 +717,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>9</v>
@@ -736,434 +738,438 @@
         <v>11</v>
       </c>
       <c r="M1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="O1" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J2" s="8">
         <v>3</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="1"/>
       <c r="O2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>0</v>
       </c>
       <c r="J3" s="8">
         <v>4</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="O3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="1"/>
       <c r="P4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J5" s="8">
         <v>5</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J6" s="8">
         <v>5</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="1">
         <v>0</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I14" s="5"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E19" s="5"/>
     </row>
   </sheetData>

--- a/sistema de registro de docentes/Resources/lista_doc.xlsx
+++ b/sistema de registro de docentes/Resources/lista_doc.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROYECTO\proyecto registro de asistencia profesores\sistema de registro de docentes\sistema de registro de docentes\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\source\repos\sistema_de_registro_de_docentes\sistema de registro de docentes\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A6B721-D9C6-4BE4-9F97-5C0AFD07C653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="5" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="187">
   <si>
     <t>Nº</t>
   </si>
@@ -67,6 +66,12 @@
     <t>Hora entrada 2</t>
   </si>
   <si>
+    <t>Dia 3</t>
+  </si>
+  <si>
+    <t>Hora entrada 3</t>
+  </si>
+  <si>
     <t>Atraso minutos</t>
   </si>
   <si>
@@ -82,6 +87,9 @@
     <t>ROSIO JACKELINE</t>
   </si>
   <si>
+    <t>ING. DE TELECOMUNICAIONES</t>
+  </si>
+  <si>
     <t>VARIABLE COMPLEJA</t>
   </si>
   <si>
@@ -163,69 +171,69 @@
     <t>7:45-9:15</t>
   </si>
   <si>
+    <t>MSC</t>
+  </si>
+  <si>
+    <t>VALENTI</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>ESTADÍSTICA II</t>
+  </si>
+  <si>
+    <t>9:15-11:00</t>
+  </si>
+  <si>
+    <t>VILLCA</t>
+  </si>
+  <si>
+    <t>PAYE</t>
+  </si>
+  <si>
+    <t>ARIEL</t>
+  </si>
+  <si>
+    <t>COMPONENTES E INSTRUMENTOS</t>
+  </si>
+  <si>
+    <t>ALI</t>
+  </si>
+  <si>
+    <t>ALVAREZ</t>
+  </si>
+  <si>
+    <t>ELIAS</t>
+  </si>
+  <si>
+    <t>ELECTRÓNICA ANALÓGICA I</t>
+  </si>
+  <si>
+    <t>4RO.</t>
+  </si>
+  <si>
+    <t>PhD.</t>
+  </si>
+  <si>
+    <t>CABEZAS</t>
+  </si>
+  <si>
+    <t>TITO</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>CAMPOS ELECTROMAGNÉTICOS</t>
+  </si>
+  <si>
     <t>Viernes</t>
   </si>
   <si>
-    <t>MSC</t>
-  </si>
-  <si>
-    <t>VALENTI</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>ESTADÍSTICA II</t>
-  </si>
-  <si>
-    <t>9:15-11:00</t>
-  </si>
-  <si>
-    <t>VILLCA</t>
-  </si>
-  <si>
-    <t>PAYE</t>
-  </si>
-  <si>
-    <t>ARIEL</t>
-  </si>
-  <si>
-    <t>COMPONENTES E INSTRUMENTOS</t>
-  </si>
-  <si>
-    <t>ALI</t>
-  </si>
-  <si>
-    <t>ALVAREZ</t>
-  </si>
-  <si>
-    <t>ELIAS</t>
-  </si>
-  <si>
-    <t>ELECTRÓNICA ANALÓGICA I</t>
-  </si>
-  <si>
-    <t>4RO.</t>
-  </si>
-  <si>
-    <t>PhD.</t>
-  </si>
-  <si>
-    <t>CABEZAS</t>
-  </si>
-  <si>
-    <t>TITO</t>
-  </si>
-  <si>
-    <t>LUIS</t>
-  </si>
-  <si>
-    <t>CAMPOS ELECTROMAGNÉTICOS</t>
-  </si>
-  <si>
     <t>11:00-13:30</t>
   </si>
   <si>
@@ -274,30 +282,36 @@
     <t>MÉTODOS NUMÉRICOS</t>
   </si>
   <si>
+    <t>12:00-14:15</t>
+  </si>
+  <si>
+    <t>ELECTRÓNICA ANALÓGICA II</t>
+  </si>
+  <si>
+    <t>5TO.</t>
+  </si>
+  <si>
+    <t>MSC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOPEZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVENDAÑO </t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>ELECTRONICA DIGITAL</t>
+  </si>
+  <si>
+    <t>11:00-12:30</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>ELECTRÓNICA ANALÓGICA II</t>
-  </si>
-  <si>
-    <t>5TO.</t>
-  </si>
-  <si>
-    <t>MSC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOPEZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVENDAÑO </t>
-  </si>
-  <si>
-    <t>PATRICIA</t>
-  </si>
-  <si>
-    <t>ELECTRONICA DIGITAL</t>
-  </si>
-  <si>
     <t>MAGUEÑO</t>
   </si>
   <si>
@@ -373,6 +387,9 @@
     <t>SISTEMAS DE MODELADO Y SIMULACION</t>
   </si>
   <si>
+    <t>11:00-14:15</t>
+  </si>
+  <si>
     <t>SISTEMAS DE COMUNICACIÓN I</t>
   </si>
   <si>
@@ -475,6 +492,9 @@
     <t>8VO</t>
   </si>
   <si>
+    <t>7:45-11:00</t>
+  </si>
+  <si>
     <t>COMUNICACIONES SATELITALES</t>
   </si>
   <si>
@@ -529,6 +549,9 @@
     <t xml:space="preserve">9NO. </t>
   </si>
   <si>
+    <t>7:45-11:45</t>
+  </si>
+  <si>
     <t>DE LA BARRA</t>
   </si>
   <si>
@@ -553,46 +576,16 @@
     <t>SISTEMAS Y SERVICIOS DIGITALES</t>
   </si>
   <si>
-    <t>Dia 3</t>
-  </si>
-  <si>
-    <t>Hora entrada 3</t>
-  </si>
-  <si>
-    <t>12:00-14:15</t>
-  </si>
-  <si>
-    <t>10:00-12:30</t>
-  </si>
-  <si>
-    <t>11:00-12:30</t>
-  </si>
-  <si>
-    <t>10:15-12:30</t>
-  </si>
-  <si>
-    <t>12:30-14:15</t>
-  </si>
-  <si>
-    <t>9:15-12:30</t>
-  </si>
-  <si>
-    <t>11:00-14:15</t>
-  </si>
-  <si>
-    <t>7:45-11:00</t>
-  </si>
-  <si>
-    <t>7:45-11:45</t>
-  </si>
-  <si>
-    <t>ING. DE TELECOMUNICAIONES</t>
+    <t>9:15-12:45</t>
+  </si>
+  <si>
+    <t>10:00-12:45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -771,17 +764,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Millares 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Millares 2 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 2 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 2 4 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Normal 5" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="3"/>
+    <cellStyle name="Normal 2 2 2" xfId="4"/>
+    <cellStyle name="Normal 2 3" xfId="5"/>
+    <cellStyle name="Normal 2 4 3" xfId="6"/>
+    <cellStyle name="Normal 3" xfId="7"/>
+    <cellStyle name="Normal 3 2" xfId="8"/>
+    <cellStyle name="Normal 4" xfId="9"/>
+    <cellStyle name="Normal 5" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1058,28 +1051,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="G34" zoomScale="88" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="37.5546875" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="37.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1126,2013 +1120,2037 @@
         <v>14</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F2" s="16">
         <v>2216676</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" s="7">
         <v>4</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F3" s="16">
         <v>579580</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K3" s="7">
         <v>4</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F4" s="16">
         <v>6106624</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K4" s="1">
         <v>3</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F5" s="16">
         <v>1707959</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K5" s="7">
         <v>2</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>41</v>
+        <v>70</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F6" s="16">
         <v>2358779</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K6" s="7">
         <v>3</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F7" s="15">
         <v>4288483</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K7" s="1">
         <v>2</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F8" s="16">
         <v>6157321</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K8" s="1">
         <v>4</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F9" s="16">
         <v>3660493</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K9" s="1">
         <v>3</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F10" s="16">
         <v>9210181</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K10" s="1">
         <v>2</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F11" s="16">
         <v>4825233</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K11" s="1">
         <v>3</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F12" s="16">
         <v>4849854</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F13" s="16">
         <v>4288483</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K13">
         <v>6</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>179</v>
+        <v>87</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F14" s="16">
         <v>6157321</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K14">
         <v>3</v>
       </c>
       <c r="L14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M14" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" t="s">
         <v>34</v>
       </c>
-      <c r="N14" t="s">
-        <v>31</v>
-      </c>
       <c r="O14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F15" s="16">
         <v>3382860</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K15">
         <v>5</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M15" s="18" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="N15" s="18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O15" s="18" t="s">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Q15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F16" s="16">
         <v>4811736</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K16">
         <v>3</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M16" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="N16" t="s">
+        <v>96</v>
+      </c>
+      <c r="O16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F17" s="16">
         <v>2679320</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K17">
         <v>5</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M17" s="18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="O17" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F18" s="16">
         <v>2227789</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K18">
         <v>5</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M18" s="18" t="s">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F19" s="16">
         <v>3697276</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K19">
         <v>4</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="O19" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K20">
         <v>4</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="M20" s="18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+      <c r="N20" t="s">
+        <v>96</v>
+      </c>
+      <c r="O20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F21" s="16">
         <v>4793659</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K21">
         <v>4</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M21" s="18" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="N21" t="s">
+        <v>96</v>
+      </c>
+      <c r="O21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F22" s="16">
         <v>2679320</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H22" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K22">
         <v>4</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="O22" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F23" s="16">
         <v>2288375</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K23">
         <v>5</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M23" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N23" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="N23" s="18" t="s">
-        <v>31</v>
-      </c>
       <c r="O23" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F24" s="16">
         <v>3697276</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K24">
         <v>4</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M24" s="18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O24" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F25" s="16">
         <v>3330918</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K25">
         <v>4</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N25" s="18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O25" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K26">
         <v>4</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N26" s="18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O26" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F27" s="16">
         <v>2288375</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K27">
         <v>5</v>
       </c>
       <c r="L27" s="17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M27" s="18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N27" s="18" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="O27" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H28" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="I28" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="J28" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K28">
         <v>3</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="N28" t="s">
+        <v>96</v>
+      </c>
+      <c r="O28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F29" s="16">
         <v>3697276</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K29">
         <v>5</v>
       </c>
       <c r="L29" s="17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M29" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="N29" s="17" t="s">
-        <v>31</v>
-      </c>
       <c r="O29" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F30" s="16">
         <v>2227789</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K30">
         <v>5</v>
       </c>
       <c r="L30" s="17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M30" s="18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N30" s="17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O30" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F31" s="16">
         <v>2319203</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K31">
         <v>4</v>
       </c>
       <c r="L31" s="17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M31" s="18" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="N31" s="17" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="O31" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K32">
         <v>6</v>
       </c>
       <c r="L32" s="17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M32" s="18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N32" s="17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O32" s="18" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K33">
         <v>5</v>
       </c>
       <c r="L33" s="17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M33" s="18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N33" s="17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O33" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F34" s="16">
         <v>3497104</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K34">
         <v>5</v>
       </c>
       <c r="L34" s="17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M34" s="18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N34" s="17" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="O34" s="18" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F35" s="16">
         <v>6157321</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H35" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I35" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="I35" s="8" t="s">
-        <v>150</v>
-      </c>
       <c r="J35" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K35">
         <v>4</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="O35" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F36" s="16">
         <v>1845009</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K36">
         <v>5</v>
       </c>
       <c r="L36" s="17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M36" s="18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N36" s="17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O36" s="18" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F37" s="16">
         <v>4284954</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K37">
         <v>5</v>
       </c>
       <c r="L37" s="17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N37" s="17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O37" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F38" s="16">
         <v>2364316</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K38">
         <v>7</v>
       </c>
       <c r="L38" s="17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M38" s="18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N38" s="17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O38" s="18" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F39" s="16">
         <v>4992347</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K39">
         <v>5</v>
       </c>
       <c r="L39" s="17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M39" s="18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N39" s="17" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="O39" s="18" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F40" s="16">
         <v>3497104</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K40">
         <v>5</v>
       </c>
       <c r="L40" s="17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="N40" s="17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O40" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F41" s="16">
         <v>3660493</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H41" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I41" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="I41" s="8" t="s">
-        <v>168</v>
-      </c>
       <c r="J41" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K41">
         <v>6</v>
       </c>
       <c r="L41" s="17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M41" s="18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N41" s="17" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="O41" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F42" s="16">
         <v>2227789</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K42">
         <v>4</v>
       </c>
       <c r="L42" s="17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M42" s="18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N42" s="17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O42" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="9"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="9"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="9"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="9"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="9"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="9"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="9"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="9"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>

--- a/sistema de registro de docentes/Resources/lista_doc.xlsx
+++ b/sistema de registro de docentes/Resources/lista_doc.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Hoja2" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>Nº</t>
   </si>
@@ -111,6 +111,9 @@
     <t>12:45-14:15</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>CHOQUE</t>
   </si>
   <si>
@@ -171,6 +174,9 @@
     <t>7:45-9:15</t>
   </si>
   <si>
+    <t>Viernes</t>
+  </si>
+  <si>
     <t>MSC</t>
   </si>
   <si>
@@ -231,60 +237,57 @@
     <t>CAMPOS ELECTROMAGNÉTICOS</t>
   </si>
   <si>
-    <t>Viernes</t>
+    <t>PANOZO</t>
+  </si>
+  <si>
+    <t>GONZALES</t>
+  </si>
+  <si>
+    <t>ABIGAIL NOELIA</t>
+  </si>
+  <si>
+    <t>SÍNTESIS DE CIRCUITOS</t>
+  </si>
+  <si>
+    <t>LIC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VILLA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABERO </t>
+  </si>
+  <si>
+    <t>MARITZA</t>
+  </si>
+  <si>
+    <t>INVESTIGACIÓN OPERATIVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YAÑIQUEZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGNE </t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>PROGRAMACIÓN DE SISTEMAS I</t>
+  </si>
+  <si>
+    <t>12:00-13:30</t>
+  </si>
+  <si>
+    <t>MÉTODOS NUMÉRICOS</t>
+  </si>
+  <si>
+    <t>12:00-14:15</t>
   </si>
   <si>
     <t>11:00-13:30</t>
   </si>
   <si>
-    <t>PANOZO</t>
-  </si>
-  <si>
-    <t>GONZALES</t>
-  </si>
-  <si>
-    <t>ABIGAIL NOELIA</t>
-  </si>
-  <si>
-    <t>SÍNTESIS DE CIRCUITOS</t>
-  </si>
-  <si>
-    <t>LIC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VILLA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABERO </t>
-  </si>
-  <si>
-    <t>MARITZA</t>
-  </si>
-  <si>
-    <t>INVESTIGACIÓN OPERATIVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YAÑIQUEZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAGNE </t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>PROGRAMACIÓN DE SISTEMAS I</t>
-  </si>
-  <si>
-    <t>12:00-13:30</t>
-  </si>
-  <si>
-    <t>MÉTODOS NUMÉRICOS</t>
-  </si>
-  <si>
-    <t>12:00-14:15</t>
-  </si>
-  <si>
     <t>ELECTRÓNICA ANALÓGICA II</t>
   </si>
   <si>
@@ -306,12 +309,12 @@
     <t>ELECTRONICA DIGITAL</t>
   </si>
   <si>
+    <t>10:00-12:45</t>
+  </si>
+  <si>
     <t>11:00-12:30</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>MAGUEÑO</t>
   </si>
   <si>
@@ -375,6 +378,9 @@
     <t>6TO.</t>
   </si>
   <si>
+    <t>9:15-12:45</t>
+  </si>
+  <si>
     <t>SANTOS</t>
   </si>
   <si>
@@ -576,10 +582,13 @@
     <t>SISTEMAS Y SERVICIOS DIGITALES</t>
   </si>
   <si>
-    <t>9:15-12:45</t>
-  </si>
-  <si>
-    <t>10:00-12:45</t>
+    <t>ING. DE SISTEMAS</t>
+  </si>
+  <si>
+    <t>ING. DE MECATRONICA</t>
+  </si>
+  <si>
+    <t>ING. DE SISTEMAS ELECTRONICOS</t>
   </si>
 </sst>
 </file>
@@ -589,7 +598,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -704,64 +713,64 @@
     </border>
   </borders>
   <cellStyleXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="0" borderId="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="0" borderId="0" xfId="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1"/>
+    <xf numFmtId="20" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Millares 2 2" xfId="1"/>
@@ -1054,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G34" zoomScale="88" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="88" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,7 +1082,7 @@
     <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="39.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1129,7 +1138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" ht="25.5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1175,11 +1184,15 @@
       <c r="O2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="1"/>
+      <c r="P2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="3" ht="25.5">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1187,13 +1200,13 @@
         <v>18</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="16">
         <v>579580</v>
@@ -1202,7 +1215,7 @@
         <v>22</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>24</v>
@@ -1214,36 +1227,40 @@
         <v>4</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" ht="25.5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" s="16">
         <v>6106624</v>
@@ -1252,7 +1269,7 @@
         <v>22</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>24</v>
@@ -1267,19 +1284,23 @@
         <v>28</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" ht="25.5">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1287,13 +1308,13 @@
         <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" s="16">
         <v>1707959</v>
@@ -1302,7 +1323,7 @@
         <v>22</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>24</v>
@@ -1317,33 +1338,37 @@
         <v>26</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="27" customHeight="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F6" s="16">
         <v>2358779</v>
@@ -1352,7 +1377,7 @@
         <v>22</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>24</v>
@@ -1364,22 +1389,26 @@
         <v>3</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" ht="25.5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1387,13 +1416,13 @@
         <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F7" s="15">
         <v>4288483</v>
@@ -1402,7 +1431,7 @@
         <v>22</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>24</v>
@@ -1417,33 +1446,37 @@
         <v>28</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="8" ht="25.5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F8" s="16">
         <v>6157321</v>
@@ -1452,10 +1485,10 @@
         <v>22</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>25</v>
@@ -1467,33 +1500,37 @@
         <v>26</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="9" ht="25.5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F9" s="16">
         <v>3660493</v>
@@ -1502,10 +1539,10 @@
         <v>22</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>25</v>
@@ -1514,22 +1551,26 @@
         <v>3</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" ht="25.5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1555,7 +1596,7 @@
         <v>75</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
@@ -1564,26 +1605,26 @@
         <v>2</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="11" ht="25.5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1609,7 +1650,7 @@
         <v>80</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>25</v>
@@ -1621,24 +1662,28 @@
         <v>28</v>
       </c>
       <c r="M11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="O11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" ht="25.5">
+      <c r="A12" s="0">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>81</v>
@@ -1659,42 +1704,48 @@
         <v>84</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="0">
         <v>2</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="M12" t="s">
-        <v>49</v>
-      </c>
-      <c r="N12" t="s">
-        <v>36</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="M12" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="0" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="P12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" ht="25.5">
+      <c r="A13" s="0">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F13" s="16">
         <v>4288483</v>
@@ -1706,12 +1757,12 @@
         <v>86</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="0">
         <v>6</v>
       </c>
       <c r="L13" s="17" t="s">
@@ -1721,27 +1772,33 @@
         <v>87</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A14">
+        <v>88</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5">
+      <c r="A14" s="0">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F14" s="16">
         <v>6157321</v>
@@ -1750,45 +1807,51 @@
         <v>22</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="0">
         <v>3</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="M14" t="s">
-        <v>37</v>
-      </c>
-      <c r="N14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="M14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" ht="25.5">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F15" s="16">
         <v>3382860</v>
@@ -1797,37 +1860,37 @@
         <v>22</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="0">
         <v>5</v>
       </c>
       <c r="L15" s="17" t="s">
         <v>28</v>
       </c>
       <c r="M15" s="18" t="s">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="N15" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O15" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="P15" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1835,13 +1898,13 @@
         <v>76</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F16" s="16">
         <v>4811736</v>
@@ -1850,31 +1913,37 @@
         <v>22</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="0">
         <v>3</v>
       </c>
       <c r="L16" s="18" t="s">
         <v>28</v>
       </c>
       <c r="M16" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="N16" t="s">
-        <v>96</v>
-      </c>
-      <c r="O16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1882,13 +1951,13 @@
         <v>18</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F17" s="16">
         <v>2679320</v>
@@ -1897,45 +1966,51 @@
         <v>22</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="0">
         <v>5</v>
       </c>
       <c r="L17" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M17" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O17" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="P17" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" ht="38.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F18" s="16">
         <v>2227789</v>
@@ -1944,45 +2019,51 @@
         <v>22</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="0">
         <v>5</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M18" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F19" s="16">
         <v>3697276</v>
@@ -1991,31 +2072,37 @@
         <v>22</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="0">
         <v>4</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M19" s="18" t="s">
         <v>29</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O19" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" ht="25.5">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2023,46 +2110,52 @@
         <v>18</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="0">
         <v>4</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="M20" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="N20" t="s">
-        <v>96</v>
-      </c>
-      <c r="O20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2070,13 +2163,13 @@
         <v>18</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F21" s="16">
         <v>4793659</v>
@@ -2085,31 +2178,37 @@
         <v>22</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="0">
         <v>4</v>
       </c>
       <c r="L21" s="18" t="s">
         <v>28</v>
       </c>
       <c r="M21" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="N21" t="s">
-        <v>96</v>
-      </c>
-      <c r="O21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2117,13 +2216,13 @@
         <v>18</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F22" s="16">
         <v>2679320</v>
@@ -2132,31 +2231,37 @@
         <v>22</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="0">
         <v>4</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O22" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" ht="25.5">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2164,13 +2269,13 @@
         <v>18</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F23" s="16">
         <v>2288375</v>
@@ -2179,45 +2284,51 @@
         <v>22</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="0">
         <v>5</v>
       </c>
       <c r="L23" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N23" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O23" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F24" s="16">
         <v>3697276</v>
@@ -2226,15 +2337,15 @@
         <v>22</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="0">
         <v>4</v>
       </c>
       <c r="L24" s="18" t="s">
@@ -2247,24 +2358,30 @@
         <v>28</v>
       </c>
       <c r="O24" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A25">
+        <v>57</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" ht="25.5">
+      <c r="A25" s="0">
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F25" s="16">
         <v>3330918</v>
@@ -2273,92 +2390,104 @@
         <v>22</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="0">
         <v>4</v>
       </c>
       <c r="L25" s="17" t="s">
         <v>26</v>
       </c>
       <c r="M25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" s="18" t="s">
         <v>35</v>
-      </c>
-      <c r="N25" s="18" t="s">
-        <v>34</v>
       </c>
       <c r="O25" s="18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="P25" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5">
+      <c r="A26" s="0">
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="0">
         <v>4</v>
       </c>
       <c r="L26" s="17" t="s">
         <v>26</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N26" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O26" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A27">
+        <v>45</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5">
+      <c r="A27" s="0">
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F27" s="16">
         <v>2288375</v>
@@ -2367,31 +2496,37 @@
         <v>22</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="0">
         <v>5</v>
       </c>
       <c r="L27" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M27" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N27" s="18" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O27" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" ht="25.5">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -2399,60 +2534,66 @@
         <v>76</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>138</v>
-      </c>
       <c r="J28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="0">
         <v>3</v>
       </c>
       <c r="L28" s="17" t="s">
         <v>28</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="N28" t="s">
-        <v>96</v>
-      </c>
-      <c r="O28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q28" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F29" s="16">
         <v>3697276</v>
@@ -2461,45 +2602,51 @@
         <v>22</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="0">
         <v>5</v>
       </c>
       <c r="L29" s="17" t="s">
         <v>26</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O29" s="18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="P29" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" ht="38.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F30" s="16">
         <v>2227789</v>
@@ -2508,45 +2655,51 @@
         <v>22</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="0">
         <v>5</v>
       </c>
       <c r="L30" s="17" t="s">
         <v>28</v>
       </c>
       <c r="M30" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N30" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="N30" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="O30" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F31" s="16">
         <v>2319203</v>
@@ -2555,15 +2708,15 @@
         <v>22</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="0">
         <v>4</v>
       </c>
       <c r="L31" s="17" t="s">
@@ -2573,48 +2726,54 @@
         <v>29</v>
       </c>
       <c r="N31" s="17" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O31" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="0">
         <v>6</v>
       </c>
       <c r="L32" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M32" s="18" t="s">
         <v>85</v>
@@ -2623,10 +2782,16 @@
         <v>28</v>
       </c>
       <c r="O32" s="18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" ht="25.5">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2634,30 +2799,30 @@
         <v>18</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H33" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I33" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="I33" s="8" t="s">
-        <v>156</v>
-      </c>
       <c r="J33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="0">
         <v>5</v>
       </c>
       <c r="L33" s="17" t="s">
@@ -2667,13 +2832,19 @@
         <v>85</v>
       </c>
       <c r="N33" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O33" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q33" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2681,13 +2852,13 @@
         <v>18</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F34" s="16">
         <v>3497104</v>
@@ -2696,45 +2867,51 @@
         <v>22</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="0">
         <v>5</v>
       </c>
       <c r="L34" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M34" s="18" t="s">
         <v>85</v>
       </c>
       <c r="N34" s="17" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O34" s="18" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="P34" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q34" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" ht="25.5">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F35" s="16">
         <v>6157321</v>
@@ -2743,31 +2920,37 @@
         <v>22</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="0">
         <v>4</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O35" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="P35" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q35" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2775,13 +2958,13 @@
         <v>18</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F36" s="16">
         <v>1845009</v>
@@ -2790,31 +2973,37 @@
         <v>22</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="0">
         <v>5</v>
       </c>
       <c r="L36" s="17" t="s">
         <v>26</v>
       </c>
       <c r="M36" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N36" s="17" t="s">
         <v>28</v>
       </c>
       <c r="O36" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="P36" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q36" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2822,13 +3011,13 @@
         <v>18</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F37" s="16">
         <v>4284954</v>
@@ -2837,45 +3026,51 @@
         <v>22</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="0">
         <v>5</v>
       </c>
       <c r="L37" s="17" t="s">
         <v>26</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N37" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O37" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="P37" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q37" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" ht="25.5">
+      <c r="A38" s="0">
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F38" s="16">
         <v>2364316</v>
@@ -2884,15 +3079,15 @@
         <v>22</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="0">
         <v>7</v>
       </c>
       <c r="L38" s="17" t="s">
@@ -2905,24 +3100,30 @@
         <v>28</v>
       </c>
       <c r="O38" s="18" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A39">
+        <v>178</v>
+      </c>
+      <c r="P38" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q38" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5">
+      <c r="A39" s="0">
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F39" s="16">
         <v>4992347</v>
@@ -2931,15 +3132,15 @@
         <v>22</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="0">
         <v>5</v>
       </c>
       <c r="L39" s="17" t="s">
@@ -2949,27 +3150,33 @@
         <v>85</v>
       </c>
       <c r="N39" s="17" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O39" s="18" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="P39" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q39" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" ht="25.5">
+      <c r="A40" s="0">
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F40" s="16">
         <v>3497104</v>
@@ -2978,45 +3185,51 @@
         <v>22</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="0">
         <v>5</v>
       </c>
       <c r="L40" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N40" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O40" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="P40" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q40" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5">
       <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F41" s="16">
         <v>3660493</v>
@@ -3025,45 +3238,51 @@
         <v>22</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="0">
         <v>6</v>
       </c>
       <c r="L41" s="17" t="s">
         <v>26</v>
       </c>
       <c r="M41" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N41" s="17" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O41" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q41" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" ht="38.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F42" s="16">
         <v>2227789</v>
@@ -3072,85 +3291,411 @@
         <v>22</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="0">
         <v>4</v>
       </c>
       <c r="L42" s="17" t="s">
         <v>26</v>
       </c>
       <c r="M42" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="N42" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O42" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="P42" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q42" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>42</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="15">
+        <v>4288483</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" s="1">
+        <v>2</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R43" s="1"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" s="16">
+        <v>6157321</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" s="1">
+        <v>4</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R44" s="1"/>
+    </row>
+    <row r="45" ht="38.25">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="N42" s="17" t="s">
+      <c r="B45" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" s="16">
+        <v>2227789</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" s="0">
+        <v>5</v>
+      </c>
+      <c r="L45" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M45" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="O42" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="9"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="9"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="9"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="9"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="9"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="N45" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O45" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="P45" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q45" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" s="16">
+        <v>3697276</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" s="0">
+        <v>4</v>
+      </c>
+      <c r="L46" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="M46" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N46" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="O46" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="P46" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q46" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" ht="38.25">
+      <c r="A47" s="4">
+        <v>44</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="16">
+        <v>2227789</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" s="0">
+        <v>5</v>
+      </c>
+      <c r="L47" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M47" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N47" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O47" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" ht="25.5">
+      <c r="A48" s="0">
+        <v>45</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F48" s="16">
+        <v>3697276</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K48" s="0">
+        <v>4</v>
+      </c>
+      <c r="L48" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="M48" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N48" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="O48" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>48</v>
+      </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="9"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="K49" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="N49" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P49" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q49" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="9"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="K50" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P50" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q50" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="9"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -3158,5 +3703,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/sistema de registro de docentes/Resources/lista_doc.xlsx
+++ b/sistema de registro de docentes/Resources/lista_doc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\source\repos\sistema_de_registro_de_docentes\sistema de registro de docentes\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="515">
   <si>
     <t>Nº</t>
   </si>
@@ -87,7 +87,7 @@
     <t>ROSIO JACKELINE</t>
   </si>
   <si>
-    <t>ING. DE TELECOMUNICAIONES</t>
+    <t>ING. DE TELECOMUNICACIONES</t>
   </si>
   <si>
     <t>VARIABLE COMPLEJA</t>
@@ -219,7 +219,7 @@
     <t>ELECTRÓNICA ANALÓGICA I</t>
   </si>
   <si>
-    <t>4RO.</t>
+    <t>4TO.</t>
   </si>
   <si>
     <t>PhD.</t>
@@ -441,7 +441,7 @@
     <t>SISTEMAS DE COMUNICACIÓN II</t>
   </si>
   <si>
-    <t>7TO.</t>
+    <t>7MO.</t>
   </si>
   <si>
     <t>INGENIERÍA DE CONTROL</t>
@@ -495,7 +495,7 @@
     <t xml:space="preserve">PREPARACIÓN Y EVALUACIÓN DE PROYECTOS </t>
   </si>
   <si>
-    <t>8VO</t>
+    <t xml:space="preserve">8VO. </t>
   </si>
   <si>
     <t>7:45-11:00</t>
@@ -552,7 +552,7 @@
     <t>TRABAJO DE GRADO I</t>
   </si>
   <si>
-    <t xml:space="preserve">9NO. </t>
+    <t>9NO.</t>
   </si>
   <si>
     <t>7:45-11:45</t>
@@ -582,13 +582,988 @@
     <t>SISTEMAS Y SERVICIOS DIGITALES</t>
   </si>
   <si>
+    <t>2216676</t>
+  </si>
+  <si>
+    <t>ING. DE SISTEMAS ELECTRONICOS</t>
+  </si>
+  <si>
+    <t>ANALISIS DE CIRCUITOS</t>
+  </si>
+  <si>
+    <t>1707959</t>
+  </si>
+  <si>
+    <t>4288483</t>
+  </si>
+  <si>
+    <t>3660493</t>
+  </si>
+  <si>
+    <t>ABIGAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIC. </t>
+  </si>
+  <si>
+    <t>SISTEMAS DIGITALES I</t>
+  </si>
+  <si>
+    <t>MARIN</t>
+  </si>
+  <si>
+    <t>THAMES</t>
+  </si>
+  <si>
+    <t>JOSE ARTURO</t>
+  </si>
+  <si>
+    <t>2477389</t>
+  </si>
+  <si>
+    <t>SISTEMAS DIGITALES II</t>
+  </si>
+  <si>
+    <t>2679320</t>
+  </si>
+  <si>
+    <t>2227789</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>MUJICA</t>
+  </si>
+  <si>
+    <t>JAIME MIGUEL</t>
+  </si>
+  <si>
+    <t>2220871</t>
+  </si>
+  <si>
+    <t>CONVERSIÓN ELECTROMAGNÉTICA DE ENERGÍA</t>
+  </si>
+  <si>
+    <t>ELECTRÓNICA ANALÓGICA III</t>
+  </si>
+  <si>
+    <t>CAÑAVIRI</t>
+  </si>
+  <si>
+    <t>WILMER BENJAMIN</t>
+  </si>
+  <si>
+    <t>2709557</t>
+  </si>
+  <si>
+    <t>PROPAGACIÓN Y ENLACES</t>
+  </si>
+  <si>
+    <t>DORADO</t>
+  </si>
+  <si>
+    <t>SUBIETA</t>
+  </si>
+  <si>
+    <t>RODOLFO DANIEL</t>
+  </si>
+  <si>
+    <t>3436608</t>
+  </si>
+  <si>
+    <t>CONMUTACIÓN DIGITAL</t>
+  </si>
+  <si>
+    <t>MOLLINEDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERTIZ </t>
+  </si>
+  <si>
+    <t>IVAN ROBERTO ALFREDO</t>
+  </si>
+  <si>
+    <t>2237942</t>
+  </si>
+  <si>
+    <t>ECONOMÍA PARA INGENIERÍA</t>
+  </si>
+  <si>
+    <t>SISTEMAS DE CONTROL I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSC. </t>
+  </si>
+  <si>
+    <t>3330918</t>
+  </si>
+  <si>
+    <t>MICROPROCESADORES I</t>
+  </si>
+  <si>
+    <t>TELECOMUNICACIONES I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORNEJO </t>
+  </si>
+  <si>
+    <t>EDDY ORLANDO</t>
+  </si>
+  <si>
+    <t>ELECTRÓNICA INDUSTRIAL I</t>
+  </si>
+  <si>
+    <t>2319203</t>
+  </si>
+  <si>
+    <t>SISTEMAS DE COMPUTACIÓN</t>
+  </si>
+  <si>
+    <t>SISTEMAS DE CONTROL II</t>
+  </si>
+  <si>
+    <t>MICROPROCESADORES II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEGISLACIÓN PARA  LA INGENIERÍA</t>
+  </si>
+  <si>
+    <t>3697276</t>
+  </si>
+  <si>
+    <t>TELECOMUNICACIONES II</t>
+  </si>
+  <si>
+    <t>PREPARACIÓN Y EVALUACIÓN DE PROYECTOS</t>
+  </si>
+  <si>
+    <t>REDES DE COMUNICACIÓN I</t>
+  </si>
+  <si>
+    <t>PEÑA</t>
+  </si>
+  <si>
+    <t>MONTAÑO</t>
+  </si>
+  <si>
+    <t>JAIME RICARDO</t>
+  </si>
+  <si>
+    <t>2459880</t>
+  </si>
+  <si>
+    <t>CONTROL Y REGULACIÓN INDUSTRIAL I</t>
+  </si>
+  <si>
+    <t>PROCESAMIENTO DIGITAL DE SEÑALES</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VELA </t>
+  </si>
+  <si>
+    <t>ERIKA</t>
+  </si>
+  <si>
+    <t>4873657</t>
+  </si>
+  <si>
+    <t>ELECTRÓNICA INDUSTRIAL II</t>
+  </si>
+  <si>
+    <t>TELECOMUNICACIONES III</t>
+  </si>
+  <si>
+    <t>FRANCO</t>
+  </si>
+  <si>
+    <t>VACA</t>
+  </si>
+  <si>
+    <t>JUAN</t>
+  </si>
+  <si>
+    <t>346057</t>
+  </si>
+  <si>
+    <t>10:15-13:30</t>
+  </si>
+  <si>
+    <t>GOTTRET</t>
+  </si>
+  <si>
+    <t>RIOS</t>
+  </si>
+  <si>
+    <t>RICARDO IVAN</t>
+  </si>
+  <si>
+    <t>4296833</t>
+  </si>
+  <si>
+    <t>REDES DE COMUNICACIÓN II</t>
+  </si>
+  <si>
+    <t>SISTEMAS ENERGÉTICOS</t>
+  </si>
+  <si>
+    <t>CONTROL Y REGULACIÓN INDUSTRIAL II</t>
+  </si>
+  <si>
+    <t>HIDALGO</t>
+  </si>
+  <si>
+    <t>COLLQUE</t>
+  </si>
+  <si>
+    <t>ABRAHAN ANTONIO</t>
+  </si>
+  <si>
+    <t>4897049</t>
+  </si>
+  <si>
+    <t>ELECTROMEDICINA</t>
+  </si>
+  <si>
+    <t>10MO.</t>
+  </si>
+  <si>
+    <t>TRABAJO DE GRADO II</t>
+  </si>
+  <si>
+    <t>SAAVEDRA</t>
+  </si>
+  <si>
+    <t>GUEVARA</t>
+  </si>
+  <si>
+    <t>ANDY ALVARO</t>
+  </si>
+  <si>
+    <t>3360147</t>
+  </si>
+  <si>
+    <t>TELECOMUNICACIONES AVANZADAS</t>
+  </si>
+  <si>
+    <t>SISTEMAS DE CONTROL INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>MAMANI</t>
+  </si>
+  <si>
+    <t>QUISPE</t>
+  </si>
+  <si>
+    <t>EMERSON</t>
+  </si>
+  <si>
+    <t>TELEMATICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALVAREZ </t>
+  </si>
+  <si>
+    <t>ING. MECATRONICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANALISIS DE CIRCUITOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRASCO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MENDOZA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAYTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALLISAYA </t>
+  </si>
+  <si>
+    <t>RUDDY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALIENDRE </t>
+  </si>
+  <si>
+    <t>TAPIA</t>
+  </si>
+  <si>
+    <t>ANA ROSA</t>
+  </si>
+  <si>
+    <t>ESTADISTICA II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODRIGUEZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANAVIRI </t>
+  </si>
+  <si>
+    <t>CYNTHIA</t>
+  </si>
+  <si>
+    <t>PROGRAMACIÓN II</t>
+  </si>
+  <si>
+    <t>SEPULVEDA</t>
+  </si>
+  <si>
+    <t>LIZ WENDY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIENGO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACUÑA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">METODOS NUMERICOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOTTRET </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIOS </t>
+  </si>
+  <si>
+    <t>ELECTRONICA ANALOGICA I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOYOCHEA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HANNOVER </t>
+  </si>
+  <si>
+    <t>ELIANA</t>
+  </si>
+  <si>
+    <t>PROGRAMACION AVANZADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINTESIS DE CIRCUITOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISTEMAS DIGITALES I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVESTIGACIÓN OPERATIVA I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGUILAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROCABADO </t>
+  </si>
+  <si>
+    <t>JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>RESISTENCIA DE MATERIALES</t>
+  </si>
+  <si>
+    <t>ELECTRONICA ANALOGICA II</t>
+  </si>
+  <si>
+    <t>8:30-10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMADO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANTOS  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUISBERT </t>
+  </si>
+  <si>
+    <t>ANGELA</t>
+  </si>
+  <si>
+    <t>INVESTIGACIÓN OPERATIVA II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALVERDE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VELASQUEZ </t>
+  </si>
+  <si>
+    <t>JUAN MANUEL</t>
+  </si>
+  <si>
+    <t>MECANISMOS</t>
+  </si>
+  <si>
+    <t>DISEÑO MECANICO I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLASINOVIC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAIVA </t>
+  </si>
+  <si>
+    <t>DUNIA</t>
+  </si>
+  <si>
+    <t>ECONOMIA PARA LA INGENIERIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARÍN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THAMES </t>
+  </si>
+  <si>
+    <t>JOSÉ ARTURO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELECTRONICA ANALOGICA III </t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>MEJIA</t>
+  </si>
+  <si>
+    <t>ALEJANDRO MANUEL PATRICIO</t>
+  </si>
+  <si>
+    <t>TERMODINÁMICA Y TRANSFERENCIA DE CALOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BERNAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTINEZ </t>
+  </si>
+  <si>
+    <t>RAMIRO MARCIAL</t>
+  </si>
+  <si>
+    <t>MODELADO Y SIMULACION DE SISTEMAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEREIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUÑOZ </t>
+  </si>
+  <si>
+    <t>ROBOTICA MOVIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEÑA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTAÑO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISTEMAS DE CONTROL II </t>
+  </si>
+  <si>
+    <t>LIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VILLARROEL </t>
+  </si>
+  <si>
+    <t>LEGISLACION PARA INGENIERÍA</t>
+  </si>
+  <si>
+    <t>DISEÑO MECANICO II</t>
+  </si>
+  <si>
+    <t>8VO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOZA </t>
+  </si>
+  <si>
+    <t>MARIANELA</t>
+  </si>
+  <si>
+    <t>SISTEMAS INTELIGENTES</t>
+  </si>
+  <si>
+    <t>ROBOTICA INDUSTRIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGUEÑO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GORDILLO </t>
+  </si>
+  <si>
+    <t>GROVER MILTON</t>
+  </si>
+  <si>
+    <t>SISTEMAS EMBEBIDOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLORES </t>
+  </si>
+  <si>
+    <t>LUIS HUMBERTO</t>
+  </si>
+  <si>
+    <t>PREPARACION Y EVELUACION DE PROYECTOS</t>
+  </si>
+  <si>
+    <t>VIBRACIONES MECANICAS</t>
+  </si>
+  <si>
+    <t>COLQUEHUANCA</t>
+  </si>
+  <si>
+    <t>APAZA</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>MANUFACTURA INTEGRADA</t>
+  </si>
+  <si>
+    <t>AUTOMATIZACION INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>REGULACION INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>PAREDES</t>
+  </si>
+  <si>
+    <t>TORREZ</t>
+  </si>
+  <si>
+    <t>JESSICA LIZZETH</t>
+  </si>
+  <si>
+    <t>PROTOTIPADO RAPIDO</t>
+  </si>
+  <si>
+    <t>EDWIN</t>
+  </si>
+  <si>
+    <t>MAQUINAS HIDRAULICAS Y NEUMATICAS</t>
+  </si>
+  <si>
+    <t>COLQUE</t>
+  </si>
+  <si>
+    <t>ALCON</t>
+  </si>
+  <si>
+    <t>JULIO JHONATHAN</t>
+  </si>
+  <si>
+    <t>VISION COMPUTACIONAL</t>
+  </si>
+  <si>
+    <t>SEMINARIO DE DISEÑO E INNOVACIÓN TECNOLOGICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Sc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRUZ </t>
+  </si>
+  <si>
+    <t>SEMINARIO DE CONTROL AVANZADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MUÑOZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GERMAN JESUS</t>
+  </si>
+  <si>
     <t>ING. DE SISTEMAS</t>
   </si>
   <si>
-    <t>ING. DE MECATRONICA</t>
-  </si>
-  <si>
-    <t>ING. DE SISTEMAS ELECTRONICOS</t>
+    <t>ANÁLISIS Y DISEÑO DE SISTEMAS BASADOS EN MICROPROCESADORES</t>
+  </si>
+  <si>
+    <t>GRIFFITHS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JÁUREGUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JAVIER MARIO</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>14:15-15:45</t>
+  </si>
+  <si>
+    <t>13:30-15:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SUAREZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ROLANDO</t>
+  </si>
+  <si>
+    <t>FIENGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ACUÑA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CARLOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GARCIA</t>
+  </si>
+  <si>
+    <t>ALIENDRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TAPIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANA ROSA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MARIACA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MARGARITA BERNARDA</t>
+  </si>
+  <si>
+    <t>ESTRUCTURA DE DATOS I</t>
+  </si>
+  <si>
+    <t>GOYOCHEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HANNOVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ELIANA MIROSLAVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MEDINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LIZ WENDY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FERNANDEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LUIS HUMBERTO</t>
+  </si>
+  <si>
+    <t>YAÑIQUEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAGNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CLAUDIA SILVIA</t>
+  </si>
+  <si>
+    <t>TERCEROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BELTRAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ARTURO MAURICIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MENDOZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ROSIO JACKELINE</t>
+  </si>
+  <si>
+    <t>MAYTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CALLISAYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUDY WILFREDO</t>
+  </si>
+  <si>
+    <t>YOKOSAKI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PEÑARANDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OSAMU MANUEL</t>
+  </si>
+  <si>
+    <t>BASE DE DATOS I</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RIVERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GABRIELA PAOLA</t>
+  </si>
+  <si>
+    <t>ECONOMÍA PARA LA INGENIERÍA</t>
+  </si>
+  <si>
+    <t>ZAMBRANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CAMBEROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALEJANDRO MIGUEL</t>
+  </si>
+  <si>
+    <t>ESTRUCTURA DE DATOS II</t>
+  </si>
+  <si>
+    <t>RADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BALLON</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JIMMY FARYN</t>
+  </si>
+  <si>
+    <t>INGENIERÍA DE SISTEMAS</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BUTRON</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALIZON EMILZE</t>
+  </si>
+  <si>
+    <t>INVESTIGACIÓN OPERATIVA I</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PAYE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ARIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GORDILLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GROVER MILTON</t>
+  </si>
+  <si>
+    <t>PROGRAMACIÓN AVANZADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QUISBERT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANGELA GUADALUPE</t>
+  </si>
+  <si>
+    <t>ANÁLISIS Y DISEÑO DE SISTEMAS I</t>
+  </si>
+  <si>
+    <t>BASE DE DATOS II</t>
+  </si>
+  <si>
+    <t>LOZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MARIANELA</t>
+  </si>
+  <si>
+    <t>INTELIGENCIA ARTIFICIAL I</t>
+  </si>
+  <si>
+    <t>VILLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CABERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MARITZA DAFNE</t>
+  </si>
+  <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MERCADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PABLO MARIO</t>
+  </si>
+  <si>
+    <t>REDES DE COMPUTADORAS I</t>
+  </si>
+  <si>
+    <t>TALLER DE PROGRAMACIÓN</t>
+  </si>
+  <si>
+    <t>ADMINISTRACIÓN DE SISTEMAS OPERATIVOS Y SERVIDORES</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CANAVIRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CYNTHIA</t>
+  </si>
+  <si>
+    <t>ANÁLISIS Y DISEÑO DE SISTEMAS II</t>
+  </si>
+  <si>
+    <t>MIER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CORNEJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EDWIN</t>
+  </si>
+  <si>
+    <t>BASE DE DATOS III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLQUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALCON </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JULIO JHONATHAN</t>
+  </si>
+  <si>
+    <t>INTELIGENCIA ARTIFICIAL II</t>
+  </si>
+  <si>
+    <t>INTERNET DE LAS COSAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MANTILLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CESAR FERNANDO</t>
+  </si>
+  <si>
+    <t>REDES DE COMPUTADORAS II</t>
+  </si>
+  <si>
+    <t>GLASINOVIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PAIVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DUNIA GLORIA</t>
+  </si>
+  <si>
+    <t>DISEÑO ORGANIZACIONAL</t>
+  </si>
+  <si>
+    <t>INGENIERÍA DE SOFTWARE I</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SOLIZ de COLODRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ISABEL NINOSKA</t>
+  </si>
+  <si>
+    <t>MODELACIÓN Y SIMULACIÓN DE SISTEMAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RICARDO IVAN</t>
+  </si>
+  <si>
+    <t>REDES DE COMPUTADORAS III</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AVENDAÑO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PATRICIA</t>
+  </si>
+  <si>
+    <t>SEGURIDAD DE SISTEMAS</t>
+  </si>
+  <si>
+    <t>INFORMÁTICA FORENSE</t>
+  </si>
+  <si>
+    <t>INGENIERÍA DE SOFTWARE II</t>
+  </si>
+  <si>
+    <t>PRÁCTICA EMPRESARIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PEÑA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MONICA PATRICIA</t>
+  </si>
+  <si>
+    <t>REINGENIERÍA DE SISTEMAS</t>
+  </si>
+  <si>
+    <t>ROBÓTICA</t>
+  </si>
+  <si>
+    <t>AUDITORÍA DE SISTEMAS</t>
+  </si>
+  <si>
+    <t>TALLER DE TICS Y SOFTWARE</t>
+  </si>
+  <si>
+    <t>NARVAEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TAMAYO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JULIO CESAR</t>
+  </si>
+  <si>
+    <t>ADMINISTRACIÓN Y DIRECCIÓN DE OPERACIONES</t>
+  </si>
+  <si>
+    <t>TALLER DE MODELACIÓN Y SIMULACIÓN</t>
   </si>
 </sst>
 </file>
@@ -598,11 +1573,25 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -667,6 +1656,54 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -712,78 +1749,211 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" applyFill="0" borderId="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="3" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
     <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" applyFont="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" applyFont="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" applyFill="0" borderId="0" xfId="0" applyProtection="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1"/>
-    <xf numFmtId="20" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1"/>
+    <xf numFmtId="20" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="14" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="21" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="21" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="21" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" fontId="15" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="22">
     <cellStyle name="Millares 2 2" xfId="1"/>
+    <cellStyle name="Millares 2 2 2" xfId="2"/>
+    <cellStyle name="Millares 2 2 3" xfId="3"/>
+    <cellStyle name="Millares 2 2 4" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="3"/>
-    <cellStyle name="Normal 2 2 2" xfId="4"/>
-    <cellStyle name="Normal 2 3" xfId="5"/>
-    <cellStyle name="Normal 2 4 3" xfId="6"/>
-    <cellStyle name="Normal 3" xfId="7"/>
-    <cellStyle name="Normal 3 2" xfId="8"/>
-    <cellStyle name="Normal 4" xfId="9"/>
-    <cellStyle name="Normal 5" xfId="10"/>
+    <cellStyle name="Normal 2" xfId="5"/>
+    <cellStyle name="Normal 2 2" xfId="6"/>
+    <cellStyle name="Normal 2 2 2" xfId="7"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="8"/>
+    <cellStyle name="Normal 2 2 3" xfId="9"/>
+    <cellStyle name="Normal 2 2 4" xfId="10"/>
+    <cellStyle name="Normal 2 3" xfId="11"/>
+    <cellStyle name="Normal 2 4" xfId="12"/>
+    <cellStyle name="Normal 2 4 3" xfId="13"/>
+    <cellStyle name="Normal 3" xfId="14"/>
+    <cellStyle name="Normal 3 2" xfId="15"/>
+    <cellStyle name="Normal 3 2 2" xfId="16"/>
+    <cellStyle name="Normal 3 2 3" xfId="17"/>
+    <cellStyle name="Normal 4" xfId="18"/>
+    <cellStyle name="Normal 5" xfId="19"/>
+    <cellStyle name="Normal 5 2" xfId="20"/>
+    <cellStyle name="Normal 6" xfId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1061,10 +2231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="88" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="A170" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J186" sqref="J186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,8 +2247,9 @@
     <col min="7" max="7" width="25.140625" customWidth="1"/>
     <col min="8" max="8" width="37.5703125" customWidth="1"/>
     <col min="9" max="9" width="23.5703125" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1" style="19"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
     <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1166,7 +2337,7 @@
       <c r="I2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="7">
@@ -1220,7 +2391,7 @@
       <c r="I3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K3" s="7">
@@ -1274,7 +2445,7 @@
       <c r="I4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K4" s="1">
@@ -1328,7 +2499,7 @@
       <c r="I5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K5" s="7">
@@ -1382,7 +2553,7 @@
       <c r="I6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K6" s="7">
@@ -1433,10 +2604,10 @@
       <c r="H7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K7" s="1">
@@ -1490,7 +2661,7 @@
       <c r="I8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K8" s="1">
@@ -1544,7 +2715,7 @@
       <c r="I9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K9" s="1">
@@ -1598,7 +2769,7 @@
       <c r="I10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K10" s="1">
@@ -1652,7 +2823,7 @@
       <c r="I11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="1">
@@ -1706,7 +2877,7 @@
       <c r="I12" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K12" s="0">
@@ -1759,7 +2930,7 @@
       <c r="I13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K13" s="0">
@@ -1812,7 +2983,7 @@
       <c r="I14" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K14" s="0">
@@ -1865,7 +3036,7 @@
       <c r="I15" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K15" s="0">
@@ -1918,7 +3089,7 @@
       <c r="I16" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K16" s="0">
@@ -1971,7 +3142,7 @@
       <c r="I17" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K17" s="0">
@@ -2024,7 +3195,7 @@
       <c r="I18" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K18" s="0">
@@ -2077,7 +3248,7 @@
       <c r="I19" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K19" s="0">
@@ -2130,7 +3301,7 @@
       <c r="I20" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K20" s="0">
@@ -2183,7 +3354,7 @@
       <c r="I21" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K21" s="0">
@@ -2236,7 +3407,7 @@
       <c r="I22" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K22" s="0">
@@ -2289,7 +3460,7 @@
       <c r="I23" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K23" s="0">
@@ -2342,7 +3513,7 @@
       <c r="I24" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K24" s="0">
@@ -2395,7 +3566,7 @@
       <c r="I25" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K25" s="0">
@@ -2448,7 +3619,7 @@
       <c r="I26" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K26" s="0">
@@ -2501,7 +3672,7 @@
       <c r="I27" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K27" s="0">
@@ -2554,7 +3725,7 @@
       <c r="I28" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K28" s="0">
@@ -2607,7 +3778,7 @@
       <c r="I29" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K29" s="0">
@@ -2660,7 +3831,7 @@
       <c r="I30" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K30" s="0">
@@ -2713,7 +3884,7 @@
       <c r="I31" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K31" s="0">
@@ -2766,7 +3937,7 @@
       <c r="I32" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K32" s="0">
@@ -2816,10 +3987,10 @@
       <c r="H33" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I33" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K33" s="0">
@@ -2869,10 +4040,10 @@
       <c r="H34" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I34" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K34" s="0">
@@ -2922,10 +4093,10 @@
       <c r="H35" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="I35" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K35" s="0">
@@ -2975,10 +4146,10 @@
       <c r="H36" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K36" s="0">
@@ -3028,10 +4199,10 @@
       <c r="H37" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="I37" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K37" s="0">
@@ -3084,7 +4255,7 @@
       <c r="I38" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K38" s="0">
@@ -3137,7 +4308,7 @@
       <c r="I39" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K39" s="0">
@@ -3190,7 +4361,7 @@
       <c r="I40" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K40" s="0">
@@ -3243,7 +4414,7 @@
       <c r="I41" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K41" s="0">
@@ -3296,7 +4467,7 @@
       <c r="I42" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K42" s="0">
@@ -3321,387 +4492,7282 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="0">
+    <row r="43" ht="30">
+      <c r="A43" s="4">
+        <v>48</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" s="0">
+        <v>4</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O43" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P43" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q43" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5">
+      <c r="A44" s="19">
+        <v>49</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="36">
+        <v>579580</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" s="0">
+        <v>4</v>
+      </c>
+      <c r="L44" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M44" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N44" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O44" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="P44" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q44" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" ht="30">
+      <c r="A45" s="4">
+        <v>50</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F43" s="15">
-        <v>4288483</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K43" s="1">
-        <v>2</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R43" s="1"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="4">
-        <v>43</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F44" s="16">
-        <v>6157321</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K44" s="1">
-        <v>4</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R44" s="1"/>
-    </row>
-    <row r="45" ht="38.25">
-      <c r="A45" s="4">
-        <v>44</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F45" s="16">
-        <v>2227789</v>
+      <c r="F45" s="37">
+        <v>6106624</v>
       </c>
       <c r="G45" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="H45" s="13" t="s">
-        <v>108</v>
+      <c r="H45" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="J45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K45" s="0">
-        <v>5</v>
-      </c>
-      <c r="L45" s="18" t="s">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="M45" s="18" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N45" s="18" t="s">
         <v>37</v>
       </c>
       <c r="O45" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="P45" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q45" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
         <v>45</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F46" s="16">
-        <v>3697276</v>
+    </row>
+    <row r="46" ht="25.5">
+      <c r="A46" s="19">
+        <v>51</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>190</v>
       </c>
       <c r="G46" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="H46" s="13" t="s">
-        <v>112</v>
+      <c r="H46" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="J46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K46" s="0">
         <v>4</v>
       </c>
-      <c r="L46" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="M46" s="18" t="s">
-        <v>29</v>
+      <c r="L46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="N46" s="18" t="s">
         <v>51</v>
       </c>
       <c r="O46" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="P46" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q46" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" ht="38.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5">
       <c r="A47" s="4">
-        <v>44</v>
-      </c>
-      <c r="B47" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F47" s="16">
-        <v>2227789</v>
+      <c r="B47" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="36">
+        <v>2358779</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>108</v>
+        <v>188</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="J47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K47" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L47" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="M47" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="N47" s="18" t="s">
-        <v>37</v>
+      <c r="M47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="O47" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" ht="25.5">
-      <c r="A48" s="0">
-        <v>45</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F48" s="16">
-        <v>3697276</v>
+    <row r="48" ht="30">
+      <c r="A48" s="19">
+        <v>53</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>191</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>112</v>
+        <v>188</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="J48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K48" s="0">
         <v>4</v>
       </c>
-      <c r="L48" s="18" t="s">
-        <v>37</v>
+      <c r="L48" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="M48" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N48" s="18" t="s">
         <v>51</v>
       </c>
       <c r="O48" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5">
+      <c r="A49" s="4">
+        <v>54</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="36">
+        <v>6157321</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J49" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49" s="0">
+        <v>4</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O49" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" ht="30">
+      <c r="A50" s="19">
+        <v>55</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J50" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50" s="0">
+        <v>4</v>
+      </c>
+      <c r="L50" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M50" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N50" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="O50" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>48</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="9"/>
-      <c r="K49" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="L49" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="M49" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="N49" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O49" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P49" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q49" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="4">
+    <row r="51" ht="25.5">
+      <c r="A51" s="4">
+        <v>56</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="F51" s="36">
+        <v>9210181</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H51" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J51" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K51" s="0">
+        <v>4</v>
+      </c>
+      <c r="L51" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M51" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="N51" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O51" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="P51" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q51" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5">
+      <c r="A52" s="19">
+        <v>57</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" s="36">
+        <v>4825233</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J52" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K52" s="0">
+        <v>4</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M52" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N52" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" ht="25.5">
+      <c r="A53" s="4">
+        <v>58</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="36">
+        <v>3382860</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J53" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K53" s="0">
+        <v>4</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N53" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O53" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5">
+      <c r="A54" s="19">
+        <v>59</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J54" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K54" s="0">
+        <v>4</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M54" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="N54" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="O54" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" ht="25.5">
+      <c r="A55" s="4">
+        <v>60</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" s="36">
+        <v>6157321</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H55" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J55" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K55" s="0">
+        <v>4</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M55" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N55" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" ht="30">
+      <c r="A56" s="19">
+        <v>61</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J56" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56" s="0">
+        <v>4</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M56" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N56" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" ht="30">
+      <c r="A57" s="4">
+        <v>62</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H57" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J57" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K57" s="0">
+        <v>4</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M57" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="N57" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="O57" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" ht="45">
+      <c r="A58" s="19">
+        <v>63</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H58" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J58" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K58" s="0">
+        <v>4</v>
+      </c>
+      <c r="L58" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M58" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N58" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O58" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" ht="45">
+      <c r="A59" s="4">
+        <v>64</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="D59" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="F59" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H59" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J59" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K59" s="0">
+        <v>4</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M59" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="N59" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" ht="30">
+      <c r="A60" s="19">
+        <v>65</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="F60" s="35">
+        <v>2288375</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H60" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J60" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K60" s="0">
+        <v>4</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M60" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N60" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O60" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" ht="30">
+      <c r="A61" s="4">
+        <v>66</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D61" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="F61" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H61" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J61" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K61" s="0">
+        <v>4</v>
+      </c>
+      <c r="L61" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M61" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N61" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O61" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" ht="30">
+      <c r="A62" s="19">
+        <v>67</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="E62" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="F62" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H62" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J62" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K62" s="0">
+        <v>4</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M62" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N62" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" ht="45">
+      <c r="A63" s="4">
+        <v>68</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="D63" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="E63" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="F63" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H63" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J63" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K63" s="0">
+        <v>4</v>
+      </c>
+      <c r="L63" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="M63" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="N63" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="O63" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" ht="30">
+      <c r="A64" s="19">
+        <v>69</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="E64" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="F64" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H64" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J64" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K64" s="0">
+        <v>4</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M64" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="N64" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="O64" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" ht="30">
+      <c r="A65" s="4">
+        <v>70</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E65" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="F65" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H65" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J65" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K65" s="0">
+        <v>4</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M65" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N65" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O65" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5">
+      <c r="A66" s="19">
+        <v>71</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E66" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="F66" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H66" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J66" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K66" s="0">
+        <v>4</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M66" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N66" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="O66" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" ht="30">
+      <c r="A67" s="4">
+        <v>72</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="F67" s="34">
+        <v>2606013</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H67" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J67" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K67" s="0">
+        <v>4</v>
+      </c>
+      <c r="L67" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M67" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O67" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" ht="30">
+      <c r="A68" s="19">
+        <v>73</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="F68" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H68" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J68" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K68" s="0">
+        <v>4</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M68" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N68" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" ht="30">
+      <c r="A69" s="4">
+        <v>74</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="D69" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="E69" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="F69" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H69" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J69" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K69" s="0">
+        <v>4</v>
+      </c>
+      <c r="L69" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N69" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O69" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" ht="30">
+      <c r="A70" s="19">
+        <v>75</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D70" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E70" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="F70" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H70" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J70" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K70" s="0">
+        <v>4</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M70" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N70" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O70" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" ht="30">
+      <c r="A71" s="4">
+        <v>76</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D71" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="E71" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="F71" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H71" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J71" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K71" s="0">
+        <v>4</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M71" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" ht="30">
+      <c r="A72" s="19">
+        <v>77</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E72" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="F72" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H72" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="J72" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K72" s="0">
+        <v>4</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M72" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N72" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O72" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" ht="30">
+      <c r="A73" s="4">
+        <v>78</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D73" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="F73" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H73" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="J73" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K73" s="0">
+        <v>4</v>
+      </c>
+      <c r="L73" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M73" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O73" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" ht="45">
+      <c r="A74" s="19">
+        <v>79</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E74" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F74" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H74" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="J74" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K74" s="0">
+        <v>4</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M74" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N74" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="O74" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" ht="30">
+      <c r="A75" s="4">
+        <v>80</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="D75" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="E75" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="F75" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H75" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="J75" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K75" s="0">
+        <v>4</v>
+      </c>
+      <c r="L75" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="M75" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N75" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="O75" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" ht="30">
+      <c r="A76" s="19">
+        <v>81</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D76" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E76" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="F76" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H76" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="J76" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K76" s="0">
+        <v>4</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M76" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N76" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O76" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5">
+      <c r="A77" s="4">
+        <v>82</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="D77" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="E77" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="F77" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H77" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="J77" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K77" s="0">
+        <v>4</v>
+      </c>
+      <c r="L77" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M77" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N77" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O77" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" ht="30">
+      <c r="A78" s="19">
+        <v>83</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D78" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E78" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="F78" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H78" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="J78" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K78" s="0">
+        <v>4</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M78" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N78" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O78" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5">
+      <c r="A79" s="4">
+        <v>84</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="D79" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="E79" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="F79" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H79" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="J79" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K79" s="0">
+        <v>4</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M79" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O79" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" ht="30">
+      <c r="A80" s="19">
+        <v>85</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="D80" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="E80" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="F80" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H80" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="J80" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K80" s="0">
+        <v>4</v>
+      </c>
+      <c r="L80" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="M80" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="N80" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="O80" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" ht="45">
+      <c r="A81" s="4">
+        <v>86</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D81" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E81" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F81" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H81" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="J81" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K81" s="0">
+        <v>4</v>
+      </c>
+      <c r="L81" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M81" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N81" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="O81" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" ht="30">
+      <c r="A82" s="19">
+        <v>87</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="D82" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="E82" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="F82" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H82" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="J82" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K82" s="0">
+        <v>4</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M82" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" ht="30">
+      <c r="A83" s="4">
+        <v>88</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="D83" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="E83" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="F83" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H83" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="I83" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="J83" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K83" s="0">
+        <v>4</v>
+      </c>
+      <c r="L83" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M83" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5">
+      <c r="A84" s="19">
+        <v>89</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="D84" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="E84" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="F84" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H84" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="I84" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="J84" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K84" s="0">
+        <v>4</v>
+      </c>
+      <c r="L84" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M84" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N84" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="O84" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" ht="30">
+      <c r="A85" s="4">
+        <v>90</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="D85" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E85" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="F85" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H85" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="I85" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="J85" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K85" s="0">
+        <v>4</v>
+      </c>
+      <c r="L85" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M85" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" ht="30">
+      <c r="A86" s="19">
+        <v>91</v>
+      </c>
+      <c r="B86" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="D86" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="E86" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="F86" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H86" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="I86" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="J86" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K86" s="0">
+        <v>4</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M86" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5">
+      <c r="A87" s="4">
+        <v>92</v>
+      </c>
+      <c r="B87" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="D87" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="E87" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="F87" s="34">
+        <v>12667541</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H87" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="I87" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="J87" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K87" s="0">
+        <v>4</v>
+      </c>
+      <c r="L87" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="M87" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="19">
+        <v>93</v>
+      </c>
+      <c r="B88" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C88" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="D88" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="E88" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F88" s="38">
+        <v>6157321</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H88" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J88" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K88" s="47">
+        <v>6</v>
+      </c>
+      <c r="L88" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="M88" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="N88" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="O88" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="P88" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q88" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R88" s="47"/>
+    </row>
+    <row r="89" ht="30">
+      <c r="A89" s="4">
+        <v>94</v>
+      </c>
+      <c r="B89" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="D89" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="E89" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" s="39">
+        <v>2216676</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H89" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J89" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K89" s="47">
+        <v>5</v>
+      </c>
+      <c r="L89" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M89" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="N89" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="O89" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="P89" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q89" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R89" s="47"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="19">
+        <v>95</v>
+      </c>
+      <c r="B90" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C90" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="D90" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="E90" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="F90" s="40">
+        <v>4842003</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H90" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="9"/>
-      <c r="K50" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="L50" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="M50" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="N50" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O50" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P50" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q50" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="9"/>
-    </row>
-    <row r="52">
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="9"/>
+      <c r="I90" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J90" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K90" s="47">
+        <v>5</v>
+      </c>
+      <c r="L90" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="M90" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="N90" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="O90" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="P90" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q90" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R90" s="47"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="4">
+        <v>96</v>
+      </c>
+      <c r="B91" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C91" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="D91" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="E91" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="F91" s="38">
+        <v>4312215</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H91" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J91" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K91" s="47">
+        <v>5</v>
+      </c>
+      <c r="L91" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M91" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="N91" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="O91" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="P91" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q91" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R91" s="47"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="19">
+        <v>97</v>
+      </c>
+      <c r="B92" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="D92" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="E92" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="F92" s="38">
+        <v>4807588</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H92" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J92" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K92" s="47">
+        <v>5</v>
+      </c>
+      <c r="L92" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="M92" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="N92" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="O92" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="P92" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q92" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R92" s="47"/>
+    </row>
+    <row r="93" ht="30">
+      <c r="A93" s="4">
+        <v>98</v>
+      </c>
+      <c r="B93" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C93" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="D93" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="E93" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="F93" s="38">
+        <v>4804795</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H93" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J93" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K93" s="47">
+        <v>4</v>
+      </c>
+      <c r="L93" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="M93" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="N93" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="O93" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="P93" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q93" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R93" s="47"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="19">
+        <v>99</v>
+      </c>
+      <c r="B94" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="D94" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="E94" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F94" s="40">
+        <v>2216406</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H94" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="I94" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="J94" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K94" s="47">
+        <v>5</v>
+      </c>
+      <c r="L94" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="M94" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="N94" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="O94" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="P94" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q94" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R94" s="47"/>
+    </row>
+    <row r="95" ht="30">
+      <c r="A95" s="4">
+        <v>100</v>
+      </c>
+      <c r="B95" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C95" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="D95" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="E95" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="F95" s="38">
+        <v>4296833</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H95" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="I95" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="J95" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K95" s="47">
+        <v>5</v>
+      </c>
+      <c r="L95" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M95" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="N95" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="O95" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="P95" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q95" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R95" s="47"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="19">
+        <v>101</v>
+      </c>
+      <c r="B96" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="D96" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="E96" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="F96" s="38">
+        <v>4816016</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H96" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="I96" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="J96" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K96" s="47">
+        <v>5</v>
+      </c>
+      <c r="L96" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="M96" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="N96" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="O96" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="P96" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q96" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R96" s="47"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="4">
+        <v>102</v>
+      </c>
+      <c r="B97" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="D97" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="E97" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="F97" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H97" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="I97" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="J97" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K97" s="47">
+        <v>6</v>
+      </c>
+      <c r="L97" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="M97" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="N97" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="O97" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="P97" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q97" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R97" s="47"/>
+    </row>
+    <row r="98" ht="30">
+      <c r="A98" s="19">
+        <v>103</v>
+      </c>
+      <c r="B98" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C98" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="D98" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="E98" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="F98" s="40">
+        <v>2606013</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H98" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="I98" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="J98" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K98" s="47">
+        <v>5</v>
+      </c>
+      <c r="L98" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="M98" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="N98" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="O98" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="P98" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q98" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R98" s="47"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="4">
+        <v>104</v>
+      </c>
+      <c r="B99" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C99" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D99" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E99" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F99" s="38">
+        <v>4825233</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H99" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="I99" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="J99" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K99" s="47">
+        <v>5</v>
+      </c>
+      <c r="L99" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M99" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="N99" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="O99" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="P99" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q99" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R99" s="47"/>
+    </row>
+    <row r="100" ht="30">
+      <c r="A100" s="19">
+        <v>105</v>
+      </c>
+      <c r="B100" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="D100" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="E100" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="F100" s="40">
+        <v>2379891</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H100" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="I100" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J100" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K100" s="47">
+        <v>5</v>
+      </c>
+      <c r="L100" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M100" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="N100" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="O100" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="P100" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q100" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R100" s="47"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="4">
+        <v>106</v>
+      </c>
+      <c r="B101" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C101" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="D101" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="E101" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F101" s="40">
+        <v>6157321</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H101" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="I101" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J101" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K101" s="47">
+        <v>5</v>
+      </c>
+      <c r="L101" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="M101" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="N101" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="O101" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="P101" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q101" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R101" s="47"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="19">
+        <v>107</v>
+      </c>
+      <c r="B102" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C102" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D102" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E102" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F102" s="38">
+        <v>3382860</v>
+      </c>
+      <c r="G102" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H102" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="I102" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J102" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K102" s="47">
+        <v>5</v>
+      </c>
+      <c r="L102" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M102" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="N102" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O102" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="P102" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q102" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R102" s="47"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="4">
+        <v>108</v>
+      </c>
+      <c r="B103" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="D103" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="E103" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="F103" s="40">
+        <v>2679320</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H103" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="I103" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J103" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K103" s="47">
+        <v>5</v>
+      </c>
+      <c r="L103" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M103" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="N103" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O103" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="P103" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q103" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R103" s="47"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="19">
+        <v>109</v>
+      </c>
+      <c r="B104" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="D104" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="E104" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="F104" s="40">
+        <v>4793659</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H104" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="I104" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J104" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K104" s="47">
+        <v>5</v>
+      </c>
+      <c r="L104" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="M104" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="N104" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O104" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="P104" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q104" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R104" s="47"/>
+    </row>
+    <row r="105" ht="30">
+      <c r="A105" s="4">
+        <v>110</v>
+      </c>
+      <c r="B105" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="D105" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="E105" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="F105" s="40">
+        <v>4810056</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H105" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="I105" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J105" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K105" s="47">
+        <v>5</v>
+      </c>
+      <c r="L105" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="M105" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="N105" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="O105" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="P105" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q105" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R105" s="47"/>
+    </row>
+    <row r="106" ht="30">
+      <c r="A106" s="19">
+        <v>111</v>
+      </c>
+      <c r="B106" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="D106" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="E106" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="F106" s="40">
+        <v>2379891</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H106" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="I106" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="J106" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K106" s="47">
+        <v>5</v>
+      </c>
+      <c r="L106" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="M106" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="N106" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="O106" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="P106" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q106" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R106" s="47"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="4">
+        <v>112</v>
+      </c>
+      <c r="B107" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="D107" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="E107" s="40" t="s">
+        <v>332</v>
+      </c>
+      <c r="F107" s="38">
+        <v>1894743</v>
+      </c>
+      <c r="G107" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H107" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="I107" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="J107" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K107" s="47">
+        <v>4</v>
+      </c>
+      <c r="L107" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M107" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="N107" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="O107" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="P107" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q107" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R107" s="47"/>
+    </row>
+    <row r="108" ht="30">
+      <c r="A108" s="19">
+        <v>113</v>
+      </c>
+      <c r="B108" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="D108" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E108" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="F108" s="40">
+        <v>2288375</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H108" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="I108" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="J108" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K108" s="47">
+        <v>5</v>
+      </c>
+      <c r="L108" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="M108" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="N108" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="O108" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="P108" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q108" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R108" s="47"/>
+    </row>
+    <row r="109" ht="30">
+      <c r="A109" s="4">
+        <v>114</v>
+      </c>
+      <c r="B109" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="D109" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="E109" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="F109" s="38">
+        <v>2477389</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H109" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="I109" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="J109" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K109" s="47">
+        <v>5</v>
+      </c>
+      <c r="L109" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="M109" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="N109" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="O109" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="P109" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q109" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R109" s="47"/>
+    </row>
+    <row r="110" ht="30">
+      <c r="A110" s="19">
+        <v>115</v>
+      </c>
+      <c r="B110" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C110" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="D110" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="E110" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="F110" s="40">
+        <v>2606013</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H110" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="I110" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="J110" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K110" s="47">
+        <v>5</v>
+      </c>
+      <c r="L110" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="M110" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="N110" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="O110" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="P110" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q110" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R110" s="47"/>
+    </row>
+    <row r="111" ht="45">
+      <c r="A111" s="4">
+        <v>116</v>
+      </c>
+      <c r="B111" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="D111" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="E111" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="F111" s="40">
+        <v>3431662</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H111" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="I111" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="J111" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K111" s="47">
+        <v>5</v>
+      </c>
+      <c r="L111" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M111" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="N111" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="O111" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="P111" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q111" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R111" s="47"/>
+    </row>
+    <row r="112" ht="30">
+      <c r="A112" s="19">
+        <v>117</v>
+      </c>
+      <c r="B112" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="D112" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="E112" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="F112" s="40">
+        <v>3099776</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H112" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="I112" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="J112" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K112" s="47">
+        <v>6</v>
+      </c>
+      <c r="L112" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="M112" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="N112" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="O112" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="P112" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q112" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R112" s="47"/>
+    </row>
+    <row r="113" ht="28.5">
+      <c r="A113" s="4">
+        <v>118</v>
+      </c>
+      <c r="B113" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="C113" s="40" t="s">
+        <v>346</v>
+      </c>
+      <c r="D113" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="E113" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="F113" s="40">
+        <v>3330918</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H113" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="I113" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="J113" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K113" s="47">
+        <v>4</v>
+      </c>
+      <c r="L113" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="M113" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="N113" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="O113" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="P113" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q113" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R113" s="47"/>
+    </row>
+    <row r="114" ht="30">
+      <c r="A114" s="19">
+        <v>119</v>
+      </c>
+      <c r="B114" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="D114" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E114" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="F114" s="40">
+        <v>2288375</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H114" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="I114" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="J114" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K114" s="47">
+        <v>5</v>
+      </c>
+      <c r="L114" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="M114" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="N114" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="O114" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="P114" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q114" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R114" s="47"/>
+    </row>
+    <row r="115" ht="30">
+      <c r="A115" s="4">
+        <v>120</v>
+      </c>
+      <c r="B115" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="C115" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="D115" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="E115" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="F115" s="38">
+        <v>2459880</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H115" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="I115" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="J115" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K115" s="47">
+        <v>5</v>
+      </c>
+      <c r="L115" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="M115" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="N115" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="O115" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="P115" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q115" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R115" s="47"/>
+    </row>
+    <row r="116" ht="30">
+      <c r="A116" s="19">
+        <v>121</v>
+      </c>
+      <c r="B116" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="C116" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="D116" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="E116" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="F116" s="42">
+        <v>4054700</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H116" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="I116" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="J116" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K116" s="47">
+        <v>3</v>
+      </c>
+      <c r="L116" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M116" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="N116" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="O116" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="P116" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q116" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R116" s="47"/>
+    </row>
+    <row r="117" ht="30">
+      <c r="A117" s="4">
+        <v>122</v>
+      </c>
+      <c r="B117" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="D117" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="E117" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="F117" s="40">
+        <v>4810056</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H117" s="40" t="s">
+        <v>355</v>
+      </c>
+      <c r="I117" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="J117" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K117" s="47">
+        <v>5</v>
+      </c>
+      <c r="L117" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M117" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="N117" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="O117" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="P117" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q117" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R117" s="47"/>
+    </row>
+    <row r="118" ht="30">
+      <c r="A118" s="19">
+        <v>123</v>
+      </c>
+      <c r="B118" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C118" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="F118" s="40">
+        <v>3660493</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H118" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="I118" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="J118" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K118" s="47">
+        <v>5</v>
+      </c>
+      <c r="L118" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="M118" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="N118" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="O118" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="P118" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q118" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R118" s="47"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="4">
+        <v>124</v>
+      </c>
+      <c r="B119" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C119" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="D119" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="E119" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="F119" s="46">
+        <v>2284246</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H119" s="40" t="s">
+        <v>359</v>
+      </c>
+      <c r="I119" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="J119" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K119" s="47">
+        <v>4</v>
+      </c>
+      <c r="L119" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="M119" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="N119" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="O119" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="P119" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q119" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R119" s="47"/>
+    </row>
+    <row r="120" ht="30">
+      <c r="A120" s="19">
+        <v>125</v>
+      </c>
+      <c r="B120" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C120" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="D120" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="E120" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="F120" s="40">
+        <v>2606013</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H120" s="40" t="s">
+        <v>360</v>
+      </c>
+      <c r="I120" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="J120" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K120" s="47">
+        <v>5</v>
+      </c>
+      <c r="L120" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M120" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="N120" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="O120" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="P120" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q120" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R120" s="47"/>
+    </row>
+    <row r="121" ht="30">
+      <c r="A121" s="4">
+        <v>126</v>
+      </c>
+      <c r="B121" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C121" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="D121" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="E121" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="F121" s="38">
+        <v>4811736</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H121" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="I121" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="J121" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K121" s="47">
+        <v>5</v>
+      </c>
+      <c r="L121" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M121" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="N121" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="O121" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="P121" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q121" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R121" s="47"/>
+    </row>
+    <row r="122" ht="30">
+      <c r="A122" s="19">
+        <v>127</v>
+      </c>
+      <c r="B122" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C122" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="D122" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E122" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="F122" s="40">
+        <v>2689307</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H122" s="40" t="s">
+        <v>367</v>
+      </c>
+      <c r="I122" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="J122" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K122" s="47">
+        <v>6</v>
+      </c>
+      <c r="L122" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="M122" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="N122" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="O122" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="P122" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q122" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R122" s="47"/>
+    </row>
+    <row r="123" ht="45">
+      <c r="A123" s="4">
+        <v>128</v>
+      </c>
+      <c r="B123" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="D123" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="E123" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="F123" s="40">
+        <v>3431662</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H123" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="I123" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="J123" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K123" s="47">
+        <v>5</v>
+      </c>
+      <c r="L123" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M123" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="N123" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="O123" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="P123" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q123" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R123" s="47"/>
+    </row>
+    <row r="124" ht="30">
+      <c r="A124" s="19">
+        <v>129</v>
+      </c>
+      <c r="B124" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="D124" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="E124" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="F124" s="40">
+        <v>5995500</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H124" s="40" t="s">
+        <v>372</v>
+      </c>
+      <c r="I124" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="J124" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K124" s="47"/>
+      <c r="L124" s="48"/>
+      <c r="M124" s="49"/>
+      <c r="N124" s="48"/>
+      <c r="O124" s="49"/>
+      <c r="P124" s="47"/>
+      <c r="Q124" s="47"/>
+      <c r="R124" s="47"/>
+    </row>
+    <row r="125" ht="30">
+      <c r="A125" s="4">
+        <v>130</v>
+      </c>
+      <c r="B125" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C125" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="D125" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="E125" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="F125" s="40">
+        <v>4296833</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H125" s="40" t="s">
+        <v>373</v>
+      </c>
+      <c r="I125" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="J125" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K125" s="47">
+        <v>3</v>
+      </c>
+      <c r="L125" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="M125" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="N125" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="O125" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="P125" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q125" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R125" s="47"/>
+    </row>
+    <row r="126" ht="30">
+      <c r="A126" s="19">
+        <v>131</v>
+      </c>
+      <c r="B126" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C126" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="D126" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="E126" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="F126" s="38">
+        <v>2459880</v>
+      </c>
+      <c r="G126" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H126" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="I126" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="J126" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K126" s="47">
+        <v>5</v>
+      </c>
+      <c r="L126" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="M126" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="N126" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="O126" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="P126" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q126" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R126" s="47"/>
+    </row>
+    <row r="127" ht="30">
+      <c r="A127" s="4">
+        <v>132</v>
+      </c>
+      <c r="B127" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="D127" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="E127" s="40" t="s">
+        <v>377</v>
+      </c>
+      <c r="F127" s="40">
+        <v>9231662</v>
+      </c>
+      <c r="G127" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H127" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="I127" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="J127" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K127" s="47">
+        <v>3</v>
+      </c>
+      <c r="L127" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="M127" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="N127" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="O127" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="P127" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q127" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R127" s="47"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="19">
+        <v>133</v>
+      </c>
+      <c r="B128" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="D128" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E128" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="F128" s="38">
+        <v>2364316</v>
+      </c>
+      <c r="G128" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H128" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="I128" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="J128" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K128" s="47">
+        <v>7</v>
+      </c>
+      <c r="L128" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M128" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="N128" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="O128" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="P128" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q128" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R128" s="47"/>
+    </row>
+    <row r="129" ht="30">
+      <c r="A129" s="4">
+        <v>134</v>
+      </c>
+      <c r="B129" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="D129" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="E129" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="F129" s="38">
+        <v>4810056</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H129" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="I129" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="J129" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K129" s="47">
+        <v>5</v>
+      </c>
+      <c r="L129" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="M129" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="N129" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="O129" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="P129" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q129" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R129" s="47"/>
+    </row>
+    <row r="130" ht="30">
+      <c r="A130" s="19">
+        <v>135</v>
+      </c>
+      <c r="B130" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C130" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="D130" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="E130" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="F130" s="38">
+        <v>4823668</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H130" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="I130" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="J130" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K130" s="47">
+        <v>3</v>
+      </c>
+      <c r="L130" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="M130" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="N130" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="O130" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="P130" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q130" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R130" s="47"/>
+    </row>
+    <row r="131" ht="30">
+      <c r="A131" s="4">
+        <v>136</v>
+      </c>
+      <c r="B131" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D131" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E131" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F131" s="38">
+        <v>4288483</v>
+      </c>
+      <c r="G131" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H131" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="I131" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="J131" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K131" s="47">
+        <v>3</v>
+      </c>
+      <c r="L131" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="M131" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="N131" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="O131" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="P131" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q131" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R131" s="47"/>
+    </row>
+    <row r="132" ht="30">
+      <c r="A132" s="19">
+        <v>137</v>
+      </c>
+      <c r="B132" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="C132" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="D132" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="E132" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="F132" s="38">
+        <v>2319203</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H132" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="I132" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="J132" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K132" s="47">
+        <v>7</v>
+      </c>
+      <c r="L132" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="M132" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="N132" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="O132" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="P132" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q132" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R132" s="47"/>
+    </row>
+    <row r="133" ht="30">
+      <c r="A133" s="4">
+        <v>138</v>
+      </c>
+      <c r="B133" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="D133" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="E133" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="F133" s="38">
+        <v>4873657</v>
+      </c>
+      <c r="G133" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H133" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="I133" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="J133" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K133" s="47">
+        <v>3</v>
+      </c>
+      <c r="L133" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="M133" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="N133" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="O133" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="P133" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q133" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R133" s="47"/>
+    </row>
+    <row r="134" ht="45">
+      <c r="A134" s="19">
+        <v>139</v>
+      </c>
+      <c r="B134" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="D134" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="E134" s="51" t="s">
+        <v>390</v>
+      </c>
+      <c r="F134" s="51">
+        <v>3330918</v>
+      </c>
+      <c r="G134" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H134" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="I134" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J134" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="K134" s="51">
+        <v>5</v>
+      </c>
+      <c r="L134" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M134" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="N134" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="O134" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P134" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q134" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R134" s="51"/>
+    </row>
+    <row r="135" ht="45">
+      <c r="A135" s="4">
+        <v>140</v>
+      </c>
+      <c r="B135" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" s="50" t="s">
+        <v>393</v>
+      </c>
+      <c r="D135" s="50" t="s">
+        <v>394</v>
+      </c>
+      <c r="E135" s="51" t="s">
+        <v>395</v>
+      </c>
+      <c r="F135" s="51">
+        <v>2288375</v>
+      </c>
+      <c r="G135" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H135" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="I135" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J135" s="54" t="s">
+        <v>396</v>
+      </c>
+      <c r="K135" s="51">
+        <v>5</v>
+      </c>
+      <c r="L135" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M135" s="53" t="s">
+        <v>397</v>
+      </c>
+      <c r="N135" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="O135" s="53" t="s">
+        <v>398</v>
+      </c>
+      <c r="P135" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q135" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R135" s="51"/>
+    </row>
+    <row r="136" ht="15.75">
+      <c r="A136" s="19">
+        <v>141</v>
+      </c>
+      <c r="B136" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D136" s="50" t="s">
+        <v>399</v>
+      </c>
+      <c r="E136" s="51" t="s">
+        <v>400</v>
+      </c>
+      <c r="F136" s="51">
+        <v>1707959</v>
+      </c>
+      <c r="G136" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H136" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I136" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J136" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K136" s="51">
+        <v>5</v>
+      </c>
+      <c r="L136" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M136" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="N136" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="O136" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="P136" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q136" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R136" s="51"/>
+    </row>
+    <row r="137" ht="15.75">
+      <c r="A137" s="4">
+        <v>142</v>
+      </c>
+      <c r="B137" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137" s="50" t="s">
+        <v>401</v>
+      </c>
+      <c r="D137" s="50" t="s">
+        <v>402</v>
+      </c>
+      <c r="E137" s="51" t="s">
+        <v>403</v>
+      </c>
+      <c r="F137" s="51">
+        <v>2216406</v>
+      </c>
+      <c r="G137" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H137" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I137" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J137" s="54" t="s">
+        <v>396</v>
+      </c>
+      <c r="K137" s="51">
+        <v>5</v>
+      </c>
+      <c r="L137" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="M137" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N137" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="O137" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="P137" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q137" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R137" s="51"/>
+    </row>
+    <row r="138" ht="15.75">
+      <c r="A138" s="19">
+        <v>143</v>
+      </c>
+      <c r="B138" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D138" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="E138" s="51" t="s">
+        <v>403</v>
+      </c>
+      <c r="F138" s="51">
+        <v>2358779</v>
+      </c>
+      <c r="G138" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H138" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="I138" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J138" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K138" s="51">
+        <v>5</v>
+      </c>
+      <c r="L138" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M138" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N138" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="O138" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="P138" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q138" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R138" s="51"/>
+    </row>
+    <row r="139" ht="15.75">
+      <c r="A139" s="4">
+        <v>144</v>
+      </c>
+      <c r="B139" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C139" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="D139" s="50" t="s">
+        <v>406</v>
+      </c>
+      <c r="E139" s="51" t="s">
+        <v>407</v>
+      </c>
+      <c r="F139" s="51">
+        <v>4312215</v>
+      </c>
+      <c r="G139" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H139" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="I139" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J139" s="54" t="s">
+        <v>396</v>
+      </c>
+      <c r="K139" s="51">
+        <v>5</v>
+      </c>
+      <c r="L139" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M139" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="N139" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="O139" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P139" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q139" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R139" s="51"/>
+    </row>
+    <row r="140" ht="15.75">
+      <c r="A140" s="19">
+        <v>145</v>
+      </c>
+      <c r="B140" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C140" s="50" t="s">
+        <v>408</v>
+      </c>
+      <c r="D140" s="50" t="s">
+        <v>409</v>
+      </c>
+      <c r="E140" s="51" t="s">
+        <v>410</v>
+      </c>
+      <c r="F140" s="51">
+        <v>4261849</v>
+      </c>
+      <c r="G140" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H140" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="I140" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J140" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K140" s="51">
+        <v>5</v>
+      </c>
+      <c r="L140" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M140" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="N140" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="O140" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="P140" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q140" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R140" s="51"/>
+    </row>
+    <row r="141" ht="15.75">
+      <c r="A141" s="4">
+        <v>146</v>
+      </c>
+      <c r="B141" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141" s="50" t="s">
+        <v>412</v>
+      </c>
+      <c r="D141" s="50" t="s">
+        <v>413</v>
+      </c>
+      <c r="E141" s="50" t="s">
+        <v>414</v>
+      </c>
+      <c r="F141" s="51">
+        <v>4816016</v>
+      </c>
+      <c r="G141" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H141" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="I141" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J141" s="54" t="s">
+        <v>396</v>
+      </c>
+      <c r="K141" s="51">
+        <v>5</v>
+      </c>
+      <c r="L141" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="M141" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="N141" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="O141" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="P141" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q141" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R141" s="51"/>
+    </row>
+    <row r="142" ht="30">
+      <c r="A142" s="19">
+        <v>147</v>
+      </c>
+      <c r="B142" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C142" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="D142" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="E142" s="51" t="s">
+        <v>416</v>
+      </c>
+      <c r="F142" s="51">
+        <v>4804795</v>
+      </c>
+      <c r="G142" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H142" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I142" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J142" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K142" s="51">
+        <v>4</v>
+      </c>
+      <c r="L142" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M142" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="N142" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="O142" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="P142" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q142" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R142" s="51"/>
+    </row>
+    <row r="143" ht="30">
+      <c r="A143" s="4">
+        <v>148</v>
+      </c>
+      <c r="B143" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C143" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="D143" s="50" t="s">
+        <v>417</v>
+      </c>
+      <c r="E143" s="51" t="s">
+        <v>418</v>
+      </c>
+      <c r="F143" s="51">
+        <v>2689307</v>
+      </c>
+      <c r="G143" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H143" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I143" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J143" s="54" t="s">
+        <v>396</v>
+      </c>
+      <c r="K143" s="51">
+        <v>4</v>
+      </c>
+      <c r="L143" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M143" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="N143" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="O143" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="P143" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q143" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R143" s="51"/>
+    </row>
+    <row r="144" ht="15.75">
+      <c r="A144" s="19">
+        <v>149</v>
+      </c>
+      <c r="B144" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144" s="50" t="s">
+        <v>419</v>
+      </c>
+      <c r="D144" s="50" t="s">
+        <v>420</v>
+      </c>
+      <c r="E144" s="51" t="s">
+        <v>421</v>
+      </c>
+      <c r="F144" s="51">
+        <v>4849854</v>
+      </c>
+      <c r="G144" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H144" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="I144" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J144" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K144" s="51">
+        <v>5</v>
+      </c>
+      <c r="L144" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="M144" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="N144" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="O144" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="P144" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q144" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R144" s="51"/>
+    </row>
+    <row r="145" ht="15.75">
+      <c r="A145" s="4">
+        <v>150</v>
+      </c>
+      <c r="B145" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C145" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="D145" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="E145" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="F145" s="51">
+        <v>3484149</v>
+      </c>
+      <c r="G145" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H145" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="I145" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J145" s="54" t="s">
+        <v>396</v>
+      </c>
+      <c r="K145" s="51">
+        <v>5</v>
+      </c>
+      <c r="L145" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M145" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="N145" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="O145" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="P145" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q145" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R145" s="51"/>
+    </row>
+    <row r="146" ht="15.75">
+      <c r="A146" s="19">
+        <v>151</v>
+      </c>
+      <c r="B146" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C146" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="E146" s="51" t="s">
+        <v>426</v>
+      </c>
+      <c r="F146" s="51">
+        <v>2216676</v>
+      </c>
+      <c r="G146" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H146" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I146" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J146" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K146" s="51">
+        <v>5</v>
+      </c>
+      <c r="L146" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M146" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="N146" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="O146" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="P146" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q146" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R146" s="51"/>
+    </row>
+    <row r="147" ht="15.75">
+      <c r="A147" s="4">
+        <v>152</v>
+      </c>
+      <c r="B147" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C147" s="50" t="s">
+        <v>427</v>
+      </c>
+      <c r="D147" s="50" t="s">
+        <v>428</v>
+      </c>
+      <c r="E147" s="51" t="s">
+        <v>429</v>
+      </c>
+      <c r="F147" s="51">
+        <v>4842003</v>
+      </c>
+      <c r="G147" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H147" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I147" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J147" s="54" t="s">
+        <v>396</v>
+      </c>
+      <c r="K147" s="51">
+        <v>5</v>
+      </c>
+      <c r="L147" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M147" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="N147" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="O147" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="P147" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q147" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R147" s="51"/>
+    </row>
+    <row r="148" ht="15.75">
+      <c r="A148" s="19">
+        <v>153</v>
+      </c>
+      <c r="B148" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C148" s="50" t="s">
+        <v>430</v>
+      </c>
+      <c r="D148" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="E148" s="51" t="s">
+        <v>432</v>
+      </c>
+      <c r="F148" s="51">
+        <v>3495076</v>
+      </c>
+      <c r="G148" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H148" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="I148" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="J148" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K148" s="51">
+        <v>5</v>
+      </c>
+      <c r="L148" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M148" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="N148" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="O148" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P148" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q148" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R148" s="51"/>
+    </row>
+    <row r="149" ht="15.75">
+      <c r="A149" s="4">
+        <v>154</v>
+      </c>
+      <c r="B149" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C149" s="50" t="s">
+        <v>434</v>
+      </c>
+      <c r="D149" s="50" t="s">
+        <v>435</v>
+      </c>
+      <c r="E149" s="51" t="s">
+        <v>436</v>
+      </c>
+      <c r="F149" s="51">
+        <v>6101778</v>
+      </c>
+      <c r="G149" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H149" s="40" t="s">
+        <v>437</v>
+      </c>
+      <c r="I149" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="J149" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K149" s="51">
+        <v>4</v>
+      </c>
+      <c r="L149" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M149" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="N149" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="O149" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="P149" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q149" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R149" s="51"/>
+    </row>
+    <row r="150" ht="15.75">
+      <c r="A150" s="19">
+        <v>155</v>
+      </c>
+      <c r="B150" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" s="50" t="s">
+        <v>438</v>
+      </c>
+      <c r="D150" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="E150" s="51" t="s">
+        <v>440</v>
+      </c>
+      <c r="F150" s="51">
+        <v>3431637</v>
+      </c>
+      <c r="G150" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H150" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="I150" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="J150" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K150" s="51">
+        <v>6</v>
+      </c>
+      <c r="L150" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M150" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="N150" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="O150" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="P150" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q150" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R150" s="51"/>
+    </row>
+    <row r="151" ht="15.75">
+      <c r="A151" s="4">
+        <v>156</v>
+      </c>
+      <c r="B151" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="D151" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="E151" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="F151" s="51">
+        <v>3427000</v>
+      </c>
+      <c r="G151" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H151" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="I151" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="J151" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K151" s="51">
+        <v>5</v>
+      </c>
+      <c r="L151" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="M151" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N151" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="O151" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="P151" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q151" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R151" s="51"/>
+    </row>
+    <row r="152" ht="15.75">
+      <c r="A152" s="19">
+        <v>157</v>
+      </c>
+      <c r="B152" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" s="50" t="s">
+        <v>446</v>
+      </c>
+      <c r="D152" s="50" t="s">
+        <v>447</v>
+      </c>
+      <c r="E152" s="51" t="s">
+        <v>448</v>
+      </c>
+      <c r="F152" s="51">
+        <v>5643753</v>
+      </c>
+      <c r="G152" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H152" s="40" t="s">
+        <v>449</v>
+      </c>
+      <c r="I152" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="J152" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K152" s="51">
+        <v>5</v>
+      </c>
+      <c r="L152" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M152" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="N152" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="O152" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="P152" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q152" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R152" s="51"/>
+    </row>
+    <row r="153" ht="15.75">
+      <c r="A153" s="4">
+        <v>158</v>
+      </c>
+      <c r="B153" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D153" s="50" t="s">
+        <v>450</v>
+      </c>
+      <c r="E153" s="51" t="s">
+        <v>451</v>
+      </c>
+      <c r="F153" s="51">
+        <v>4288483</v>
+      </c>
+      <c r="G153" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H153" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="I153" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="J153" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K153" s="51">
+        <v>5</v>
+      </c>
+      <c r="L153" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="M153" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="N153" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="O153" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="P153" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q153" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R153" s="51"/>
+    </row>
+    <row r="154" ht="15.75">
+      <c r="A154" s="19">
+        <v>159</v>
+      </c>
+      <c r="B154" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D154" s="50" t="s">
+        <v>452</v>
+      </c>
+      <c r="E154" s="51" t="s">
+        <v>453</v>
+      </c>
+      <c r="F154" s="51">
+        <v>4811736</v>
+      </c>
+      <c r="G154" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H154" s="40" t="s">
+        <v>454</v>
+      </c>
+      <c r="I154" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="J154" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K154" s="51">
+        <v>6</v>
+      </c>
+      <c r="L154" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="M154" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="N154" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="O154" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="P154" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q154" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R154" s="51"/>
+    </row>
+    <row r="155" ht="30">
+      <c r="A155" s="4">
+        <v>160</v>
+      </c>
+      <c r="B155" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C155" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D155" s="50" t="s">
+        <v>455</v>
+      </c>
+      <c r="E155" s="51" t="s">
+        <v>456</v>
+      </c>
+      <c r="F155" s="51">
+        <v>4793659</v>
+      </c>
+      <c r="G155" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H155" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="I155" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="J155" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K155" s="51">
+        <v>5</v>
+      </c>
+      <c r="L155" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="M155" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="N155" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="O155" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="P155" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q155" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R155" s="51"/>
+    </row>
+    <row r="156" ht="15.75">
+      <c r="A156" s="19">
+        <v>161</v>
+      </c>
+      <c r="B156" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C156" s="50" t="s">
+        <v>430</v>
+      </c>
+      <c r="D156" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="E156" s="51" t="s">
+        <v>432</v>
+      </c>
+      <c r="F156" s="51">
+        <v>3495076</v>
+      </c>
+      <c r="G156" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H156" s="40" t="s">
+        <v>458</v>
+      </c>
+      <c r="I156" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="J156" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K156" s="51">
+        <v>5</v>
+      </c>
+      <c r="L156" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M156" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N156" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="O156" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="P156" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q156" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R156" s="51"/>
+    </row>
+    <row r="157" ht="15.75">
+      <c r="A157" s="4">
+        <v>162</v>
+      </c>
+      <c r="B157" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C157" s="50" t="s">
+        <v>459</v>
+      </c>
+      <c r="D157" s="50" t="s">
+        <v>460</v>
+      </c>
+      <c r="E157" s="51" t="s">
+        <v>461</v>
+      </c>
+      <c r="F157" s="51">
+        <v>2284246</v>
+      </c>
+      <c r="G157" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H157" s="40" t="s">
+        <v>462</v>
+      </c>
+      <c r="I157" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="J157" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K157" s="51">
+        <v>5</v>
+      </c>
+      <c r="L157" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="M157" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="N157" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="O157" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="P157" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q157" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R157" s="51"/>
+    </row>
+    <row r="158" ht="15.75">
+      <c r="A158" s="19">
+        <v>163</v>
+      </c>
+      <c r="B158" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C158" s="50" t="s">
+        <v>463</v>
+      </c>
+      <c r="D158" s="50" t="s">
+        <v>464</v>
+      </c>
+      <c r="E158" s="51" t="s">
+        <v>465</v>
+      </c>
+      <c r="F158" s="51">
+        <v>4825233</v>
+      </c>
+      <c r="G158" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H158" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="I158" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="J158" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K158" s="51">
+        <v>5</v>
+      </c>
+      <c r="L158" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M158" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="N158" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="O158" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="P158" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q158" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R158" s="51"/>
+    </row>
+    <row r="159" ht="15.75">
+      <c r="A159" s="4">
+        <v>164</v>
+      </c>
+      <c r="B159" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159" s="50" t="s">
+        <v>466</v>
+      </c>
+      <c r="D159" s="50" t="s">
+        <v>467</v>
+      </c>
+      <c r="E159" s="51" t="s">
+        <v>468</v>
+      </c>
+      <c r="F159" s="51">
+        <v>4286783</v>
+      </c>
+      <c r="G159" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H159" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="I159" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="J159" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K159" s="51">
+        <v>5</v>
+      </c>
+      <c r="L159" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M159" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N159" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="O159" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="P159" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q159" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R159" s="51"/>
+    </row>
+    <row r="160" ht="15.75">
+      <c r="A160" s="19">
+        <v>165</v>
+      </c>
+      <c r="B160" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="D160" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="E160" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="F160" s="51">
+        <v>3484149</v>
+      </c>
+      <c r="G160" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H160" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="I160" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="J160" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K160" s="51">
+        <v>5</v>
+      </c>
+      <c r="L160" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="M160" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="N160" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="O160" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="P160" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q160" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R160" s="51"/>
+    </row>
+    <row r="161" ht="30">
+      <c r="A161" s="4">
+        <v>166</v>
+      </c>
+      <c r="B161" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="D161" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="E161" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="F161" s="51">
+        <v>3484149</v>
+      </c>
+      <c r="G161" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H161" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="I161" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="J161" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K161" s="51">
+        <v>5</v>
+      </c>
+      <c r="L161" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M161" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N161" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="O161" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="P161" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q161" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R161" s="51"/>
+    </row>
+    <row r="162" ht="30">
+      <c r="A162" s="19">
+        <v>167</v>
+      </c>
+      <c r="B162" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162" s="50" t="s">
+        <v>472</v>
+      </c>
+      <c r="D162" s="50" t="s">
+        <v>473</v>
+      </c>
+      <c r="E162" s="51" t="s">
+        <v>474</v>
+      </c>
+      <c r="F162" s="51">
+        <v>4807588</v>
+      </c>
+      <c r="G162" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H162" s="40" t="s">
+        <v>475</v>
+      </c>
+      <c r="I162" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="J162" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K162" s="51">
+        <v>5</v>
+      </c>
+      <c r="L162" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="M162" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N162" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="O162" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="P162" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q162" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R162" s="51"/>
+    </row>
+    <row r="163" ht="15.75">
+      <c r="A163" s="4">
+        <v>168</v>
+      </c>
+      <c r="B163" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163" s="50" t="s">
+        <v>476</v>
+      </c>
+      <c r="D163" s="50" t="s">
+        <v>477</v>
+      </c>
+      <c r="E163" s="51" t="s">
+        <v>478</v>
+      </c>
+      <c r="F163" s="51">
+        <v>3326347</v>
+      </c>
+      <c r="G163" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H163" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="I163" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="J163" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K163" s="51">
+        <v>5</v>
+      </c>
+      <c r="L163" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="M163" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="N163" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="O163" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="P163" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q163" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R163" s="51"/>
+    </row>
+    <row r="164" ht="15.75">
+      <c r="A164" s="19">
+        <v>169</v>
+      </c>
+      <c r="B164" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164" s="50" t="s">
+        <v>480</v>
+      </c>
+      <c r="D164" s="50" t="s">
+        <v>481</v>
+      </c>
+      <c r="E164" s="51" t="s">
+        <v>482</v>
+      </c>
+      <c r="F164" s="51">
+        <v>4823668</v>
+      </c>
+      <c r="G164" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H164" s="40" t="s">
+        <v>483</v>
+      </c>
+      <c r="I164" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="J164" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K164" s="51">
+        <v>5</v>
+      </c>
+      <c r="L164" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M164" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="N164" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="O164" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="P164" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q164" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R164" s="51"/>
+    </row>
+    <row r="165" ht="15.75">
+      <c r="A165" s="4">
+        <v>170</v>
+      </c>
+      <c r="B165" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C165" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D165" s="50" t="s">
+        <v>452</v>
+      </c>
+      <c r="E165" s="51" t="s">
+        <v>453</v>
+      </c>
+      <c r="F165" s="51">
+        <v>4811736</v>
+      </c>
+      <c r="G165" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H165" s="40" t="s">
+        <v>484</v>
+      </c>
+      <c r="I165" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="J165" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K165" s="51">
+        <v>5</v>
+      </c>
+      <c r="L165" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="M165" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="N165" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="O165" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="P165" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q165" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R165" s="51"/>
+    </row>
+    <row r="166" ht="15.75">
+      <c r="A166" s="19">
+        <v>171</v>
+      </c>
+      <c r="B166" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C166" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D166" s="50" t="s">
+        <v>485</v>
+      </c>
+      <c r="E166" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="F166" s="51">
+        <v>2319203</v>
+      </c>
+      <c r="G166" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H166" s="40" t="s">
+        <v>487</v>
+      </c>
+      <c r="I166" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="J166" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K166" s="51">
+        <v>5</v>
+      </c>
+      <c r="L166" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M166" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="N166" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="O166" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="P166" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q166" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R166" s="51"/>
+    </row>
+    <row r="167" ht="15.75">
+      <c r="A167" s="4">
+        <v>172</v>
+      </c>
+      <c r="B167" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C167" s="50" t="s">
+        <v>488</v>
+      </c>
+      <c r="D167" s="50" t="s">
+        <v>489</v>
+      </c>
+      <c r="E167" s="51" t="s">
+        <v>490</v>
+      </c>
+      <c r="F167" s="51">
+        <v>1894743</v>
+      </c>
+      <c r="G167" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H167" s="40" t="s">
+        <v>491</v>
+      </c>
+      <c r="I167" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="J167" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K167" s="51"/>
+      <c r="L167" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M167" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="N167" s="51"/>
+      <c r="O167" s="53"/>
+      <c r="P167" s="51"/>
+      <c r="Q167" s="51"/>
+      <c r="R167" s="51"/>
+    </row>
+    <row r="168" ht="15.75">
+      <c r="A168" s="4">
+        <v>174</v>
+      </c>
+      <c r="B168" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168" s="50" t="s">
+        <v>419</v>
+      </c>
+      <c r="D168" s="50" t="s">
+        <v>420</v>
+      </c>
+      <c r="E168" s="51" t="s">
+        <v>421</v>
+      </c>
+      <c r="F168" s="51">
+        <v>4849854</v>
+      </c>
+      <c r="G168" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H168" s="40" t="s">
+        <v>492</v>
+      </c>
+      <c r="I168" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="J168" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K168" s="51">
+        <v>5</v>
+      </c>
+      <c r="L168" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="M168" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N168" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="O168" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="P168" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q168" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R168" s="51"/>
+    </row>
+    <row r="169" ht="15.75">
+      <c r="A169" s="4">
+        <v>176</v>
+      </c>
+      <c r="B169" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C169" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="D169" s="50" t="s">
+        <v>493</v>
+      </c>
+      <c r="E169" s="51" t="s">
+        <v>494</v>
+      </c>
+      <c r="F169" s="51">
+        <v>4054700</v>
+      </c>
+      <c r="G169" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H169" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="I169" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="J169" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K169" s="51">
+        <v>3</v>
+      </c>
+      <c r="L169" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="M169" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N169" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="O169" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="P169" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q169" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R169" s="51"/>
+    </row>
+    <row r="170" ht="30">
+      <c r="A170" s="4">
+        <v>178</v>
+      </c>
+      <c r="B170" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C170" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D170" s="50" t="s">
+        <v>455</v>
+      </c>
+      <c r="E170" s="51" t="s">
+        <v>456</v>
+      </c>
+      <c r="F170" s="51">
+        <v>4793659</v>
+      </c>
+      <c r="G170" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H170" s="40" t="s">
+        <v>495</v>
+      </c>
+      <c r="I170" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="J170" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K170" s="51">
+        <v>6</v>
+      </c>
+      <c r="L170" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M170" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="N170" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="O170" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="P170" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q170" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R170" s="51"/>
+    </row>
+    <row r="171" ht="15.75">
+      <c r="A171" s="4">
+        <v>180</v>
+      </c>
+      <c r="B171" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C171" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="D171" s="50" t="s">
+        <v>460</v>
+      </c>
+      <c r="E171" s="51" t="s">
+        <v>496</v>
+      </c>
+      <c r="F171" s="51">
+        <v>4296833</v>
+      </c>
+      <c r="G171" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H171" s="40" t="s">
+        <v>497</v>
+      </c>
+      <c r="I171" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="J171" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K171" s="51">
+        <v>5</v>
+      </c>
+      <c r="L171" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M171" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N171" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="O171" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="P171" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q171" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R171" s="51"/>
+    </row>
+    <row r="172" ht="15.75">
+      <c r="A172" s="4">
+        <v>182</v>
+      </c>
+      <c r="B172" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C172" s="50" t="s">
+        <v>408</v>
+      </c>
+      <c r="D172" s="50" t="s">
+        <v>498</v>
+      </c>
+      <c r="E172" s="51" t="s">
+        <v>499</v>
+      </c>
+      <c r="F172" s="51">
+        <v>3382860</v>
+      </c>
+      <c r="G172" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H172" s="40" t="s">
+        <v>500</v>
+      </c>
+      <c r="I172" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="J172" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K172" s="51">
+        <v>5</v>
+      </c>
+      <c r="L172" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="M172" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="N172" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="O172" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="P172" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q172" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R172" s="51"/>
+    </row>
+    <row r="173" ht="15.75">
+      <c r="A173" s="4">
+        <v>184</v>
+      </c>
+      <c r="B173" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C173" s="50" t="s">
+        <v>476</v>
+      </c>
+      <c r="D173" s="50" t="s">
+        <v>477</v>
+      </c>
+      <c r="E173" s="51" t="s">
+        <v>478</v>
+      </c>
+      <c r="F173" s="51">
+        <v>3326347</v>
+      </c>
+      <c r="G173" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H173" s="40" t="s">
+        <v>501</v>
+      </c>
+      <c r="I173" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="J173" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K173" s="51">
+        <v>5</v>
+      </c>
+      <c r="L173" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="M173" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N173" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="O173" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="P173" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q173" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R173" s="51"/>
+    </row>
+    <row r="174" ht="15.75">
+      <c r="A174" s="19">
+        <v>185</v>
+      </c>
+      <c r="B174" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C174" s="50" t="s">
+        <v>472</v>
+      </c>
+      <c r="D174" s="50" t="s">
+        <v>473</v>
+      </c>
+      <c r="E174" s="51" t="s">
+        <v>474</v>
+      </c>
+      <c r="F174" s="51">
+        <v>4807588</v>
+      </c>
+      <c r="G174" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H174" s="40" t="s">
+        <v>502</v>
+      </c>
+      <c r="I174" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="J174" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K174" s="51">
+        <v>5</v>
+      </c>
+      <c r="L174" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M174" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="N174" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="O174" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="P174" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q174" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R174" s="51"/>
+    </row>
+    <row r="175" ht="15.75">
+      <c r="A175" s="4">
+        <v>186</v>
+      </c>
+      <c r="B175" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C175" s="50" t="s">
+        <v>408</v>
+      </c>
+      <c r="D175" s="50" t="s">
+        <v>498</v>
+      </c>
+      <c r="E175" s="51" t="s">
+        <v>499</v>
+      </c>
+      <c r="F175" s="51">
+        <v>3382860</v>
+      </c>
+      <c r="G175" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H175" s="40" t="s">
+        <v>503</v>
+      </c>
+      <c r="I175" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="J175" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K175" s="51">
+        <v>3</v>
+      </c>
+      <c r="L175" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="M175" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N175" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="O175" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="P175" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q175" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R175" s="51"/>
+    </row>
+    <row r="176" ht="30">
+      <c r="A176" s="19">
+        <v>187</v>
+      </c>
+      <c r="B176" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C176" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D176" s="50" t="s">
+        <v>504</v>
+      </c>
+      <c r="E176" s="51" t="s">
+        <v>505</v>
+      </c>
+      <c r="F176" s="51">
+        <v>2622384</v>
+      </c>
+      <c r="G176" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H176" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="I176" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="J176" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K176" s="51">
+        <v>6</v>
+      </c>
+      <c r="L176" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M176" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N176" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="O176" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="P176" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q176" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R176" s="51"/>
+    </row>
+    <row r="177" ht="15.75">
+      <c r="A177" s="4">
+        <v>188</v>
+      </c>
+      <c r="B177" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C177" s="50" t="s">
+        <v>430</v>
+      </c>
+      <c r="D177" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="E177" s="51" t="s">
+        <v>432</v>
+      </c>
+      <c r="F177" s="51">
+        <v>3495076</v>
+      </c>
+      <c r="G177" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H177" s="40" t="s">
+        <v>506</v>
+      </c>
+      <c r="I177" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="J177" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K177" s="51">
+        <v>4</v>
+      </c>
+      <c r="L177" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M177" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="N177" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="O177" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="P177" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q177" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R177" s="51"/>
+    </row>
+    <row r="178" ht="15.75">
+      <c r="A178" s="19">
+        <v>189</v>
+      </c>
+      <c r="B178" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C178" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D178" s="50" t="s">
+        <v>452</v>
+      </c>
+      <c r="E178" s="51" t="s">
+        <v>453</v>
+      </c>
+      <c r="F178" s="51">
+        <v>4811736</v>
+      </c>
+      <c r="G178" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H178" s="40" t="s">
+        <v>507</v>
+      </c>
+      <c r="I178" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="J178" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K178" s="51">
+        <v>5</v>
+      </c>
+      <c r="L178" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="M178" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="N178" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="O178" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="P178" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q178" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R178" s="51"/>
+    </row>
+    <row r="179" ht="15.75">
+      <c r="A179" s="4">
+        <v>190</v>
+      </c>
+      <c r="B179" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C179" s="50" t="s">
+        <v>419</v>
+      </c>
+      <c r="D179" s="50" t="s">
+        <v>420</v>
+      </c>
+      <c r="E179" s="51" t="s">
+        <v>421</v>
+      </c>
+      <c r="F179" s="51">
+        <v>4849854</v>
+      </c>
+      <c r="G179" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H179" s="40" t="s">
+        <v>508</v>
+      </c>
+      <c r="I179" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="J179" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K179" s="51"/>
+      <c r="L179" s="51"/>
+      <c r="M179" s="53"/>
+      <c r="N179" s="51"/>
+      <c r="O179" s="53"/>
+      <c r="P179" s="51"/>
+      <c r="Q179" s="51"/>
+      <c r="R179" s="51"/>
+    </row>
+    <row r="180" ht="15.75">
+      <c r="A180" s="19">
+        <v>191</v>
+      </c>
+      <c r="B180" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C180" s="50" t="s">
+        <v>472</v>
+      </c>
+      <c r="D180" s="50" t="s">
+        <v>473</v>
+      </c>
+      <c r="E180" s="51" t="s">
+        <v>474</v>
+      </c>
+      <c r="F180" s="51">
+        <v>4807588</v>
+      </c>
+      <c r="G180" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H180" s="40" t="s">
+        <v>509</v>
+      </c>
+      <c r="I180" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="J180" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K180" s="51"/>
+      <c r="L180" s="51"/>
+      <c r="M180" s="53"/>
+      <c r="N180" s="51"/>
+      <c r="O180" s="53"/>
+      <c r="P180" s="51"/>
+      <c r="Q180" s="51"/>
+      <c r="R180" s="51"/>
+    </row>
+    <row r="181" ht="15.75">
+      <c r="A181" s="4">
+        <v>192</v>
+      </c>
+      <c r="B181" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C181" s="50" t="s">
+        <v>510</v>
+      </c>
+      <c r="D181" s="50" t="s">
+        <v>511</v>
+      </c>
+      <c r="E181" s="51" t="s">
+        <v>512</v>
+      </c>
+      <c r="F181" s="51">
+        <v>2231638</v>
+      </c>
+      <c r="G181" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H181" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="I181" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="J181" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K181" s="51"/>
+      <c r="L181" s="51"/>
+      <c r="M181" s="53"/>
+      <c r="N181" s="51"/>
+      <c r="O181" s="53"/>
+      <c r="P181" s="51"/>
+      <c r="Q181" s="51"/>
+      <c r="R181" s="51"/>
+    </row>
+    <row r="182" ht="30">
+      <c r="A182" s="19">
+        <v>193</v>
+      </c>
+      <c r="B182" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C182" s="50" t="s">
+        <v>408</v>
+      </c>
+      <c r="D182" s="50" t="s">
+        <v>409</v>
+      </c>
+      <c r="E182" s="51" t="s">
+        <v>410</v>
+      </c>
+      <c r="F182" s="51">
+        <v>4261849</v>
+      </c>
+      <c r="G182" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H182" s="40" t="s">
+        <v>513</v>
+      </c>
+      <c r="I182" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="J182" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K182" s="51">
+        <v>5</v>
+      </c>
+      <c r="L182" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M182" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N182" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="O182" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="P182" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q182" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R182" s="51"/>
+    </row>
+    <row r="183" ht="30">
+      <c r="A183" s="4">
+        <v>194</v>
+      </c>
+      <c r="B183" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="D183" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="E183" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="F183" s="51">
+        <v>3484149</v>
+      </c>
+      <c r="G183" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H183" s="40" t="s">
+        <v>514</v>
+      </c>
+      <c r="I183" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="J183" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K183" s="51">
+        <v>4</v>
+      </c>
+      <c r="L183" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M183" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="N183" s="51"/>
+      <c r="O183" s="53"/>
+      <c r="P183" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q183" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R183" s="51"/>
+    </row>
+    <row r="184" ht="15.75">
+      <c r="A184" s="19">
+        <v>195</v>
+      </c>
+      <c r="B184" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C184" s="50" t="s">
+        <v>510</v>
+      </c>
+      <c r="D184" s="50" t="s">
+        <v>511</v>
+      </c>
+      <c r="E184" s="51" t="s">
+        <v>512</v>
+      </c>
+      <c r="F184" s="51">
+        <v>2231638</v>
+      </c>
+      <c r="G184" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H184" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="I184" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="J184" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K184" s="51">
+        <v>7</v>
+      </c>
+      <c r="L184" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M184" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="N184" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="O184" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="P184" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q184" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R184" s="51"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E61" display="avidaln@adm.emi.edu.bo" r:id="rId1"/>
+    <hyperlink ref="E100" display="avidaln@adm.emi.edu.bo" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/sistema de registro de docentes/Resources/lista_doc.xlsx
+++ b/sistema de registro de docentes/Resources/lista_doc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\source\repos\sistema_de_registro_de_docentes\sistema de registro de docentes\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="513">
   <si>
     <t>Nº</t>
   </si>
@@ -102,7 +102,7 @@
     <t>Lunes</t>
   </si>
   <si>
-    <t>9:15-11:45</t>
+    <t>9:15-12:00</t>
   </si>
   <si>
     <t>Miercoles</t>
@@ -135,7 +135,7 @@
     <t>Jueves</t>
   </si>
   <si>
-    <t>7:45-10:00</t>
+    <t>7:45-09:15</t>
   </si>
   <si>
     <t>MY. DIM</t>
@@ -156,9 +156,6 @@
     <t>11:00-12:45</t>
   </si>
   <si>
-    <t>10:15-11:45</t>
-  </si>
-  <si>
     <t>MENACHO</t>
   </si>
   <si>
@@ -171,12 +168,12 @@
     <t>ECUACIONES DIFERENCIALES</t>
   </si>
   <si>
-    <t>7:45-9:15</t>
-  </si>
-  <si>
     <t>Viernes</t>
   </si>
   <si>
+    <t>10:15-12:00</t>
+  </si>
+  <si>
     <t>MSC</t>
   </si>
   <si>
@@ -192,6 +189,9 @@
     <t>ESTADÍSTICA II</t>
   </si>
   <si>
+    <t>7:45-10:15</t>
+  </si>
+  <si>
     <t>9:15-11:00</t>
   </si>
   <si>
@@ -309,12 +309,6 @@
     <t>ELECTRONICA DIGITAL</t>
   </si>
   <si>
-    <t>10:00-12:45</t>
-  </si>
-  <si>
-    <t>11:00-12:30</t>
-  </si>
-  <si>
     <t>MAGUEÑO</t>
   </si>
   <si>
@@ -495,7 +489,7 @@
     <t xml:space="preserve">PREPARACIÓN Y EVALUACIÓN DE PROYECTOS </t>
   </si>
   <si>
-    <t xml:space="preserve">8VO. </t>
+    <t>8VO.</t>
   </si>
   <si>
     <t>7:45-11:00</t>
@@ -555,7 +549,7 @@
     <t>9NO.</t>
   </si>
   <si>
-    <t>7:45-11:45</t>
+    <t>7:45-12:00</t>
   </si>
   <si>
     <t>DE LA BARRA</t>
@@ -597,6 +591,9 @@
     <t>4288483</t>
   </si>
   <si>
+    <t>10:15-11:00</t>
+  </si>
+  <si>
     <t>3660493</t>
   </si>
   <si>
@@ -978,7 +975,7 @@
     <t>ELECTRONICA ANALOGICA II</t>
   </si>
   <si>
-    <t>8:30-10:00</t>
+    <t>8:30-10:15</t>
   </si>
   <si>
     <t xml:space="preserve">AMADO </t>
@@ -1089,9 +1086,6 @@
     <t>DISEÑO MECANICO II</t>
   </si>
   <si>
-    <t>8VO.</t>
-  </si>
-  <si>
     <t xml:space="preserve">LOZA </t>
   </si>
   <si>
@@ -1212,10 +1206,10 @@
     <t>B</t>
   </si>
   <si>
-    <t>14:15-15:45</t>
-  </si>
-  <si>
-    <t>13:30-15:45</t>
+    <t>14:15-16:30</t>
+  </si>
+  <si>
+    <t>13:30-16:30</t>
   </si>
   <si>
     <t xml:space="preserve"> SUAREZ</t>
@@ -1927,8 +1921,8 @@
     <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="9" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -2233,8 +2227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J186" sqref="J186"/>
+    <sheetView tabSelected="1" topLeftCell="H2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2248,6 +2242,7 @@
     <col min="8" max="8" width="37.5703125" customWidth="1"/>
     <col min="9" max="9" width="23.5703125" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1" style="19"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1" style="19"/>
     <col min="13" max="13" width="14.7109375" customWidth="1"/>
     <col min="15" max="15" width="13.5703125" customWidth="1"/>
     <col min="17" max="17" width="14.42578125" customWidth="1"/>
@@ -2334,14 +2329,14 @@
       <c r="H2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="51" t="s">
         <v>24</v>
       </c>
       <c r="J2" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>26</v>
@@ -2388,14 +2383,14 @@
       <c r="H3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="51" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K3" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>35</v>
@@ -2442,14 +2437,14 @@
       <c r="H4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="51" t="s">
         <v>24</v>
       </c>
       <c r="J4" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="1">
-        <v>3</v>
+      <c r="K4" s="57">
+        <v>5</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>28</v>
@@ -2461,7 +2456,7 @@
         <v>37</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>30</v>
@@ -2479,13 +2474,13 @@
         <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="F5" s="16">
         <v>1707959</v>
@@ -2494,28 +2489,28 @@
         <v>22</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="51" t="s">
         <v>24</v>
       </c>
       <c r="J5" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K5" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>30</v>
@@ -2530,16 +2525,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="F6" s="16">
         <v>2358779</v>
@@ -2548,22 +2543,22 @@
         <v>22</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="51" t="s">
         <v>24</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K6" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>28</v>
@@ -2604,26 +2599,26 @@
       <c r="H7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="51" t="s">
         <v>24</v>
       </c>
       <c r="J7" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="1">
-        <v>2</v>
+      <c r="K7" s="57">
+        <v>5</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>30</v>
@@ -2638,7 +2633,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>62</v>
@@ -2658,14 +2653,14 @@
       <c r="H8" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="51" t="s">
         <v>66</v>
       </c>
       <c r="J8" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="1">
-        <v>4</v>
+      <c r="K8" s="57">
+        <v>5</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>26</v>
@@ -2677,7 +2672,7 @@
         <v>28</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>30</v>
@@ -2712,14 +2707,14 @@
       <c r="H9" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="51" t="s">
         <v>66</v>
       </c>
       <c r="J9" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="1">
-        <v>3</v>
+      <c r="K9" s="57">
+        <v>4</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>35</v>
@@ -2728,10 +2723,10 @@
         <v>38</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>30</v>
@@ -2766,29 +2761,29 @@
       <c r="H10" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="51" t="s">
         <v>66</v>
       </c>
       <c r="J10" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="1">
-        <v>2</v>
+      <c r="K10" s="57">
+        <v>7</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>57</v>
@@ -2820,26 +2815,26 @@
       <c r="H11" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="51" t="s">
         <v>66</v>
       </c>
       <c r="J11" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="1">
-        <v>3</v>
+      <c r="K11" s="57">
+        <v>5</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>30</v>
@@ -2854,7 +2849,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>81</v>
@@ -2874,20 +2869,20 @@
       <c r="H12" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="51" t="s">
         <v>66</v>
       </c>
       <c r="J12" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="0">
-        <v>2</v>
+      <c r="K12" s="19">
+        <v>4</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>26</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>37</v>
@@ -2896,10 +2891,10 @@
         <v>85</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="25.5">
@@ -2927,13 +2922,13 @@
       <c r="H13" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="51" t="s">
         <v>66</v>
       </c>
       <c r="J13" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="0">
+      <c r="K13" s="19">
         <v>6</v>
       </c>
       <c r="L13" s="17" t="s">
@@ -2943,7 +2938,7 @@
         <v>87</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O13" s="17" t="s">
         <v>88</v>
@@ -2960,7 +2955,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>62</v>
@@ -2980,14 +2975,14 @@
       <c r="H14" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="51" t="s">
         <v>90</v>
       </c>
       <c r="J14" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="0">
-        <v>3</v>
+      <c r="K14" s="19">
+        <v>4</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>26</v>
@@ -2999,7 +2994,7 @@
         <v>35</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="P14" s="0" t="s">
         <v>30</v>
@@ -3033,26 +3028,26 @@
       <c r="H15" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="51" t="s">
         <v>90</v>
       </c>
       <c r="J15" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="0">
+      <c r="K15" s="19">
         <v>5</v>
       </c>
       <c r="L15" s="17" t="s">
         <v>28</v>
       </c>
       <c r="M15" s="18" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="N15" s="18" t="s">
         <v>37</v>
       </c>
       <c r="O15" s="18" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="P15" s="0" t="s">
         <v>30</v>
@@ -3069,13 +3064,13 @@
         <v>76</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="F16" s="16">
         <v>4811736</v>
@@ -3084,22 +3079,22 @@
         <v>22</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="I16" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" s="51" t="s">
         <v>90</v>
       </c>
       <c r="J16" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="0">
+      <c r="K16" s="19">
         <v>3</v>
       </c>
       <c r="L16" s="18" t="s">
         <v>28</v>
       </c>
       <c r="M16" s="18" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N16" s="0" t="s">
         <v>30</v>
@@ -3122,13 +3117,13 @@
         <v>18</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F17" s="16">
         <v>2679320</v>
@@ -3137,25 +3132,25 @@
         <v>22</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="51" t="s">
         <v>90</v>
       </c>
       <c r="J17" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="0">
-        <v>5</v>
+      <c r="K17" s="19">
+        <v>6</v>
       </c>
       <c r="L17" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M17" s="18" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O17" s="18" t="s">
         <v>27</v>
@@ -3172,16 +3167,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="F18" s="16">
         <v>2227789</v>
@@ -3190,15 +3185,15 @@
         <v>22</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I18" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="51" t="s">
         <v>90</v>
       </c>
       <c r="J18" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="0">
+      <c r="K18" s="19">
         <v>5</v>
       </c>
       <c r="L18" s="18" t="s">
@@ -3225,16 +3220,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="F19" s="16">
         <v>3697276</v>
@@ -3243,15 +3238,15 @@
         <v>22</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="I19" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="51" t="s">
         <v>90</v>
       </c>
       <c r="J19" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="0">
+      <c r="K19" s="19">
         <v>4</v>
       </c>
       <c r="L19" s="18" t="s">
@@ -3261,10 +3256,10 @@
         <v>29</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O19" s="18" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="P19" s="0" t="s">
         <v>30</v>
@@ -3281,37 +3276,37 @@
         <v>18</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="F20" s="16" t="s">
         <v>114</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>116</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H20" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="J20" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="19">
+        <v>4</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" s="18" t="s">
         <v>117</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="J20" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="0">
-        <v>4</v>
-      </c>
-      <c r="L20" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="M20" s="18" t="s">
-        <v>119</v>
       </c>
       <c r="N20" s="0" t="s">
         <v>30</v>
@@ -3334,13 +3329,13 @@
         <v>18</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>122</v>
       </c>
       <c r="F21" s="16">
         <v>4793659</v>
@@ -3349,22 +3344,22 @@
         <v>22</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>118</v>
+        <v>121</v>
+      </c>
+      <c r="I21" s="51" t="s">
+        <v>116</v>
       </c>
       <c r="J21" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="0">
+      <c r="K21" s="19">
         <v>4</v>
       </c>
       <c r="L21" s="18" t="s">
         <v>28</v>
       </c>
       <c r="M21" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N21" s="0" t="s">
         <v>30</v>
@@ -3387,13 +3382,13 @@
         <v>18</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F22" s="16">
         <v>2679320</v>
@@ -3402,28 +3397,28 @@
         <v>22</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>118</v>
+        <v>123</v>
+      </c>
+      <c r="I22" s="51" t="s">
+        <v>116</v>
       </c>
       <c r="J22" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K22" s="0">
+      <c r="K22" s="19">
         <v>4</v>
       </c>
       <c r="L22" s="18" t="s">
         <v>35</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O22" s="18" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="P22" s="0" t="s">
         <v>30</v>
@@ -3440,13 +3435,13 @@
         <v>18</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="F23" s="16">
         <v>2288375</v>
@@ -3455,28 +3450,28 @@
         <v>22</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>118</v>
+        <v>127</v>
+      </c>
+      <c r="I23" s="51" t="s">
+        <v>116</v>
       </c>
       <c r="J23" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K23" s="0">
+      <c r="K23" s="19">
         <v>5</v>
       </c>
       <c r="L23" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N23" s="18" t="s">
         <v>35</v>
       </c>
       <c r="O23" s="18" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P23" s="0" t="s">
         <v>30</v>
@@ -3490,16 +3485,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="F24" s="16">
         <v>3697276</v>
@@ -3508,15 +3503,15 @@
         <v>22</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>118</v>
+        <v>128</v>
+      </c>
+      <c r="I24" s="51" t="s">
+        <v>116</v>
       </c>
       <c r="J24" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="0">
+      <c r="K24" s="19">
         <v>4</v>
       </c>
       <c r="L24" s="18" t="s">
@@ -3543,16 +3538,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>133</v>
       </c>
       <c r="F25" s="16">
         <v>3330918</v>
@@ -3561,16 +3556,16 @@
         <v>22</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>118</v>
+        <v>132</v>
+      </c>
+      <c r="I25" s="51" t="s">
+        <v>116</v>
       </c>
       <c r="J25" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="0">
-        <v>4</v>
+      <c r="K25" s="19">
+        <v>5</v>
       </c>
       <c r="L25" s="17" t="s">
         <v>26</v>
@@ -3599,43 +3594,43 @@
         <v>18</v>
       </c>
       <c r="C26" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="F26" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>138</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="I26" s="51" t="s">
+        <v>138</v>
       </c>
       <c r="J26" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="0">
+      <c r="K26" s="19">
         <v>4</v>
       </c>
       <c r="L26" s="17" t="s">
         <v>26</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N26" s="18" t="s">
         <v>35</v>
       </c>
       <c r="O26" s="18" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P26" s="0" t="s">
         <v>30</v>
@@ -3652,13 +3647,13 @@
         <v>18</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="F27" s="16">
         <v>2288375</v>
@@ -3667,25 +3662,25 @@
         <v>22</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="I27" s="51" t="s">
+        <v>138</v>
       </c>
       <c r="J27" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K27" s="0">
-        <v>5</v>
+      <c r="K27" s="19">
+        <v>4</v>
       </c>
       <c r="L27" s="17" t="s">
         <v>37</v>
       </c>
       <c r="M27" s="18" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N27" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O27" s="18" t="s">
         <v>38</v>
@@ -3705,30 +3700,30 @@
         <v>76</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="F28" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>145</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
+      </c>
+      <c r="I28" s="51" t="s">
+        <v>138</v>
       </c>
       <c r="J28" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K28" s="0">
+      <c r="K28" s="19">
         <v>3</v>
       </c>
       <c r="L28" s="17" t="s">
@@ -3755,16 +3750,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="F29" s="16">
         <v>3697276</v>
@@ -3773,22 +3768,22 @@
         <v>22</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>140</v>
+        <v>145</v>
+      </c>
+      <c r="I29" s="51" t="s">
+        <v>138</v>
       </c>
       <c r="J29" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K29" s="0">
+      <c r="K29" s="19">
         <v>5</v>
       </c>
       <c r="L29" s="17" t="s">
         <v>26</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N29" s="17" t="s">
         <v>35</v>
@@ -3808,16 +3803,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="F30" s="16">
         <v>2227789</v>
@@ -3826,28 +3821,28 @@
         <v>22</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>140</v>
+        <v>146</v>
+      </c>
+      <c r="I30" s="51" t="s">
+        <v>138</v>
       </c>
       <c r="J30" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K30" s="0">
+      <c r="K30" s="19">
         <v>5</v>
       </c>
       <c r="L30" s="17" t="s">
         <v>28</v>
       </c>
       <c r="M30" s="18" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N30" s="17" t="s">
         <v>37</v>
       </c>
       <c r="O30" s="18" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="P30" s="0" t="s">
         <v>30</v>
@@ -3861,16 +3856,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>151</v>
       </c>
       <c r="F31" s="16">
         <v>2319203</v>
@@ -3879,16 +3874,16 @@
         <v>22</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>140</v>
+        <v>150</v>
+      </c>
+      <c r="I31" s="51" t="s">
+        <v>138</v>
       </c>
       <c r="J31" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K31" s="0">
-        <v>4</v>
+      <c r="K31" s="19">
+        <v>5</v>
       </c>
       <c r="L31" s="17" t="s">
         <v>26</v>
@@ -3897,10 +3892,10 @@
         <v>29</v>
       </c>
       <c r="N31" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O31" s="18" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="P31" s="0" t="s">
         <v>30</v>
@@ -3914,33 +3909,33 @@
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="F32" s="15" t="s">
         <v>154</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>156</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
+      </c>
+      <c r="I32" s="52" t="s">
+        <v>156</v>
       </c>
       <c r="J32" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K32" s="0">
+      <c r="K32" s="19">
         <v>6</v>
       </c>
       <c r="L32" s="17" t="s">
@@ -3953,7 +3948,7 @@
         <v>28</v>
       </c>
       <c r="O32" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P32" s="0" t="s">
         <v>30</v>
@@ -3970,30 +3965,30 @@
         <v>18</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="F33" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>138</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="I33" s="10" t="s">
         <v>158</v>
       </c>
+      <c r="I33" s="52" t="s">
+        <v>156</v>
+      </c>
       <c r="J33" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K33" s="0">
+      <c r="K33" s="19">
         <v>5</v>
       </c>
       <c r="L33" s="17" t="s">
@@ -4006,7 +4001,7 @@
         <v>35</v>
       </c>
       <c r="O33" s="18" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="P33" s="0" t="s">
         <v>30</v>
@@ -4023,13 +4018,13 @@
         <v>18</v>
       </c>
       <c r="C34" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>163</v>
       </c>
       <c r="F34" s="16">
         <v>3497104</v>
@@ -4038,15 +4033,15 @@
         <v>22</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>158</v>
+        <v>162</v>
+      </c>
+      <c r="I34" s="52" t="s">
+        <v>156</v>
       </c>
       <c r="J34" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K34" s="0">
+      <c r="K34" s="19">
         <v>5</v>
       </c>
       <c r="L34" s="17" t="s">
@@ -4056,7 +4051,7 @@
         <v>85</v>
       </c>
       <c r="N34" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O34" s="18" t="s">
         <v>87</v>
@@ -4073,7 +4068,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>62</v>
@@ -4091,28 +4086,28 @@
         <v>22</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>158</v>
+        <v>163</v>
+      </c>
+      <c r="I35" s="52" t="s">
+        <v>156</v>
       </c>
       <c r="J35" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K35" s="0">
+      <c r="K35" s="19">
         <v>4</v>
       </c>
       <c r="L35" s="17" t="s">
         <v>37</v>
       </c>
       <c r="M35" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="O35" s="18" t="s">
         <v>50</v>
-      </c>
-      <c r="N35" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="O35" s="18" t="s">
-        <v>45</v>
       </c>
       <c r="P35" s="0" t="s">
         <v>30</v>
@@ -4129,13 +4124,13 @@
         <v>18</v>
       </c>
       <c r="C36" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>168</v>
       </c>
       <c r="F36" s="16">
         <v>1845009</v>
@@ -4144,16 +4139,16 @@
         <v>22</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>158</v>
+        <v>167</v>
+      </c>
+      <c r="I36" s="52" t="s">
+        <v>156</v>
       </c>
       <c r="J36" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K36" s="0">
-        <v>5</v>
+      <c r="K36" s="19">
+        <v>4</v>
       </c>
       <c r="L36" s="17" t="s">
         <v>26</v>
@@ -4182,13 +4177,13 @@
         <v>18</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F37" s="16">
         <v>4284954</v>
@@ -4197,22 +4192,22 @@
         <v>22</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>158</v>
+        <v>170</v>
+      </c>
+      <c r="I37" s="52" t="s">
+        <v>156</v>
       </c>
       <c r="J37" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K37" s="0">
-        <v>5</v>
+      <c r="K37" s="19">
+        <v>6</v>
       </c>
       <c r="L37" s="17" t="s">
         <v>26</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N37" s="17" t="s">
         <v>37</v>
@@ -4235,13 +4230,13 @@
         <v>18</v>
       </c>
       <c r="C38" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>175</v>
       </c>
       <c r="F38" s="16">
         <v>2364316</v>
@@ -4250,15 +4245,15 @@
         <v>22</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
+      </c>
+      <c r="I38" s="51" t="s">
+        <v>175</v>
       </c>
       <c r="J38" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K38" s="0">
+      <c r="K38" s="19">
         <v>7</v>
       </c>
       <c r="L38" s="17" t="s">
@@ -4271,7 +4266,7 @@
         <v>28</v>
       </c>
       <c r="O38" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P38" s="0" t="s">
         <v>30</v>
@@ -4288,13 +4283,13 @@
         <v>39</v>
       </c>
       <c r="C39" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>181</v>
       </c>
       <c r="F39" s="16">
         <v>4992347</v>
@@ -4303,15 +4298,15 @@
         <v>22</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>177</v>
+        <v>180</v>
+      </c>
+      <c r="I39" s="51" t="s">
+        <v>175</v>
       </c>
       <c r="J39" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K39" s="0">
+      <c r="K39" s="19">
         <v>5</v>
       </c>
       <c r="L39" s="17" t="s">
@@ -4321,7 +4316,7 @@
         <v>85</v>
       </c>
       <c r="N39" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O39" s="18" t="s">
         <v>87</v>
@@ -4338,16 +4333,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F40" s="16">
         <v>3497104</v>
@@ -4356,15 +4351,15 @@
         <v>22</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>177</v>
+        <v>182</v>
+      </c>
+      <c r="I40" s="51" t="s">
+        <v>175</v>
       </c>
       <c r="J40" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K40" s="0">
+      <c r="K40" s="19">
         <v>5</v>
       </c>
       <c r="L40" s="17" t="s">
@@ -4409,25 +4404,25 @@
         <v>22</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>177</v>
+        <v>183</v>
+      </c>
+      <c r="I41" s="51" t="s">
+        <v>175</v>
       </c>
       <c r="J41" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K41" s="0">
-        <v>6</v>
+      <c r="K41" s="19">
+        <v>5</v>
       </c>
       <c r="L41" s="17" t="s">
         <v>26</v>
       </c>
       <c r="M41" s="18" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N41" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O41" s="18" t="s">
         <v>57</v>
@@ -4444,16 +4439,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="F42" s="16">
         <v>2227789</v>
@@ -4462,22 +4457,22 @@
         <v>22</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>177</v>
+        <v>184</v>
+      </c>
+      <c r="I42" s="51" t="s">
+        <v>175</v>
       </c>
       <c r="J42" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K42" s="0">
-        <v>4</v>
+      <c r="K42" s="19">
+        <v>5</v>
       </c>
       <c r="L42" s="17" t="s">
         <v>26</v>
       </c>
       <c r="M42" s="18" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N42" s="17" t="s">
         <v>37</v>
@@ -4509,22 +4504,22 @@
         <v>21</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H43" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="I43" s="51" t="s">
         <v>24</v>
       </c>
       <c r="J43" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K43" s="0">
-        <v>4</v>
+      <c r="K43" s="19">
+        <v>5</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>26</v>
@@ -4565,19 +4560,19 @@
         <v>579580</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="I44" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="I44" s="51" t="s">
         <v>24</v>
       </c>
       <c r="J44" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K44" s="0">
-        <v>4</v>
+      <c r="K44" s="19">
+        <v>6</v>
       </c>
       <c r="L44" s="18" t="s">
         <v>35</v>
@@ -4589,7 +4584,7 @@
         <v>37</v>
       </c>
       <c r="O44" s="18" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="P44" s="0" t="s">
         <v>30</v>
@@ -4618,18 +4613,18 @@
         <v>6106624</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H45" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I45" s="8" t="s">
+      <c r="I45" s="51" t="s">
         <v>24</v>
       </c>
       <c r="J45" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K45" s="0">
+      <c r="K45" s="19">
         <v>4</v>
       </c>
       <c r="L45" s="1" t="s">
@@ -4642,7 +4637,13 @@
         <v>37</v>
       </c>
       <c r="O45" s="18" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="P45" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q45" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5">
@@ -4653,43 +4654,49 @@
         <v>18</v>
       </c>
       <c r="C46" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="E46" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="F46" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H46" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F46" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="I46" s="8" t="s">
+      <c r="I46" s="51" t="s">
         <v>24</v>
       </c>
       <c r="J46" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K46" s="0">
-        <v>4</v>
+      <c r="K46" s="19">
+        <v>5</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N46" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O46" s="18" t="s">
         <v>36</v>
+      </c>
+      <c r="P46" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q46" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5">
@@ -4697,46 +4704,52 @@
         <v>52</v>
       </c>
       <c r="B47" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="D47" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="E47" s="31" t="s">
         <v>54</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>55</v>
       </c>
       <c r="F47" s="36">
         <v>2358779</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="I47" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I47" s="51" t="s">
         <v>24</v>
       </c>
       <c r="J47" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K47" s="0">
-        <v>4</v>
+      <c r="K47" s="19">
+        <v>5</v>
       </c>
       <c r="L47" s="18" t="s">
         <v>35</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>28</v>
       </c>
       <c r="O47" s="18" t="s">
         <v>57</v>
+      </c>
+      <c r="P47" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q47" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="30">
@@ -4756,34 +4769,40 @@
         <v>60</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H48" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="I48" s="8" t="s">
+      <c r="I48" s="51" t="s">
         <v>24</v>
       </c>
       <c r="J48" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K48" s="0">
-        <v>4</v>
+      <c r="K48" s="19">
+        <v>5</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M48" s="18" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="N48" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O48" s="18" t="s">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="P48" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q48" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5">
@@ -4806,18 +4825,18 @@
         <v>6157321</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H49" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="I49" s="8" t="s">
+      <c r="I49" s="51" t="s">
         <v>66</v>
       </c>
       <c r="J49" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K49" s="0">
+      <c r="K49" s="19">
         <v>4</v>
       </c>
       <c r="L49" s="1" t="s">
@@ -4830,7 +4849,13 @@
         <v>28</v>
       </c>
       <c r="O49" s="18" t="s">
-        <v>45</v>
+        <v>190</v>
+      </c>
+      <c r="P49" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q49" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="30">
@@ -4850,21 +4875,21 @@
         <v>70</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H50" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I50" s="8" t="s">
+      <c r="I50" s="51" t="s">
         <v>66</v>
       </c>
       <c r="J50" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K50" s="0">
+      <c r="K50" s="19">
         <v>4</v>
       </c>
       <c r="L50" s="18" t="s">
@@ -4874,10 +4899,16 @@
         <v>38</v>
       </c>
       <c r="N50" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="P50" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q50" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5">
@@ -4885,7 +4916,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C51" s="29" t="s">
         <v>72</v>
@@ -4894,40 +4925,40 @@
         <v>73</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F51" s="36">
         <v>9210181</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H51" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I51" s="8" t="s">
+      <c r="I51" s="51" t="s">
         <v>66</v>
       </c>
       <c r="J51" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K51" s="0">
-        <v>4</v>
+      <c r="K51" s="19">
+        <v>6</v>
       </c>
       <c r="L51" s="18" t="s">
         <v>35</v>
       </c>
       <c r="M51" s="18" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="N51" s="18" t="s">
         <v>37</v>
       </c>
       <c r="O51" s="18" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P51" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q51" s="18" t="s">
         <v>57</v>
@@ -4938,7 +4969,7 @@
         <v>57</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C52" s="28" t="s">
         <v>77</v>
@@ -4953,31 +4984,37 @@
         <v>4825233</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H52" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="I52" s="8" t="s">
+      <c r="I52" s="51" t="s">
         <v>66</v>
       </c>
       <c r="J52" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K52" s="0">
-        <v>4</v>
+      <c r="K52" s="19">
+        <v>5</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M52" s="18" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N52" s="18" t="s">
         <v>37</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="P52" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q52" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="25.5">
@@ -5000,31 +5037,37 @@
         <v>3382860</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="I53" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I53" s="51" t="s">
         <v>66</v>
       </c>
       <c r="J53" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K53" s="0">
-        <v>4</v>
+      <c r="K53" s="19">
+        <v>6</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M53" s="18" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N53" s="18" t="s">
         <v>35</v>
       </c>
       <c r="O53" s="18" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="P53" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q53" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5">
@@ -5044,34 +5087,40 @@
         <v>60</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H54" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="I54" s="8" t="s">
+      <c r="I54" s="51" t="s">
         <v>66</v>
       </c>
       <c r="J54" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K54" s="0">
-        <v>4</v>
+      <c r="K54" s="19">
+        <v>6</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M54" s="18" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="N54" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O54" s="18" t="s">
         <v>44</v>
+      </c>
+      <c r="P54" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q54" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="25.5">
@@ -5094,31 +5143,37 @@
         <v>6157321</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H55" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I55" s="8" t="s">
+      <c r="I55" s="51" t="s">
         <v>90</v>
       </c>
       <c r="J55" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K55" s="0">
-        <v>4</v>
+      <c r="K55" s="19">
+        <v>5</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M55" s="18" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N55" s="18" t="s">
         <v>35</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="P55" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q55" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="30">
@@ -5126,46 +5181,52 @@
         <v>61</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C56" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="D56" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="D56" s="29" t="s">
+      <c r="E56" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="E56" s="30" t="s">
+      <c r="F56" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="F56" s="29" t="s">
+      <c r="G56" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H56" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="G56" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="H56" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="I56" s="8" t="s">
+      <c r="I56" s="51" t="s">
         <v>90</v>
       </c>
       <c r="J56" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K56" s="0">
-        <v>4</v>
+      <c r="K56" s="19">
+        <v>5</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M56" s="18" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N56" s="18" t="s">
         <v>37</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="P56" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q56" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="30">
@@ -5173,46 +5234,52 @@
         <v>62</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D57" s="29" t="s">
         <v>20</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I57" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I57" s="51" t="s">
         <v>90</v>
       </c>
       <c r="J57" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K57" s="0">
-        <v>4</v>
+      <c r="K57" s="19">
+        <v>5</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M57" s="18" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N57" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O57" s="18" t="s">
         <v>27</v>
+      </c>
+      <c r="P57" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q57" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="45">
@@ -5223,31 +5290,31 @@
         <v>91</v>
       </c>
       <c r="C58" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D58" s="29" t="s">
+      <c r="F58" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H58" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E58" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="F58" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="H58" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="I58" s="8" t="s">
+      <c r="I58" s="51" t="s">
         <v>90</v>
       </c>
       <c r="J58" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K58" s="0">
-        <v>4</v>
+      <c r="K58" s="19">
+        <v>5</v>
       </c>
       <c r="L58" s="18" t="s">
         <v>35</v>
@@ -5260,6 +5327,12 @@
       </c>
       <c r="O58" s="18" t="s">
         <v>57</v>
+      </c>
+      <c r="P58" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q58" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="45">
@@ -5267,46 +5340,52 @@
         <v>64</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C59" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="D59" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="D59" s="32" t="s">
+      <c r="E59" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="E59" s="33" t="s">
+      <c r="F59" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="F59" s="32" t="s">
+      <c r="G59" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H59" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="G59" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="H59" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="I59" s="8" t="s">
+      <c r="I59" s="51" t="s">
         <v>90</v>
       </c>
       <c r="J59" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K59" s="0">
+      <c r="K59" s="19">
         <v>4</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M59" s="18" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N59" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="P59" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q59" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="30">
@@ -5314,46 +5393,52 @@
         <v>65</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C60" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" s="35" t="s">
         <v>126</v>
-      </c>
-      <c r="D60" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="E60" s="35" t="s">
-        <v>128</v>
       </c>
       <c r="F60" s="35">
         <v>2288375</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>118</v>
+        <v>207</v>
+      </c>
+      <c r="I60" s="51" t="s">
+        <v>116</v>
       </c>
       <c r="J60" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K60" s="0">
-        <v>4</v>
+      <c r="K60" s="19">
+        <v>5</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M60" s="18" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N60" s="18" t="s">
         <v>35</v>
       </c>
       <c r="O60" s="18" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="P60" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q60" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="61" ht="30">
@@ -5361,46 +5446,52 @@
         <v>66</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D61" s="32" t="s">
         <v>20</v>
       </c>
       <c r="E61" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="F61" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="F61" s="32" t="s">
+      <c r="G61" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H61" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="G61" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="H61" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>118</v>
+      <c r="I61" s="51" t="s">
+        <v>116</v>
       </c>
       <c r="J61" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K61" s="0">
-        <v>4</v>
+      <c r="K61" s="19">
+        <v>5</v>
       </c>
       <c r="L61" s="18" t="s">
         <v>35</v>
       </c>
       <c r="M61" s="18" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N61" s="18" t="s">
         <v>37</v>
       </c>
       <c r="O61" s="18" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="P61" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q61" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="30">
@@ -5411,43 +5502,49 @@
         <v>18</v>
       </c>
       <c r="C62" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="D62" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="D62" s="32" t="s">
+      <c r="E62" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="E62" s="33" t="s">
+      <c r="F62" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="F62" s="32" t="s">
+      <c r="G62" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H62" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="G62" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="H62" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>118</v>
+      <c r="I62" s="51" t="s">
+        <v>116</v>
       </c>
       <c r="J62" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K62" s="0">
-        <v>4</v>
+      <c r="K62" s="19">
+        <v>5</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M62" s="18" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N62" s="18" t="s">
         <v>37</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="P62" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q62" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="45">
@@ -5455,33 +5552,33 @@
         <v>68</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C63" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="D63" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="D63" s="32" t="s">
+      <c r="E63" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="E63" s="33" t="s">
+      <c r="F63" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="F63" s="32" t="s">
+      <c r="G63" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H63" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="G63" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="H63" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="I63" s="8" t="s">
-        <v>118</v>
+      <c r="I63" s="51" t="s">
+        <v>116</v>
       </c>
       <c r="J63" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K63" s="0">
+      <c r="K63" s="19">
         <v>4</v>
       </c>
       <c r="L63" s="18" t="s">
@@ -5491,10 +5588,16 @@
         <v>85</v>
       </c>
       <c r="N63" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O63" s="18" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="P63" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q63" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="30">
@@ -5502,46 +5605,52 @@
         <v>69</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C64" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D64" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="D64" s="32" t="s">
+      <c r="E64" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="E64" s="33" t="s">
+      <c r="F64" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="F64" s="32" t="s">
-        <v>199</v>
-      </c>
       <c r="G64" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="I64" s="8" t="s">
-        <v>118</v>
+        <v>222</v>
+      </c>
+      <c r="I64" s="51" t="s">
+        <v>116</v>
       </c>
       <c r="J64" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K64" s="0">
-        <v>4</v>
+      <c r="K64" s="19">
+        <v>5</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M64" s="18" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N64" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O64" s="18" t="s">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="P64" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q64" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="30">
@@ -5549,34 +5658,34 @@
         <v>70</v>
       </c>
       <c r="B65" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="F65" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="C65" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="D65" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="E65" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="F65" s="32" t="s">
+      <c r="G65" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H65" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="G65" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="H65" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>118</v>
+      <c r="I65" s="51" t="s">
+        <v>116</v>
       </c>
       <c r="J65" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K65" s="0">
-        <v>4</v>
+      <c r="K65" s="19">
+        <v>5</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>26</v>
@@ -5589,6 +5698,12 @@
       </c>
       <c r="O65" s="18" t="s">
         <v>85</v>
+      </c>
+      <c r="P65" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q65" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5">
@@ -5596,46 +5711,52 @@
         <v>71</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C66" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E66" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="D66" s="32" t="s">
+      <c r="F66" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="E66" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="F66" s="32" t="s">
+      <c r="G66" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H66" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="I66" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="G66" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="H66" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>140</v>
-      </c>
       <c r="J66" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K66" s="0">
-        <v>4</v>
+      <c r="K66" s="19">
+        <v>5</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M66" s="18" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N66" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O66" s="18" t="s">
         <v>57</v>
+      </c>
+      <c r="P66" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q66" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="30">
@@ -5646,43 +5767,49 @@
         <v>91</v>
       </c>
       <c r="C67" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="D67" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="D67" s="34" t="s">
+      <c r="E67" s="27" t="s">
         <v>229</v>
-      </c>
-      <c r="E67" s="27" t="s">
-        <v>230</v>
       </c>
       <c r="F67" s="34">
         <v>2606013</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H67" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="I67" s="8" t="s">
-        <v>140</v>
+        <v>230</v>
+      </c>
+      <c r="I67" s="51" t="s">
+        <v>138</v>
       </c>
       <c r="J67" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K67" s="0">
-        <v>4</v>
+      <c r="K67" s="19">
+        <v>5</v>
       </c>
       <c r="L67" s="18" t="s">
         <v>35</v>
       </c>
       <c r="M67" s="18" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>28</v>
       </c>
       <c r="O67" s="18" t="s">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="P67" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q67" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="30">
@@ -5690,34 +5817,34 @@
         <v>73</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C68" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D68" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="E68" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="D68" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="E68" s="33" t="s">
-        <v>151</v>
-      </c>
       <c r="F68" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H68" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="G68" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="H68" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>140</v>
+      <c r="I68" s="51" t="s">
+        <v>138</v>
       </c>
       <c r="J68" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K68" s="0">
-        <v>4</v>
+      <c r="K68" s="19">
+        <v>5</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>26</v>
@@ -5729,7 +5856,13 @@
         <v>37</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="P68" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q68" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="69" ht="30">
@@ -5737,46 +5870,52 @@
         <v>74</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C69" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D69" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="D69" s="32" t="s">
+      <c r="E69" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="E69" s="33" t="s">
+      <c r="F69" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="F69" s="32" t="s">
-        <v>199</v>
-      </c>
       <c r="G69" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>140</v>
+        <v>233</v>
+      </c>
+      <c r="I69" s="51" t="s">
+        <v>138</v>
       </c>
       <c r="J69" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K69" s="0">
+      <c r="K69" s="19">
         <v>4</v>
       </c>
       <c r="L69" s="18" t="s">
         <v>35</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N69" s="18" t="s">
         <v>37</v>
       </c>
       <c r="O69" s="18" t="s">
-        <v>27</v>
+        <v>57</v>
+      </c>
+      <c r="P69" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q69" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="30">
@@ -5784,34 +5923,34 @@
         <v>75</v>
       </c>
       <c r="B70" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D70" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E70" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="F70" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="C70" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="D70" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="E70" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="F70" s="32" t="s">
-        <v>225</v>
-      </c>
       <c r="G70" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H70" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="I70" s="8" t="s">
-        <v>140</v>
+        <v>234</v>
+      </c>
+      <c r="I70" s="51" t="s">
+        <v>138</v>
       </c>
       <c r="J70" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K70" s="0">
-        <v>4</v>
+      <c r="K70" s="19">
+        <v>5</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>26</v>
@@ -5823,7 +5962,13 @@
         <v>37</v>
       </c>
       <c r="O70" s="18" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="P70" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q70" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="30">
@@ -5831,40 +5976,52 @@
         <v>76</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C71" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D71" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E71" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="D71" s="32" t="s">
+      <c r="F71" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="E71" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="F71" s="32" t="s">
-        <v>145</v>
-      </c>
       <c r="G71" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="I71" s="8" t="s">
-        <v>140</v>
+        <v>235</v>
+      </c>
+      <c r="I71" s="51" t="s">
+        <v>138</v>
       </c>
       <c r="J71" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K71" s="0">
-        <v>4</v>
+      <c r="K71" s="19">
+        <v>3</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M71" s="18" t="s">
         <v>88</v>
+      </c>
+      <c r="N71" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O71" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P71" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q71" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="72" ht="30">
@@ -5872,34 +6029,34 @@
         <v>77</v>
       </c>
       <c r="B72" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D72" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E72" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="C72" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="D72" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E72" s="33" t="s">
-        <v>111</v>
-      </c>
       <c r="F72" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H72" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="G72" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="H72" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="I72" s="10" t="s">
-        <v>158</v>
+      <c r="I72" s="52" t="s">
+        <v>156</v>
       </c>
       <c r="J72" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K72" s="0">
-        <v>4</v>
+      <c r="K72" s="19">
+        <v>5</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>26</v>
@@ -5911,7 +6068,13 @@
         <v>37</v>
       </c>
       <c r="O72" s="18" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="P72" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q72" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="73" ht="30">
@@ -5922,31 +6085,31 @@
         <v>91</v>
       </c>
       <c r="C73" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="E73" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="D73" s="32" t="s">
+      <c r="F73" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="E73" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="F73" s="32" t="s">
+      <c r="G73" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H73" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="I73" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="G73" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="H73" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="I73" s="10" t="s">
-        <v>158</v>
-      </c>
       <c r="J73" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K73" s="0">
-        <v>4</v>
+      <c r="K73" s="19">
+        <v>6</v>
       </c>
       <c r="L73" s="18" t="s">
         <v>35</v>
@@ -5958,7 +6121,13 @@
         <v>28</v>
       </c>
       <c r="O73" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
+      </c>
+      <c r="P73" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q73" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="45">
@@ -5969,31 +6138,31 @@
         <v>91</v>
       </c>
       <c r="C74" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E74" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="D74" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="E74" s="33" t="s">
-        <v>107</v>
-      </c>
       <c r="F74" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="I74" s="10" t="s">
-        <v>158</v>
+        <v>239</v>
+      </c>
+      <c r="I74" s="52" t="s">
+        <v>156</v>
       </c>
       <c r="J74" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K74" s="0">
-        <v>4</v>
+      <c r="K74" s="19">
+        <v>5</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>28</v>
@@ -6002,10 +6171,16 @@
         <v>44</v>
       </c>
       <c r="N74" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O74" s="18" t="s">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="P74" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q74" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="30">
@@ -6013,46 +6188,52 @@
         <v>80</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C75" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="D75" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="D75" s="32" t="s">
+      <c r="E75" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="E75" s="33" t="s">
+      <c r="F75" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="F75" s="32" t="s">
+      <c r="G75" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H75" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="G75" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="H75" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="I75" s="10" t="s">
-        <v>158</v>
+      <c r="I75" s="52" t="s">
+        <v>156</v>
       </c>
       <c r="J75" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K75" s="0">
-        <v>4</v>
+      <c r="K75" s="19">
+        <v>6</v>
       </c>
       <c r="L75" s="18" t="s">
         <v>37</v>
       </c>
       <c r="M75" s="18" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N75" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O75" s="18" t="s">
         <v>88</v>
+      </c>
+      <c r="P75" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q75" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="76" ht="30">
@@ -6063,43 +6244,49 @@
         <v>91</v>
       </c>
       <c r="C76" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D76" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E76" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="D76" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="E76" s="33" t="s">
-        <v>133</v>
-      </c>
       <c r="F76" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="I76" s="10" t="s">
-        <v>158</v>
+        <v>245</v>
+      </c>
+      <c r="I76" s="52" t="s">
+        <v>156</v>
       </c>
       <c r="J76" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K76" s="0">
-        <v>4</v>
+      <c r="K76" s="19">
+        <v>5</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M76" s="18" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N76" s="18" t="s">
         <v>35</v>
       </c>
       <c r="O76" s="18" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="P76" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q76" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="25.5">
@@ -6107,46 +6294,52 @@
         <v>82</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C77" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="D77" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="D77" s="32" t="s">
+      <c r="E77" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="E77" s="33" t="s">
+      <c r="F77" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="F77" s="32" t="s">
+      <c r="G77" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H77" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="G77" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="H77" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="I77" s="10" t="s">
-        <v>158</v>
+      <c r="I77" s="52" t="s">
+        <v>156</v>
       </c>
       <c r="J77" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K77" s="0">
-        <v>4</v>
+      <c r="K77" s="19">
+        <v>5</v>
       </c>
       <c r="L77" s="18" t="s">
         <v>35</v>
       </c>
       <c r="M77" s="18" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N77" s="18" t="s">
         <v>37</v>
       </c>
       <c r="O77" s="18" t="s">
         <v>85</v>
+      </c>
+      <c r="P77" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q77" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="78" ht="30">
@@ -6154,34 +6347,34 @@
         <v>83</v>
       </c>
       <c r="B78" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D78" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E78" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="C78" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="D78" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E78" s="33" t="s">
-        <v>111</v>
-      </c>
       <c r="F78" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="I78" s="8" t="s">
-        <v>177</v>
+        <v>251</v>
+      </c>
+      <c r="I78" s="51" t="s">
+        <v>175</v>
       </c>
       <c r="J78" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K78" s="0">
-        <v>4</v>
+      <c r="K78" s="19">
+        <v>5</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>28</v>
@@ -6193,7 +6386,13 @@
         <v>37</v>
       </c>
       <c r="O78" s="18" t="s">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="P78" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q78" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="79" ht="25.5">
@@ -6201,46 +6400,52 @@
         <v>84</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C79" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="D79" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="D79" s="32" t="s">
+      <c r="E79" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="E79" s="33" t="s">
+      <c r="F79" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="F79" s="32" t="s">
-        <v>256</v>
-      </c>
       <c r="G79" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H79" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="I79" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
+      </c>
+      <c r="I79" s="51" t="s">
+        <v>175</v>
       </c>
       <c r="J79" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K79" s="0">
-        <v>4</v>
+      <c r="K79" s="19">
+        <v>7</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M79" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>28</v>
       </c>
       <c r="O79" s="18" t="s">
         <v>36</v>
+      </c>
+      <c r="P79" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q79" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="30">
@@ -6251,31 +6456,31 @@
         <v>91</v>
       </c>
       <c r="C80" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="D80" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="D80" s="32" t="s">
+      <c r="E80" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="E80" s="33" t="s">
+      <c r="F80" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="F80" s="32" t="s">
+      <c r="G80" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H80" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="G80" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="H80" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="I80" s="8" t="s">
-        <v>177</v>
+      <c r="I80" s="51" t="s">
+        <v>175</v>
       </c>
       <c r="J80" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K80" s="0">
-        <v>4</v>
+      <c r="K80" s="19">
+        <v>5</v>
       </c>
       <c r="L80" s="18" t="s">
         <v>37</v>
@@ -6284,10 +6489,16 @@
         <v>88</v>
       </c>
       <c r="N80" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O80" s="18" t="s">
         <v>85</v>
+      </c>
+      <c r="P80" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q80" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="81" ht="45">
@@ -6295,46 +6506,52 @@
         <v>86</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C81" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D81" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E81" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="D81" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="E81" s="33" t="s">
-        <v>107</v>
-      </c>
       <c r="F81" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="I81" s="8" t="s">
-        <v>177</v>
+        <v>262</v>
+      </c>
+      <c r="I81" s="51" t="s">
+        <v>175</v>
       </c>
       <c r="J81" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K81" s="0">
-        <v>4</v>
+      <c r="K81" s="19">
+        <v>6</v>
       </c>
       <c r="L81" s="18" t="s">
         <v>35</v>
       </c>
       <c r="M81" s="18" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N81" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O81" s="18" t="s">
-        <v>45</v>
+        <v>27</v>
+      </c>
+      <c r="P81" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q81" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="82" ht="30">
@@ -6342,46 +6559,52 @@
         <v>87</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C82" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="D82" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="D82" s="32" t="s">
+      <c r="E82" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="E82" s="33" t="s">
+      <c r="F82" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="F82" s="32" t="s">
-        <v>244</v>
-      </c>
       <c r="G82" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="I82" s="8" t="s">
-        <v>177</v>
+        <v>263</v>
+      </c>
+      <c r="I82" s="51" t="s">
+        <v>175</v>
       </c>
       <c r="J82" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K82" s="0">
-        <v>4</v>
+      <c r="K82" s="19">
+        <v>5</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M82" s="18" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>28</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="P82" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q82" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="30">
@@ -6389,40 +6612,52 @@
         <v>88</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C83" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="D83" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="D83" s="32" t="s">
+      <c r="E83" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="E83" s="33" t="s">
+      <c r="F83" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="F83" s="32" t="s">
+      <c r="G83" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H83" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="G83" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="H83" s="22" t="s">
+      <c r="I83" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="I83" s="57" t="s">
-        <v>270</v>
-      </c>
       <c r="J83" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K83" s="0">
-        <v>4</v>
+      <c r="K83" s="19">
+        <v>3</v>
       </c>
       <c r="L83" s="18" t="s">
         <v>35</v>
       </c>
       <c r="M83" s="18" t="s">
         <v>36</v>
+      </c>
+      <c r="N83" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O83" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P83" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q83" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="84" ht="25.5">
@@ -6430,46 +6665,52 @@
         <v>89</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C84" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="D84" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="D84" s="32" t="s">
+      <c r="E84" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="E84" s="33" t="s">
+      <c r="F84" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="F84" s="32" t="s">
-        <v>256</v>
-      </c>
       <c r="G84" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="I84" s="57" t="s">
         <v>270</v>
       </c>
+      <c r="I84" s="51" t="s">
+        <v>269</v>
+      </c>
       <c r="J84" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K84" s="0">
-        <v>4</v>
+      <c r="K84" s="19">
+        <v>7</v>
       </c>
       <c r="L84" s="18" t="s">
         <v>35</v>
       </c>
       <c r="M84" s="18" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N84" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O84" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
+      </c>
+      <c r="P84" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q84" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="85" ht="30">
@@ -6480,37 +6721,49 @@
         <v>18</v>
       </c>
       <c r="C85" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D85" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="D85" s="32" t="s">
+      <c r="E85" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="E85" s="33" t="s">
+      <c r="F85" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="F85" s="32" t="s">
+      <c r="G85" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H85" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="G85" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="H85" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="I85" s="57" t="s">
-        <v>270</v>
+      <c r="I85" s="51" t="s">
+        <v>269</v>
       </c>
       <c r="J85" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K85" s="0">
-        <v>4</v>
+      <c r="K85" s="19">
+        <v>3</v>
       </c>
       <c r="L85" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M85" s="18" t="s">
-        <v>44</v>
+        <v>88</v>
+      </c>
+      <c r="N85" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O85" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P85" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q85" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="30">
@@ -6521,37 +6774,49 @@
         <v>18</v>
       </c>
       <c r="C86" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D86" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="D86" s="32" t="s">
+      <c r="E86" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="E86" s="33" t="s">
+      <c r="F86" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="F86" s="32" t="s">
-        <v>199</v>
-      </c>
       <c r="G86" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H86" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="I86" s="57" t="s">
-        <v>270</v>
+        <v>276</v>
+      </c>
+      <c r="I86" s="51" t="s">
+        <v>269</v>
       </c>
       <c r="J86" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K86" s="0">
-        <v>4</v>
+      <c r="K86" s="19">
+        <v>3</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M86" s="18" t="s">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="N86" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O86" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P86" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q86" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="87" ht="25.5">
@@ -6562,37 +6827,49 @@
         <v>18</v>
       </c>
       <c r="C87" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="D87" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="D87" s="34" t="s">
+      <c r="E87" s="27" t="s">
         <v>279</v>
-      </c>
-      <c r="E87" s="27" t="s">
-        <v>280</v>
       </c>
       <c r="F87" s="34">
         <v>12667541</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H87" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="I87" s="57" t="s">
-        <v>270</v>
+        <v>280</v>
+      </c>
+      <c r="I87" s="51" t="s">
+        <v>269</v>
       </c>
       <c r="J87" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K87" s="0">
-        <v>4</v>
+      <c r="K87" s="19">
+        <v>3</v>
       </c>
       <c r="L87" s="18" t="s">
         <v>37</v>
       </c>
       <c r="M87" s="18" t="s">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="N87" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O87" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P87" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q87" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="88">
@@ -6603,10 +6880,10 @@
         <v>67</v>
       </c>
       <c r="C88" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="D88" s="40" t="s">
         <v>282</v>
-      </c>
-      <c r="D88" s="40" t="s">
-        <v>283</v>
       </c>
       <c r="E88" s="40" t="s">
         <v>64</v>
@@ -6615,18 +6892,18 @@
         <v>6157321</v>
       </c>
       <c r="G88" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="H88" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="H88" s="40" t="s">
-        <v>285</v>
-      </c>
-      <c r="I88" s="8" t="s">
+      <c r="I88" s="51" t="s">
         <v>24</v>
       </c>
       <c r="J88" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K88" s="47">
+      <c r="K88" s="4">
         <v>6</v>
       </c>
       <c r="L88" s="48" t="s">
@@ -6657,10 +6934,10 @@
         <v>18</v>
       </c>
       <c r="C89" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="D89" s="39" t="s">
         <v>286</v>
-      </c>
-      <c r="D89" s="39" t="s">
-        <v>287</v>
       </c>
       <c r="E89" s="39" t="s">
         <v>21</v>
@@ -6669,31 +6946,31 @@
         <v>2216676</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H89" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="I89" s="8" t="s">
+      <c r="I89" s="51" t="s">
         <v>24</v>
       </c>
       <c r="J89" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K89" s="47">
+      <c r="K89" s="4">
         <v>5</v>
       </c>
       <c r="L89" s="48" t="s">
         <v>26</v>
       </c>
       <c r="M89" s="49" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N89" s="48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O89" s="49" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="P89" s="47" t="s">
         <v>30</v>
@@ -6711,43 +6988,43 @@
         <v>76</v>
       </c>
       <c r="C90" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="D90" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="D90" s="40" t="s">
+      <c r="E90" s="40" t="s">
         <v>289</v>
-      </c>
-      <c r="E90" s="40" t="s">
-        <v>290</v>
       </c>
       <c r="F90" s="40">
         <v>4842003</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H90" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="I90" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I90" s="51" t="s">
         <v>24</v>
       </c>
       <c r="J90" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K90" s="47">
+      <c r="K90" s="4">
         <v>5</v>
       </c>
       <c r="L90" s="48" t="s">
         <v>35</v>
       </c>
       <c r="M90" s="49" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N90" s="48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O90" s="49" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P90" s="47" t="s">
         <v>30</v>
@@ -6762,33 +7039,33 @@
         <v>96</v>
       </c>
       <c r="B91" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C91" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="D91" s="40" t="s">
         <v>291</v>
       </c>
-      <c r="D91" s="40" t="s">
+      <c r="E91" s="40" t="s">
         <v>292</v>
-      </c>
-      <c r="E91" s="40" t="s">
-        <v>293</v>
       </c>
       <c r="F91" s="38">
         <v>4312215</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H91" s="40" t="s">
-        <v>294</v>
-      </c>
-      <c r="I91" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I91" s="51" t="s">
         <v>24</v>
       </c>
       <c r="J91" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K91" s="47">
+      <c r="K91" s="4">
         <v>5</v>
       </c>
       <c r="L91" s="48" t="s">
@@ -6801,7 +7078,7 @@
         <v>28</v>
       </c>
       <c r="O91" s="49" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P91" s="47" t="s">
         <v>30</v>
@@ -6816,46 +7093,46 @@
         <v>97</v>
       </c>
       <c r="B92" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C92" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="D92" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="D92" s="40" t="s">
+      <c r="E92" s="40" t="s">
         <v>296</v>
-      </c>
-      <c r="E92" s="40" t="s">
-        <v>297</v>
       </c>
       <c r="F92" s="38">
         <v>4807588</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H92" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="I92" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="I92" s="51" t="s">
         <v>24</v>
       </c>
       <c r="J92" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K92" s="47">
+      <c r="K92" s="4">
         <v>5</v>
       </c>
       <c r="L92" s="48" t="s">
         <v>35</v>
       </c>
       <c r="M92" s="49" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N92" s="48" t="s">
         <v>37</v>
       </c>
       <c r="O92" s="49" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="P92" s="47" t="s">
         <v>30</v>
@@ -6873,30 +7150,30 @@
         <v>76</v>
       </c>
       <c r="C93" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="D93" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="E93" s="40" t="s">
         <v>299</v>
-      </c>
-      <c r="D93" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="E93" s="40" t="s">
-        <v>300</v>
       </c>
       <c r="F93" s="38">
         <v>4804795</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H93" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="I93" s="8" t="s">
+      <c r="I93" s="51" t="s">
         <v>24</v>
       </c>
       <c r="J93" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K93" s="47">
+      <c r="K93" s="4">
         <v>4</v>
       </c>
       <c r="L93" s="48" t="s">
@@ -6909,7 +7186,7 @@
         <v>28</v>
       </c>
       <c r="O93" s="49" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="P93" s="47" t="s">
         <v>30</v>
@@ -6927,43 +7204,43 @@
         <v>18</v>
       </c>
       <c r="C94" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="D94" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="D94" s="40" t="s">
-        <v>302</v>
-      </c>
       <c r="E94" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F94" s="40">
         <v>2216406</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H94" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="I94" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="I94" s="51" t="s">
         <v>66</v>
       </c>
       <c r="J94" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K94" s="47">
+      <c r="K94" s="4">
         <v>5</v>
       </c>
       <c r="L94" s="48" t="s">
         <v>35</v>
       </c>
       <c r="M94" s="49" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N94" s="48" t="s">
         <v>37</v>
       </c>
       <c r="O94" s="49" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="P94" s="47" t="s">
         <v>30</v>
@@ -6981,40 +7258,40 @@
         <v>91</v>
       </c>
       <c r="C95" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="D95" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="D95" s="40" t="s">
-        <v>305</v>
-      </c>
       <c r="E95" s="40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F95" s="38">
         <v>4296833</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H95" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="I95" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="I95" s="51" t="s">
         <v>66</v>
       </c>
       <c r="J95" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K95" s="47">
+      <c r="K95" s="4">
         <v>5</v>
       </c>
       <c r="L95" s="48" t="s">
         <v>26</v>
       </c>
       <c r="M95" s="49" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N95" s="48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O95" s="49" t="s">
         <v>27</v>
@@ -7035,43 +7312,43 @@
         <v>18</v>
       </c>
       <c r="C96" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="D96" s="40" t="s">
         <v>307</v>
       </c>
-      <c r="D96" s="40" t="s">
+      <c r="E96" s="40" t="s">
         <v>308</v>
-      </c>
-      <c r="E96" s="40" t="s">
-        <v>309</v>
       </c>
       <c r="F96" s="38">
         <v>4816016</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H96" s="40" t="s">
-        <v>310</v>
-      </c>
-      <c r="I96" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="I96" s="51" t="s">
         <v>66</v>
       </c>
       <c r="J96" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K96" s="47">
+      <c r="K96" s="4">
         <v>5</v>
       </c>
       <c r="L96" s="48" t="s">
         <v>28</v>
       </c>
       <c r="M96" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="N96" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="O96" s="49" t="s">
         <v>38</v>
-      </c>
-      <c r="N96" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="O96" s="49" t="s">
-        <v>50</v>
       </c>
       <c r="P96" s="47" t="s">
         <v>30</v>
@@ -7089,30 +7366,30 @@
         <v>18</v>
       </c>
       <c r="C97" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D97" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E97" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="D97" s="41" t="s">
+      <c r="F97" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="E97" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="F97" s="41" t="s">
-        <v>138</v>
-      </c>
       <c r="G97" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H97" s="40" t="s">
-        <v>311</v>
-      </c>
-      <c r="I97" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="I97" s="51" t="s">
         <v>66</v>
       </c>
       <c r="J97" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K97" s="47">
+      <c r="K97" s="4">
         <v>6</v>
       </c>
       <c r="L97" s="48" t="s">
@@ -7122,7 +7399,7 @@
         <v>36</v>
       </c>
       <c r="N97" s="48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O97" s="49" t="s">
         <v>87</v>
@@ -7143,43 +7420,43 @@
         <v>91</v>
       </c>
       <c r="C98" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D98" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="D98" s="40" t="s">
+      <c r="E98" s="40" t="s">
         <v>229</v>
-      </c>
-      <c r="E98" s="40" t="s">
-        <v>230</v>
       </c>
       <c r="F98" s="40">
         <v>2606013</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H98" s="40" t="s">
-        <v>312</v>
-      </c>
-      <c r="I98" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="I98" s="51" t="s">
         <v>66</v>
       </c>
       <c r="J98" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K98" s="47">
+      <c r="K98" s="4">
         <v>5</v>
       </c>
       <c r="L98" s="48" t="s">
         <v>35</v>
       </c>
       <c r="M98" s="49" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N98" s="48" t="s">
         <v>28</v>
       </c>
       <c r="O98" s="49" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P98" s="47" t="s">
         <v>30</v>
@@ -7209,31 +7486,31 @@
         <v>4825233</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H99" s="40" t="s">
-        <v>313</v>
-      </c>
-      <c r="I99" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="I99" s="51" t="s">
         <v>66</v>
       </c>
       <c r="J99" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K99" s="47">
+      <c r="K99" s="4">
         <v>5</v>
       </c>
       <c r="L99" s="48" t="s">
         <v>26</v>
       </c>
       <c r="M99" s="49" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N99" s="48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O99" s="49" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="P99" s="47" t="s">
         <v>30</v>
@@ -7251,43 +7528,43 @@
         <v>18</v>
       </c>
       <c r="C100" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="D100" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="D100" s="40" t="s">
+      <c r="E100" s="40" t="s">
         <v>315</v>
-      </c>
-      <c r="E100" s="40" t="s">
-        <v>316</v>
       </c>
       <c r="F100" s="40">
         <v>2379891</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H100" s="40" t="s">
-        <v>317</v>
-      </c>
-      <c r="I100" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="I100" s="51" t="s">
         <v>90</v>
       </c>
       <c r="J100" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K100" s="47">
+      <c r="K100" s="4">
         <v>5</v>
       </c>
       <c r="L100" s="48" t="s">
         <v>26</v>
       </c>
       <c r="M100" s="49" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N100" s="48" t="s">
         <v>37</v>
       </c>
       <c r="O100" s="49" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P100" s="47" t="s">
         <v>30</v>
@@ -7305,10 +7582,10 @@
         <v>91</v>
       </c>
       <c r="C101" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="D101" s="40" t="s">
         <v>282</v>
-      </c>
-      <c r="D101" s="40" t="s">
-        <v>283</v>
       </c>
       <c r="E101" s="40" t="s">
         <v>64</v>
@@ -7317,31 +7594,31 @@
         <v>6157321</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H101" s="40" t="s">
-        <v>318</v>
-      </c>
-      <c r="I101" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="I101" s="51" t="s">
         <v>90</v>
       </c>
       <c r="J101" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K101" s="47">
+      <c r="K101" s="4">
         <v>5</v>
       </c>
       <c r="L101" s="48" t="s">
         <v>28</v>
       </c>
       <c r="M101" s="49" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N101" s="48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O101" s="49" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P101" s="47" t="s">
         <v>30</v>
@@ -7371,31 +7648,31 @@
         <v>3382860</v>
       </c>
       <c r="G102" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H102" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="I102" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="I102" s="51" t="s">
         <v>90</v>
       </c>
       <c r="J102" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K102" s="47">
+      <c r="K102" s="4">
         <v>5</v>
       </c>
       <c r="L102" s="48" t="s">
         <v>26</v>
       </c>
       <c r="M102" s="49" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N102" s="48" t="s">
         <v>35</v>
       </c>
       <c r="O102" s="49" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="P102" s="47" t="s">
         <v>30</v>
@@ -7410,33 +7687,33 @@
         <v>108</v>
       </c>
       <c r="B103" s="40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C103" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E103" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F103" s="40">
         <v>2679320</v>
       </c>
       <c r="G103" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H103" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="I103" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="I103" s="51" t="s">
         <v>90</v>
       </c>
       <c r="J103" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K103" s="47">
+      <c r="K103" s="4">
         <v>5</v>
       </c>
       <c r="L103" s="48" t="s">
@@ -7467,43 +7744,43 @@
         <v>18</v>
       </c>
       <c r="C104" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="D104" s="40" t="s">
         <v>321</v>
       </c>
-      <c r="D104" s="40" t="s">
+      <c r="E104" s="40" t="s">
         <v>322</v>
-      </c>
-      <c r="E104" s="40" t="s">
-        <v>323</v>
       </c>
       <c r="F104" s="40">
         <v>4793659</v>
       </c>
       <c r="G104" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H104" s="40" t="s">
-        <v>324</v>
-      </c>
-      <c r="I104" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="I104" s="51" t="s">
         <v>90</v>
       </c>
       <c r="J104" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K104" s="47">
+      <c r="K104" s="4">
         <v>5</v>
       </c>
       <c r="L104" s="48" t="s">
         <v>35</v>
       </c>
       <c r="M104" s="49" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N104" s="48" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O104" s="49" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="P104" s="47" t="s">
         <v>30</v>
@@ -7518,33 +7795,33 @@
         <v>110</v>
       </c>
       <c r="B105" s="40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C105" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="D105" s="40" t="s">
         <v>325</v>
       </c>
-      <c r="D105" s="40" t="s">
+      <c r="E105" s="40" t="s">
         <v>326</v>
-      </c>
-      <c r="E105" s="40" t="s">
-        <v>327</v>
       </c>
       <c r="F105" s="40">
         <v>4810056</v>
       </c>
       <c r="G105" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H105" s="40" t="s">
-        <v>328</v>
-      </c>
-      <c r="I105" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="I105" s="51" t="s">
         <v>90</v>
       </c>
       <c r="J105" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K105" s="47">
+      <c r="K105" s="4">
         <v>5</v>
       </c>
       <c r="L105" s="48" t="s">
@@ -7554,7 +7831,7 @@
         <v>36</v>
       </c>
       <c r="N105" s="48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O105" s="49" t="s">
         <v>44</v>
@@ -7575,43 +7852,43 @@
         <v>18</v>
       </c>
       <c r="C106" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="D106" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="D106" s="40" t="s">
+      <c r="E106" s="40" t="s">
         <v>315</v>
-      </c>
-      <c r="E106" s="40" t="s">
-        <v>316</v>
       </c>
       <c r="F106" s="40">
         <v>2379891</v>
       </c>
       <c r="G106" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H106" s="40" t="s">
-        <v>329</v>
-      </c>
-      <c r="I106" s="40" t="s">
-        <v>118</v>
+        <v>328</v>
+      </c>
+      <c r="I106" s="51" t="s">
+        <v>116</v>
       </c>
       <c r="J106" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K106" s="47">
+      <c r="K106" s="4">
         <v>5</v>
       </c>
       <c r="L106" s="48" t="s">
         <v>35</v>
       </c>
       <c r="M106" s="49" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N106" s="48" t="s">
         <v>37</v>
       </c>
       <c r="O106" s="49" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="P106" s="47" t="s">
         <v>30</v>
@@ -7629,43 +7906,43 @@
         <v>18</v>
       </c>
       <c r="C107" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="D107" s="40" t="s">
         <v>330</v>
       </c>
-      <c r="D107" s="40" t="s">
+      <c r="E107" s="40" t="s">
         <v>331</v>
-      </c>
-      <c r="E107" s="40" t="s">
-        <v>332</v>
       </c>
       <c r="F107" s="38">
         <v>1894743</v>
       </c>
       <c r="G107" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H107" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="I107" s="40" t="s">
-        <v>118</v>
+        <v>332</v>
+      </c>
+      <c r="I107" s="51" t="s">
+        <v>116</v>
       </c>
       <c r="J107" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K107" s="47">
+      <c r="K107" s="4">
         <v>4</v>
       </c>
       <c r="L107" s="48" t="s">
         <v>26</v>
       </c>
       <c r="M107" s="49" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N107" s="48" t="s">
         <v>28</v>
       </c>
       <c r="O107" s="49" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="P107" s="47" t="s">
         <v>30</v>
@@ -7683,30 +7960,30 @@
         <v>18</v>
       </c>
       <c r="C108" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D108" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="E108" s="40" t="s">
         <v>126</v>
-      </c>
-      <c r="D108" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="E108" s="40" t="s">
-        <v>128</v>
       </c>
       <c r="F108" s="40">
         <v>2288375</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H108" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="I108" s="40" t="s">
-        <v>118</v>
+        <v>225</v>
+      </c>
+      <c r="I108" s="51" t="s">
+        <v>116</v>
       </c>
       <c r="J108" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K108" s="47">
+      <c r="K108" s="4">
         <v>5</v>
       </c>
       <c r="L108" s="48" t="s">
@@ -7716,7 +7993,7 @@
         <v>27</v>
       </c>
       <c r="N108" s="48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O108" s="49" t="s">
         <v>85</v>
@@ -7737,30 +8014,30 @@
         <v>18</v>
       </c>
       <c r="C109" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="D109" s="40" t="s">
         <v>334</v>
       </c>
-      <c r="D109" s="40" t="s">
+      <c r="E109" s="40" t="s">
         <v>335</v>
-      </c>
-      <c r="E109" s="40" t="s">
-        <v>336</v>
       </c>
       <c r="F109" s="38">
         <v>2477389</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H109" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="I109" s="40" t="s">
-        <v>118</v>
+        <v>222</v>
+      </c>
+      <c r="I109" s="51" t="s">
+        <v>116</v>
       </c>
       <c r="J109" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K109" s="47">
+      <c r="K109" s="4">
         <v>5</v>
       </c>
       <c r="L109" s="48" t="s">
@@ -7770,10 +8047,10 @@
         <v>27</v>
       </c>
       <c r="N109" s="48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O109" s="49" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P109" s="47" t="s">
         <v>30</v>
@@ -7791,43 +8068,43 @@
         <v>91</v>
       </c>
       <c r="C110" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D110" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="D110" s="40" t="s">
+      <c r="E110" s="40" t="s">
         <v>229</v>
-      </c>
-      <c r="E110" s="40" t="s">
-        <v>230</v>
       </c>
       <c r="F110" s="40">
         <v>2606013</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H110" s="40" t="s">
-        <v>337</v>
-      </c>
-      <c r="I110" s="40" t="s">
-        <v>118</v>
+        <v>336</v>
+      </c>
+      <c r="I110" s="51" t="s">
+        <v>116</v>
       </c>
       <c r="J110" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K110" s="47">
+      <c r="K110" s="4">
         <v>5</v>
       </c>
       <c r="L110" s="48" t="s">
         <v>37</v>
       </c>
       <c r="M110" s="49" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N110" s="48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O110" s="49" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="P110" s="47" t="s">
         <v>30</v>
@@ -7845,30 +8122,30 @@
         <v>18</v>
       </c>
       <c r="C111" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="D111" s="40" t="s">
         <v>338</v>
       </c>
-      <c r="D111" s="40" t="s">
+      <c r="E111" s="40" t="s">
         <v>339</v>
-      </c>
-      <c r="E111" s="40" t="s">
-        <v>340</v>
       </c>
       <c r="F111" s="40">
         <v>3431662</v>
       </c>
       <c r="G111" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H111" s="40" t="s">
-        <v>341</v>
-      </c>
-      <c r="I111" s="40" t="s">
-        <v>118</v>
+        <v>340</v>
+      </c>
+      <c r="I111" s="51" t="s">
+        <v>116</v>
       </c>
       <c r="J111" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K111" s="47">
+      <c r="K111" s="4">
         <v>5</v>
       </c>
       <c r="L111" s="48" t="s">
@@ -7899,37 +8176,37 @@
         <v>18</v>
       </c>
       <c r="C112" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="D112" s="40" t="s">
         <v>342</v>
       </c>
-      <c r="D112" s="40" t="s">
+      <c r="E112" s="40" t="s">
         <v>343</v>
-      </c>
-      <c r="E112" s="40" t="s">
-        <v>344</v>
       </c>
       <c r="F112" s="40">
         <v>3099776</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H112" s="40" t="s">
-        <v>345</v>
-      </c>
-      <c r="I112" s="40" t="s">
-        <v>140</v>
+        <v>344</v>
+      </c>
+      <c r="I112" s="51" t="s">
+        <v>138</v>
       </c>
       <c r="J112" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K112" s="47">
+      <c r="K112" s="4">
         <v>6</v>
       </c>
       <c r="L112" s="48" t="s">
         <v>28</v>
       </c>
       <c r="M112" s="49" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N112" s="48" t="s">
         <v>37</v>
@@ -7950,46 +8227,46 @@
         <v>118</v>
       </c>
       <c r="B113" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C113" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="D113" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="D113" s="40" t="s">
-        <v>347</v>
-      </c>
       <c r="E113" s="44" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F113" s="40">
         <v>3330918</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H113" s="40" t="s">
-        <v>348</v>
-      </c>
-      <c r="I113" s="40" t="s">
-        <v>140</v>
+        <v>347</v>
+      </c>
+      <c r="I113" s="51" t="s">
+        <v>138</v>
       </c>
       <c r="J113" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K113" s="47">
+      <c r="K113" s="4">
         <v>4</v>
       </c>
       <c r="L113" s="48" t="s">
         <v>28</v>
       </c>
       <c r="M113" s="49" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N113" s="48" t="s">
         <v>37</v>
       </c>
       <c r="O113" s="49" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P113" s="47" t="s">
         <v>30</v>
@@ -8007,43 +8284,43 @@
         <v>18</v>
       </c>
       <c r="C114" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D114" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="E114" s="40" t="s">
         <v>126</v>
-      </c>
-      <c r="D114" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="E114" s="40" t="s">
-        <v>128</v>
       </c>
       <c r="F114" s="40">
         <v>2288375</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H114" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="I114" s="40" t="s">
-        <v>140</v>
+        <v>234</v>
+      </c>
+      <c r="I114" s="51" t="s">
+        <v>138</v>
       </c>
       <c r="J114" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K114" s="47">
+      <c r="K114" s="4">
         <v>5</v>
       </c>
       <c r="L114" s="48" t="s">
         <v>35</v>
       </c>
       <c r="M114" s="49" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N114" s="48" t="s">
         <v>37</v>
       </c>
       <c r="O114" s="49" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="P114" s="47" t="s">
         <v>30</v>
@@ -8058,33 +8335,33 @@
         <v>120</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C115" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="D115" s="40" t="s">
         <v>349</v>
       </c>
-      <c r="D115" s="40" t="s">
-        <v>350</v>
-      </c>
       <c r="E115" s="40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F115" s="38">
         <v>2459880</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H115" s="40" t="s">
-        <v>351</v>
-      </c>
-      <c r="I115" s="40" t="s">
-        <v>140</v>
+        <v>350</v>
+      </c>
+      <c r="I115" s="51" t="s">
+        <v>138</v>
       </c>
       <c r="J115" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K115" s="47">
+      <c r="K115" s="4">
         <v>5</v>
       </c>
       <c r="L115" s="48" t="s">
@@ -8112,40 +8389,40 @@
         <v>121</v>
       </c>
       <c r="B116" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="C116" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="C116" s="39" t="s">
-        <v>353</v>
-      </c>
       <c r="D116" s="39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E116" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F116" s="42">
         <v>4054700</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H116" s="39" t="s">
-        <v>354</v>
-      </c>
-      <c r="I116" s="40" t="s">
-        <v>140</v>
+        <v>353</v>
+      </c>
+      <c r="I116" s="51" t="s">
+        <v>138</v>
       </c>
       <c r="J116" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K116" s="47">
+      <c r="K116" s="4">
         <v>3</v>
       </c>
       <c r="L116" s="48" t="s">
         <v>26</v>
       </c>
       <c r="M116" s="49" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N116" s="48" t="s">
         <v>30</v>
@@ -8169,30 +8446,30 @@
         <v>18</v>
       </c>
       <c r="C117" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="D117" s="40" t="s">
         <v>325</v>
       </c>
-      <c r="D117" s="40" t="s">
+      <c r="E117" s="40" t="s">
         <v>326</v>
-      </c>
-      <c r="E117" s="40" t="s">
-        <v>327</v>
       </c>
       <c r="F117" s="40">
         <v>4810056</v>
       </c>
       <c r="G117" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H117" s="40" t="s">
-        <v>355</v>
-      </c>
-      <c r="I117" s="40" t="s">
-        <v>140</v>
+        <v>354</v>
+      </c>
+      <c r="I117" s="51" t="s">
+        <v>138</v>
       </c>
       <c r="J117" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K117" s="47">
+      <c r="K117" s="4">
         <v>5</v>
       </c>
       <c r="L117" s="48" t="s">
@@ -8202,7 +8479,7 @@
         <v>36</v>
       </c>
       <c r="N117" s="48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O117" s="49" t="s">
         <v>57</v>
@@ -8235,18 +8512,18 @@
         <v>3660493</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H118" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I118" s="40" t="s">
-        <v>356</v>
+        <v>156</v>
       </c>
       <c r="J118" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K118" s="47">
+      <c r="K118" s="4">
         <v>5</v>
       </c>
       <c r="L118" s="48" t="s">
@@ -8274,33 +8551,33 @@
         <v>124</v>
       </c>
       <c r="B119" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C119" s="40" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D119" s="40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E119" s="40" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F119" s="46">
         <v>2284246</v>
       </c>
       <c r="G119" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H119" s="40" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I119" s="40" t="s">
-        <v>356</v>
+        <v>156</v>
       </c>
       <c r="J119" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K119" s="47">
+      <c r="K119" s="4">
         <v>4</v>
       </c>
       <c r="L119" s="48" t="s">
@@ -8313,7 +8590,7 @@
         <v>37</v>
       </c>
       <c r="O119" s="49" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P119" s="47" t="s">
         <v>30</v>
@@ -8331,30 +8608,30 @@
         <v>91</v>
       </c>
       <c r="C120" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D120" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="D120" s="40" t="s">
+      <c r="E120" s="40" t="s">
         <v>229</v>
-      </c>
-      <c r="E120" s="40" t="s">
-        <v>230</v>
       </c>
       <c r="F120" s="40">
         <v>2606013</v>
       </c>
       <c r="G120" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H120" s="40" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I120" s="40" t="s">
-        <v>356</v>
+        <v>156</v>
       </c>
       <c r="J120" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K120" s="47">
+      <c r="K120" s="4">
         <v>5</v>
       </c>
       <c r="L120" s="48" t="s">
@@ -8364,10 +8641,10 @@
         <v>27</v>
       </c>
       <c r="N120" s="48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O120" s="49" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P120" s="47" t="s">
         <v>30</v>
@@ -8385,30 +8662,30 @@
         <v>76</v>
       </c>
       <c r="C121" s="40" t="s">
+        <v>359</v>
+      </c>
+      <c r="D121" s="40" t="s">
+        <v>360</v>
+      </c>
+      <c r="E121" s="40" t="s">
         <v>361</v>
-      </c>
-      <c r="D121" s="40" t="s">
-        <v>362</v>
-      </c>
-      <c r="E121" s="40" t="s">
-        <v>363</v>
       </c>
       <c r="F121" s="38">
         <v>4811736</v>
       </c>
       <c r="G121" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H121" s="40" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I121" s="40" t="s">
-        <v>356</v>
+        <v>156</v>
       </c>
       <c r="J121" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K121" s="47">
+      <c r="K121" s="4">
         <v>5</v>
       </c>
       <c r="L121" s="48" t="s">
@@ -8421,7 +8698,7 @@
         <v>28</v>
       </c>
       <c r="O121" s="49" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P121" s="47" t="s">
         <v>30</v>
@@ -8439,43 +8716,43 @@
         <v>91</v>
       </c>
       <c r="C122" s="40" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D122" s="40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E122" s="40" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F122" s="40">
         <v>2689307</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H122" s="40" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I122" s="40" t="s">
-        <v>356</v>
+        <v>156</v>
       </c>
       <c r="J122" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K122" s="47">
+      <c r="K122" s="4">
         <v>6</v>
       </c>
       <c r="L122" s="48" t="s">
         <v>28</v>
       </c>
       <c r="M122" s="49" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N122" s="48" t="s">
         <v>37</v>
       </c>
       <c r="O122" s="49" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="P122" s="47" t="s">
         <v>30</v>
@@ -8493,43 +8770,43 @@
         <v>18</v>
       </c>
       <c r="C123" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="D123" s="40" t="s">
         <v>338</v>
       </c>
-      <c r="D123" s="40" t="s">
+      <c r="E123" s="40" t="s">
         <v>339</v>
-      </c>
-      <c r="E123" s="40" t="s">
-        <v>340</v>
       </c>
       <c r="F123" s="40">
         <v>3431662</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H123" s="40" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I123" s="40" t="s">
-        <v>356</v>
+        <v>156</v>
       </c>
       <c r="J123" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K123" s="47">
+      <c r="K123" s="4">
         <v>5</v>
       </c>
       <c r="L123" s="48" t="s">
         <v>26</v>
       </c>
       <c r="M123" s="49" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N123" s="48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O123" s="49" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="P123" s="47" t="s">
         <v>30</v>
@@ -8547,36 +8824,50 @@
         <v>18</v>
       </c>
       <c r="C124" s="40" t="s">
+        <v>367</v>
+      </c>
+      <c r="D124" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="E124" s="40" t="s">
         <v>369</v>
-      </c>
-      <c r="D124" s="40" t="s">
-        <v>370</v>
-      </c>
-      <c r="E124" s="40" t="s">
-        <v>371</v>
       </c>
       <c r="F124" s="40">
         <v>5995500</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H124" s="40" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I124" s="40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J124" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K124" s="47"/>
-      <c r="L124" s="48"/>
-      <c r="M124" s="49"/>
-      <c r="N124" s="48"/>
-      <c r="O124" s="49"/>
-      <c r="P124" s="47"/>
-      <c r="Q124" s="47"/>
+      <c r="K124" s="4">
+        <v>3</v>
+      </c>
+      <c r="L124" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="M124" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="N124" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="O124" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="P124" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q124" s="47" t="s">
+        <v>30</v>
+      </c>
       <c r="R124" s="47"/>
     </row>
     <row r="125" ht="30">
@@ -8587,37 +8878,37 @@
         <v>91</v>
       </c>
       <c r="C125" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="D125" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="D125" s="40" t="s">
-        <v>305</v>
-      </c>
       <c r="E125" s="40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F125" s="40">
         <v>4296833</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H125" s="40" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I125" s="40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J125" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K125" s="47">
-        <v>3</v>
+      <c r="K125" s="4">
+        <v>4</v>
       </c>
       <c r="L125" s="48" t="s">
         <v>37</v>
       </c>
       <c r="M125" s="49" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N125" s="48" t="s">
         <v>30</v>
@@ -8641,43 +8932,43 @@
         <v>91</v>
       </c>
       <c r="C126" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="D126" s="40" t="s">
         <v>349</v>
       </c>
-      <c r="D126" s="40" t="s">
-        <v>350</v>
-      </c>
       <c r="E126" s="40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F126" s="38">
         <v>2459880</v>
       </c>
       <c r="G126" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H126" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I126" s="40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J126" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K126" s="47">
+      <c r="K126" s="4">
         <v>5</v>
       </c>
       <c r="L126" s="48" t="s">
         <v>35</v>
       </c>
       <c r="M126" s="49" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N126" s="48" t="s">
         <v>28</v>
       </c>
       <c r="O126" s="49" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P126" s="47" t="s">
         <v>30</v>
@@ -8695,34 +8986,34 @@
         <v>18</v>
       </c>
       <c r="C127" s="40" t="s">
+        <v>373</v>
+      </c>
+      <c r="D127" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="E127" s="40" t="s">
         <v>375</v>
-      </c>
-      <c r="D127" s="40" t="s">
-        <v>376</v>
-      </c>
-      <c r="E127" s="40" t="s">
-        <v>377</v>
       </c>
       <c r="F127" s="40">
         <v>9231662</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H127" s="40" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I127" s="40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J127" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K127" s="47">
+      <c r="K127" s="4">
         <v>3</v>
       </c>
       <c r="L127" s="48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M127" s="49" t="s">
         <v>88</v>
@@ -8749,43 +9040,43 @@
         <v>18</v>
       </c>
       <c r="C128" s="40" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D128" s="40" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E128" s="40" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F128" s="38">
         <v>2364316</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H128" s="40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I128" s="40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J128" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K128" s="47">
+      <c r="K128" s="4">
         <v>7</v>
       </c>
       <c r="L128" s="48" t="s">
         <v>26</v>
       </c>
       <c r="M128" s="49" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N128" s="48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O128" s="49" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P128" s="47" t="s">
         <v>30</v>
@@ -8803,30 +9094,30 @@
         <v>18</v>
       </c>
       <c r="C129" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="D129" s="40" t="s">
         <v>325</v>
       </c>
-      <c r="D129" s="40" t="s">
+      <c r="E129" s="40" t="s">
         <v>326</v>
-      </c>
-      <c r="E129" s="40" t="s">
-        <v>327</v>
       </c>
       <c r="F129" s="38">
         <v>4810056</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H129" s="40" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I129" s="40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J129" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K129" s="47">
+      <c r="K129" s="4">
         <v>5</v>
       </c>
       <c r="L129" s="48" t="s">
@@ -8854,40 +9145,40 @@
         <v>135</v>
       </c>
       <c r="B130" s="40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C130" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="D130" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="E130" s="40" t="s">
         <v>381</v>
-      </c>
-      <c r="D130" s="40" t="s">
-        <v>382</v>
-      </c>
-      <c r="E130" s="40" t="s">
-        <v>383</v>
       </c>
       <c r="F130" s="38">
         <v>4823668</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H130" s="40" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I130" s="40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J130" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K130" s="47">
+      <c r="K130" s="4">
         <v>3</v>
       </c>
       <c r="L130" s="48" t="s">
         <v>28</v>
       </c>
       <c r="M130" s="49" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N130" s="48" t="s">
         <v>30</v>
@@ -8923,25 +9214,25 @@
         <v>4288483</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H131" s="40" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I131" s="40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J131" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K131" s="47">
+      <c r="K131" s="4">
         <v>3</v>
       </c>
       <c r="L131" s="48" t="s">
         <v>37</v>
       </c>
       <c r="M131" s="49" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N131" s="48" t="s">
         <v>30</v>
@@ -8962,33 +9253,33 @@
         <v>137</v>
       </c>
       <c r="B132" s="40" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C132" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="D132" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="E132" s="40" t="s">
         <v>149</v>
-      </c>
-      <c r="D132" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="E132" s="40" t="s">
-        <v>151</v>
       </c>
       <c r="F132" s="38">
         <v>2319203</v>
       </c>
       <c r="G132" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H132" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I132" s="40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J132" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K132" s="47">
+      <c r="K132" s="4">
         <v>7</v>
       </c>
       <c r="L132" s="48" t="s">
@@ -8998,10 +9289,10 @@
         <v>36</v>
       </c>
       <c r="N132" s="48" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="O132" s="49" t="s">
-        <v>119</v>
+        <v>256</v>
       </c>
       <c r="P132" s="47" t="s">
         <v>30</v>
@@ -9019,30 +9310,30 @@
         <v>18</v>
       </c>
       <c r="C133" s="40" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D133" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="E133" s="40" t="s">
         <v>248</v>
-      </c>
-      <c r="E133" s="40" t="s">
-        <v>249</v>
       </c>
       <c r="F133" s="38">
         <v>4873657</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H133" s="40" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I133" s="40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J133" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K133" s="47">
+      <c r="K133" s="4">
         <v>3</v>
       </c>
       <c r="L133" s="48" t="s">
@@ -9073,22 +9364,22 @@
         <v>18</v>
       </c>
       <c r="C134" s="50" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D134" s="50" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E134" s="51" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F134" s="51">
         <v>3330918</v>
       </c>
       <c r="G134" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H134" s="40" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I134" s="51" t="s">
         <v>24</v>
@@ -9106,7 +9397,7 @@
         <v>87</v>
       </c>
       <c r="N134" s="51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O134" s="53" t="s">
         <v>29</v>
@@ -9127,28 +9418,28 @@
         <v>18</v>
       </c>
       <c r="C135" s="50" t="s">
+        <v>391</v>
+      </c>
+      <c r="D135" s="50" t="s">
+        <v>392</v>
+      </c>
+      <c r="E135" s="51" t="s">
         <v>393</v>
-      </c>
-      <c r="D135" s="50" t="s">
-        <v>394</v>
-      </c>
-      <c r="E135" s="51" t="s">
-        <v>395</v>
       </c>
       <c r="F135" s="51">
         <v>2288375</v>
       </c>
       <c r="G135" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H135" s="40" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I135" s="51" t="s">
         <v>24</v>
       </c>
       <c r="J135" s="54" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K135" s="51">
         <v>5</v>
@@ -9157,13 +9448,13 @@
         <v>28</v>
       </c>
       <c r="M135" s="53" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N135" s="51" t="s">
         <v>37</v>
       </c>
       <c r="O135" s="53" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="P135" s="51" t="s">
         <v>30</v>
@@ -9181,22 +9472,22 @@
         <v>18</v>
       </c>
       <c r="C136" s="50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D136" s="50" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E136" s="51" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F136" s="51">
         <v>1707959</v>
       </c>
       <c r="G136" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H136" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I136" s="51" t="s">
         <v>24</v>
@@ -9211,13 +9502,13 @@
         <v>28</v>
       </c>
       <c r="M136" s="53" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N136" s="51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O136" s="53" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="P136" s="51" t="s">
         <v>30</v>
@@ -9235,28 +9526,28 @@
         <v>18</v>
       </c>
       <c r="C137" s="50" t="s">
+        <v>399</v>
+      </c>
+      <c r="D137" s="50" t="s">
+        <v>400</v>
+      </c>
+      <c r="E137" s="51" t="s">
         <v>401</v>
-      </c>
-      <c r="D137" s="50" t="s">
-        <v>402</v>
-      </c>
-      <c r="E137" s="51" t="s">
-        <v>403</v>
       </c>
       <c r="F137" s="51">
         <v>2216406</v>
       </c>
       <c r="G137" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H137" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I137" s="51" t="s">
         <v>24</v>
       </c>
       <c r="J137" s="54" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K137" s="51">
         <v>5</v>
@@ -9265,13 +9556,13 @@
         <v>35</v>
       </c>
       <c r="M137" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="N137" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="O137" s="53" t="s">
         <v>38</v>
-      </c>
-      <c r="N137" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="O137" s="53" t="s">
-        <v>50</v>
       </c>
       <c r="P137" s="51" t="s">
         <v>30</v>
@@ -9289,22 +9580,22 @@
         <v>18</v>
       </c>
       <c r="C138" s="50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D138" s="50" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E138" s="51" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F138" s="51">
         <v>2358779</v>
       </c>
       <c r="G138" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H138" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I138" s="51" t="s">
         <v>24</v>
@@ -9319,13 +9610,13 @@
         <v>26</v>
       </c>
       <c r="M138" s="53" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N138" s="51" t="s">
         <v>37</v>
       </c>
       <c r="O138" s="53" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P138" s="51" t="s">
         <v>30</v>
@@ -9343,28 +9634,28 @@
         <v>18</v>
       </c>
       <c r="C139" s="50" t="s">
+        <v>403</v>
+      </c>
+      <c r="D139" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="E139" s="51" t="s">
         <v>405</v>
-      </c>
-      <c r="D139" s="50" t="s">
-        <v>406</v>
-      </c>
-      <c r="E139" s="51" t="s">
-        <v>407</v>
       </c>
       <c r="F139" s="51">
         <v>4312215</v>
       </c>
       <c r="G139" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H139" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I139" s="51" t="s">
         <v>24</v>
       </c>
       <c r="J139" s="54" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K139" s="51">
         <v>5</v>
@@ -9373,10 +9664,10 @@
         <v>26</v>
       </c>
       <c r="M139" s="53" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N139" s="51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O139" s="53" t="s">
         <v>88</v>
@@ -9397,22 +9688,22 @@
         <v>18</v>
       </c>
       <c r="C140" s="50" t="s">
+        <v>406</v>
+      </c>
+      <c r="D140" s="50" t="s">
+        <v>407</v>
+      </c>
+      <c r="E140" s="51" t="s">
         <v>408</v>
-      </c>
-      <c r="D140" s="50" t="s">
-        <v>409</v>
-      </c>
-      <c r="E140" s="51" t="s">
-        <v>410</v>
       </c>
       <c r="F140" s="51">
         <v>4261849</v>
       </c>
       <c r="G140" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H140" s="40" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I140" s="51" t="s">
         <v>24</v>
@@ -9427,13 +9718,13 @@
         <v>26</v>
       </c>
       <c r="M140" s="53" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N140" s="51" t="s">
         <v>35</v>
       </c>
       <c r="O140" s="53" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="P140" s="51" t="s">
         <v>30</v>
@@ -9451,28 +9742,28 @@
         <v>18</v>
       </c>
       <c r="C141" s="50" t="s">
+        <v>410</v>
+      </c>
+      <c r="D141" s="50" t="s">
+        <v>411</v>
+      </c>
+      <c r="E141" s="50" t="s">
         <v>412</v>
-      </c>
-      <c r="D141" s="50" t="s">
-        <v>413</v>
-      </c>
-      <c r="E141" s="50" t="s">
-        <v>414</v>
       </c>
       <c r="F141" s="51">
         <v>4816016</v>
       </c>
       <c r="G141" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H141" s="40" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I141" s="51" t="s">
         <v>24</v>
       </c>
       <c r="J141" s="54" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K141" s="51">
         <v>5</v>
@@ -9484,7 +9775,7 @@
         <v>36</v>
       </c>
       <c r="N141" s="51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O141" s="53" t="s">
         <v>57</v>
@@ -9505,19 +9796,19 @@
         <v>18</v>
       </c>
       <c r="C142" s="50" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D142" s="50" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E142" s="51" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F142" s="51">
         <v>4804795</v>
       </c>
       <c r="G142" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H142" s="40" t="s">
         <v>43</v>
@@ -9535,13 +9826,13 @@
         <v>28</v>
       </c>
       <c r="M142" s="53" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N142" s="51" t="s">
         <v>37</v>
       </c>
       <c r="O142" s="53" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="P142" s="51" t="s">
         <v>30</v>
@@ -9559,19 +9850,19 @@
         <v>18</v>
       </c>
       <c r="C143" s="50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D143" s="50" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E143" s="51" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F143" s="51">
         <v>2689307</v>
       </c>
       <c r="G143" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H143" s="40" t="s">
         <v>43</v>
@@ -9580,7 +9871,7 @@
         <v>24</v>
       </c>
       <c r="J143" s="54" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K143" s="51">
         <v>4</v>
@@ -9589,13 +9880,13 @@
         <v>28</v>
       </c>
       <c r="M143" s="53" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N143" s="51" t="s">
         <v>37</v>
       </c>
       <c r="O143" s="53" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="P143" s="51" t="s">
         <v>30</v>
@@ -9613,22 +9904,22 @@
         <v>18</v>
       </c>
       <c r="C144" s="50" t="s">
+        <v>417</v>
+      </c>
+      <c r="D144" s="50" t="s">
+        <v>418</v>
+      </c>
+      <c r="E144" s="51" t="s">
         <v>419</v>
-      </c>
-      <c r="D144" s="50" t="s">
-        <v>420</v>
-      </c>
-      <c r="E144" s="51" t="s">
-        <v>421</v>
       </c>
       <c r="F144" s="51">
         <v>4849854</v>
       </c>
       <c r="G144" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H144" s="40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I144" s="51" t="s">
         <v>24</v>
@@ -9643,13 +9934,13 @@
         <v>35</v>
       </c>
       <c r="M144" s="53" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N144" s="51" t="s">
         <v>37</v>
       </c>
       <c r="O144" s="53" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="P144" s="51" t="s">
         <v>30</v>
@@ -9667,28 +9958,28 @@
         <v>18</v>
       </c>
       <c r="C145" s="50" t="s">
+        <v>420</v>
+      </c>
+      <c r="D145" s="50" t="s">
+        <v>421</v>
+      </c>
+      <c r="E145" s="51" t="s">
         <v>422</v>
-      </c>
-      <c r="D145" s="50" t="s">
-        <v>423</v>
-      </c>
-      <c r="E145" s="51" t="s">
-        <v>424</v>
       </c>
       <c r="F145" s="51">
         <v>3484149</v>
       </c>
       <c r="G145" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H145" s="40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I145" s="51" t="s">
         <v>24</v>
       </c>
       <c r="J145" s="54" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K145" s="51">
         <v>5</v>
@@ -9724,16 +10015,16 @@
         <v>19</v>
       </c>
       <c r="D146" s="50" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E146" s="51" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F146" s="51">
         <v>2216676</v>
       </c>
       <c r="G146" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H146" s="40" t="s">
         <v>23</v>
@@ -9754,10 +10045,10 @@
         <v>87</v>
       </c>
       <c r="N146" s="51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O146" s="53" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P146" s="51" t="s">
         <v>30</v>
@@ -9775,19 +10066,19 @@
         <v>18</v>
       </c>
       <c r="C147" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="D147" s="50" t="s">
+        <v>426</v>
+      </c>
+      <c r="E147" s="51" t="s">
         <v>427</v>
-      </c>
-      <c r="D147" s="50" t="s">
-        <v>428</v>
-      </c>
-      <c r="E147" s="51" t="s">
-        <v>429</v>
       </c>
       <c r="F147" s="51">
         <v>4842003</v>
       </c>
       <c r="G147" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H147" s="40" t="s">
         <v>23</v>
@@ -9796,7 +10087,7 @@
         <v>24</v>
       </c>
       <c r="J147" s="54" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K147" s="51">
         <v>5</v>
@@ -9811,7 +10102,7 @@
         <v>28</v>
       </c>
       <c r="O147" s="53" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="P147" s="51" t="s">
         <v>30</v>
@@ -9829,22 +10120,22 @@
         <v>18</v>
       </c>
       <c r="C148" s="50" t="s">
+        <v>428</v>
+      </c>
+      <c r="D148" s="50" t="s">
+        <v>429</v>
+      </c>
+      <c r="E148" s="51" t="s">
         <v>430</v>
-      </c>
-      <c r="D148" s="50" t="s">
-        <v>431</v>
-      </c>
-      <c r="E148" s="51" t="s">
-        <v>432</v>
       </c>
       <c r="F148" s="51">
         <v>3495076</v>
       </c>
       <c r="G148" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H148" s="40" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I148" s="51" t="s">
         <v>66</v>
@@ -9883,22 +10174,22 @@
         <v>18</v>
       </c>
       <c r="C149" s="50" t="s">
+        <v>432</v>
+      </c>
+      <c r="D149" s="50" t="s">
+        <v>433</v>
+      </c>
+      <c r="E149" s="51" t="s">
         <v>434</v>
-      </c>
-      <c r="D149" s="50" t="s">
-        <v>435</v>
-      </c>
-      <c r="E149" s="51" t="s">
-        <v>436</v>
       </c>
       <c r="F149" s="51">
         <v>6101778</v>
       </c>
       <c r="G149" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H149" s="40" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I149" s="51" t="s">
         <v>66</v>
@@ -9913,13 +10204,13 @@
         <v>26</v>
       </c>
       <c r="M149" s="53" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N149" s="51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O149" s="53" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="P149" s="51" t="s">
         <v>30</v>
@@ -9937,22 +10228,22 @@
         <v>18</v>
       </c>
       <c r="C150" s="50" t="s">
+        <v>436</v>
+      </c>
+      <c r="D150" s="50" t="s">
+        <v>437</v>
+      </c>
+      <c r="E150" s="51" t="s">
         <v>438</v>
-      </c>
-      <c r="D150" s="50" t="s">
-        <v>439</v>
-      </c>
-      <c r="E150" s="51" t="s">
-        <v>440</v>
       </c>
       <c r="F150" s="51">
         <v>3431637</v>
       </c>
       <c r="G150" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H150" s="40" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I150" s="51" t="s">
         <v>66</v>
@@ -9961,19 +10252,19 @@
         <v>25</v>
       </c>
       <c r="K150" s="51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L150" s="51" t="s">
         <v>26</v>
       </c>
       <c r="M150" s="53" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="N150" s="51" t="s">
         <v>28</v>
       </c>
       <c r="O150" s="53" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="P150" s="51" t="s">
         <v>30</v>
@@ -9991,22 +10282,22 @@
         <v>18</v>
       </c>
       <c r="C151" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="D151" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="E151" s="51" t="s">
         <v>442</v>
-      </c>
-      <c r="D151" s="50" t="s">
-        <v>443</v>
-      </c>
-      <c r="E151" s="51" t="s">
-        <v>444</v>
       </c>
       <c r="F151" s="51">
         <v>3427000</v>
       </c>
       <c r="G151" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H151" s="40" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I151" s="51" t="s">
         <v>66</v>
@@ -10021,13 +10312,13 @@
         <v>35</v>
       </c>
       <c r="M151" s="53" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N151" s="51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O151" s="53" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P151" s="51" t="s">
         <v>30</v>
@@ -10045,22 +10336,22 @@
         <v>18</v>
       </c>
       <c r="C152" s="50" t="s">
+        <v>444</v>
+      </c>
+      <c r="D152" s="50" t="s">
+        <v>445</v>
+      </c>
+      <c r="E152" s="51" t="s">
         <v>446</v>
-      </c>
-      <c r="D152" s="50" t="s">
-        <v>447</v>
-      </c>
-      <c r="E152" s="51" t="s">
-        <v>448</v>
       </c>
       <c r="F152" s="51">
         <v>5643753</v>
       </c>
       <c r="G152" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H152" s="40" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I152" s="51" t="s">
         <v>66</v>
@@ -10081,7 +10372,7 @@
         <v>37</v>
       </c>
       <c r="O152" s="53" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="P152" s="51" t="s">
         <v>30</v>
@@ -10102,16 +10393,16 @@
         <v>58</v>
       </c>
       <c r="D153" s="50" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E153" s="51" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F153" s="51">
         <v>4288483</v>
       </c>
       <c r="G153" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H153" s="40" t="s">
         <v>86</v>
@@ -10135,7 +10426,7 @@
         <v>28</v>
       </c>
       <c r="O153" s="53" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P153" s="51" t="s">
         <v>30</v>
@@ -10153,22 +10444,22 @@
         <v>18</v>
       </c>
       <c r="C154" s="50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D154" s="50" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E154" s="51" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F154" s="51">
         <v>4811736</v>
       </c>
       <c r="G154" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H154" s="40" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I154" s="51" t="s">
         <v>66</v>
@@ -10186,7 +10477,7 @@
         <v>36</v>
       </c>
       <c r="N154" s="51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O154" s="53" t="s">
         <v>87</v>
@@ -10207,22 +10498,22 @@
         <v>18</v>
       </c>
       <c r="C155" s="50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D155" s="50" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E155" s="51" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F155" s="51">
         <v>4793659</v>
       </c>
       <c r="G155" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H155" s="40" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I155" s="51" t="s">
         <v>90</v>
@@ -10240,10 +10531,10 @@
         <v>85</v>
       </c>
       <c r="N155" s="51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O155" s="53" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="P155" s="51" t="s">
         <v>30</v>
@@ -10261,22 +10552,22 @@
         <v>18</v>
       </c>
       <c r="C156" s="50" t="s">
+        <v>428</v>
+      </c>
+      <c r="D156" s="50" t="s">
+        <v>429</v>
+      </c>
+      <c r="E156" s="51" t="s">
         <v>430</v>
-      </c>
-      <c r="D156" s="50" t="s">
-        <v>431</v>
-      </c>
-      <c r="E156" s="51" t="s">
-        <v>432</v>
       </c>
       <c r="F156" s="51">
         <v>3495076</v>
       </c>
       <c r="G156" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H156" s="40" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I156" s="51" t="s">
         <v>90</v>
@@ -10291,13 +10582,13 @@
         <v>28</v>
       </c>
       <c r="M156" s="53" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N156" s="51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O156" s="53" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P156" s="51" t="s">
         <v>30</v>
@@ -10315,22 +10606,22 @@
         <v>18</v>
       </c>
       <c r="C157" s="50" t="s">
+        <v>457</v>
+      </c>
+      <c r="D157" s="50" t="s">
+        <v>458</v>
+      </c>
+      <c r="E157" s="51" t="s">
         <v>459</v>
-      </c>
-      <c r="D157" s="50" t="s">
-        <v>460</v>
-      </c>
-      <c r="E157" s="51" t="s">
-        <v>461</v>
       </c>
       <c r="F157" s="51">
         <v>2284246</v>
       </c>
       <c r="G157" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H157" s="40" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I157" s="51" t="s">
         <v>90</v>
@@ -10345,13 +10636,13 @@
         <v>35</v>
       </c>
       <c r="M157" s="53" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N157" s="51" t="s">
         <v>37</v>
       </c>
       <c r="O157" s="53" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="P157" s="51" t="s">
         <v>30</v>
@@ -10369,22 +10660,22 @@
         <v>18</v>
       </c>
       <c r="C158" s="50" t="s">
+        <v>461</v>
+      </c>
+      <c r="D158" s="50" t="s">
+        <v>462</v>
+      </c>
+      <c r="E158" s="51" t="s">
         <v>463</v>
-      </c>
-      <c r="D158" s="50" t="s">
-        <v>464</v>
-      </c>
-      <c r="E158" s="51" t="s">
-        <v>465</v>
       </c>
       <c r="F158" s="51">
         <v>4825233</v>
       </c>
       <c r="G158" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H158" s="40" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I158" s="51" t="s">
         <v>90</v>
@@ -10399,7 +10690,7 @@
         <v>26</v>
       </c>
       <c r="M158" s="53" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N158" s="51" t="s">
         <v>35</v>
@@ -10423,22 +10714,22 @@
         <v>18</v>
       </c>
       <c r="C159" s="50" t="s">
+        <v>464</v>
+      </c>
+      <c r="D159" s="50" t="s">
+        <v>465</v>
+      </c>
+      <c r="E159" s="51" t="s">
         <v>466</v>
-      </c>
-      <c r="D159" s="50" t="s">
-        <v>467</v>
-      </c>
-      <c r="E159" s="51" t="s">
-        <v>468</v>
       </c>
       <c r="F159" s="51">
         <v>4286783</v>
       </c>
       <c r="G159" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H159" s="40" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I159" s="51" t="s">
         <v>90</v>
@@ -10453,13 +10744,13 @@
         <v>26</v>
       </c>
       <c r="M159" s="53" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N159" s="51" t="s">
         <v>28</v>
       </c>
       <c r="O159" s="53" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P159" s="51" t="s">
         <v>30</v>
@@ -10477,22 +10768,22 @@
         <v>18</v>
       </c>
       <c r="C160" s="50" t="s">
+        <v>420</v>
+      </c>
+      <c r="D160" s="50" t="s">
+        <v>421</v>
+      </c>
+      <c r="E160" s="51" t="s">
         <v>422</v>
-      </c>
-      <c r="D160" s="50" t="s">
-        <v>423</v>
-      </c>
-      <c r="E160" s="51" t="s">
-        <v>424</v>
       </c>
       <c r="F160" s="51">
         <v>3484149</v>
       </c>
       <c r="G160" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H160" s="40" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I160" s="51" t="s">
         <v>90</v>
@@ -10507,10 +10798,10 @@
         <v>37</v>
       </c>
       <c r="M160" s="53" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N160" s="51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O160" s="53" t="s">
         <v>87</v>
@@ -10531,25 +10822,25 @@
         <v>18</v>
       </c>
       <c r="C161" s="50" t="s">
+        <v>420</v>
+      </c>
+      <c r="D161" s="50" t="s">
+        <v>421</v>
+      </c>
+      <c r="E161" s="51" t="s">
         <v>422</v>
-      </c>
-      <c r="D161" s="50" t="s">
-        <v>423</v>
-      </c>
-      <c r="E161" s="51" t="s">
-        <v>424</v>
       </c>
       <c r="F161" s="51">
         <v>3484149</v>
       </c>
       <c r="G161" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H161" s="40" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I161" s="51" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J161" s="54" t="s">
         <v>25</v>
@@ -10561,7 +10852,7 @@
         <v>26</v>
       </c>
       <c r="M161" s="53" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N161" s="51" t="s">
         <v>28</v>
@@ -10585,25 +10876,25 @@
         <v>18</v>
       </c>
       <c r="C162" s="50" t="s">
+        <v>470</v>
+      </c>
+      <c r="D162" s="50" t="s">
+        <v>471</v>
+      </c>
+      <c r="E162" s="51" t="s">
         <v>472</v>
-      </c>
-      <c r="D162" s="50" t="s">
-        <v>473</v>
-      </c>
-      <c r="E162" s="51" t="s">
-        <v>474</v>
       </c>
       <c r="F162" s="51">
         <v>4807588</v>
       </c>
       <c r="G162" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H162" s="40" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I162" s="51" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J162" s="54" t="s">
         <v>25</v>
@@ -10615,13 +10906,13 @@
         <v>35</v>
       </c>
       <c r="M162" s="53" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N162" s="51" t="s">
         <v>37</v>
       </c>
       <c r="O162" s="53" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P162" s="51" t="s">
         <v>30</v>
@@ -10639,25 +10930,25 @@
         <v>18</v>
       </c>
       <c r="C163" s="50" t="s">
+        <v>474</v>
+      </c>
+      <c r="D163" s="50" t="s">
+        <v>475</v>
+      </c>
+      <c r="E163" s="51" t="s">
         <v>476</v>
-      </c>
-      <c r="D163" s="50" t="s">
-        <v>477</v>
-      </c>
-      <c r="E163" s="51" t="s">
-        <v>478</v>
       </c>
       <c r="F163" s="51">
         <v>3326347</v>
       </c>
       <c r="G163" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H163" s="40" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I163" s="51" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J163" s="54" t="s">
         <v>25</v>
@@ -10669,13 +10960,13 @@
         <v>35</v>
       </c>
       <c r="M163" s="53" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N163" s="51" t="s">
         <v>37</v>
       </c>
       <c r="O163" s="53" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="P163" s="51" t="s">
         <v>30</v>
@@ -10693,25 +10984,25 @@
         <v>18</v>
       </c>
       <c r="C164" s="50" t="s">
+        <v>478</v>
+      </c>
+      <c r="D164" s="50" t="s">
+        <v>479</v>
+      </c>
+      <c r="E164" s="51" t="s">
         <v>480</v>
-      </c>
-      <c r="D164" s="50" t="s">
-        <v>481</v>
-      </c>
-      <c r="E164" s="51" t="s">
-        <v>482</v>
       </c>
       <c r="F164" s="51">
         <v>4823668</v>
       </c>
       <c r="G164" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H164" s="40" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="I164" s="51" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J164" s="54" t="s">
         <v>25</v>
@@ -10726,10 +11017,10 @@
         <v>36</v>
       </c>
       <c r="N164" s="51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O164" s="53" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P164" s="51" t="s">
         <v>30</v>
@@ -10747,25 +11038,25 @@
         <v>18</v>
       </c>
       <c r="C165" s="50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D165" s="50" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E165" s="51" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F165" s="51">
         <v>4811736</v>
       </c>
       <c r="G165" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H165" s="40" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I165" s="51" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J165" s="54" t="s">
         <v>25</v>
@@ -10801,25 +11092,25 @@
         <v>18</v>
       </c>
       <c r="C166" s="50" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D166" s="50" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E166" s="51" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F166" s="51">
         <v>2319203</v>
       </c>
       <c r="G166" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H166" s="40" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I166" s="51" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J166" s="54" t="s">
         <v>25</v>
@@ -10831,13 +11122,13 @@
         <v>28</v>
       </c>
       <c r="M166" s="53" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N166" s="51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O166" s="53" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="P166" s="51" t="s">
         <v>30</v>
@@ -10855,40 +11146,50 @@
         <v>18</v>
       </c>
       <c r="C167" s="50" t="s">
+        <v>486</v>
+      </c>
+      <c r="D167" s="50" t="s">
+        <v>487</v>
+      </c>
+      <c r="E167" s="51" t="s">
         <v>488</v>
-      </c>
-      <c r="D167" s="50" t="s">
-        <v>489</v>
-      </c>
-      <c r="E167" s="51" t="s">
-        <v>490</v>
       </c>
       <c r="F167" s="51">
         <v>1894743</v>
       </c>
       <c r="G167" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H167" s="40" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I167" s="51" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J167" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="K167" s="51"/>
+      <c r="K167" s="51">
+        <v>3</v>
+      </c>
       <c r="L167" s="51" t="s">
         <v>28</v>
       </c>
       <c r="M167" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="N167" s="51"/>
-      <c r="O167" s="53"/>
-      <c r="P167" s="51"/>
-      <c r="Q167" s="51"/>
+      <c r="N167" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="O167" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="P167" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q167" s="51" t="s">
+        <v>30</v>
+      </c>
       <c r="R167" s="51"/>
     </row>
     <row r="168" ht="15.75">
@@ -10899,25 +11200,25 @@
         <v>18</v>
       </c>
       <c r="C168" s="50" t="s">
+        <v>417</v>
+      </c>
+      <c r="D168" s="50" t="s">
+        <v>418</v>
+      </c>
+      <c r="E168" s="51" t="s">
         <v>419</v>
-      </c>
-      <c r="D168" s="50" t="s">
-        <v>420</v>
-      </c>
-      <c r="E168" s="51" t="s">
-        <v>421</v>
       </c>
       <c r="F168" s="51">
         <v>4849854</v>
       </c>
       <c r="G168" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H168" s="40" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="I168" s="51" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J168" s="54" t="s">
         <v>25</v>
@@ -10929,13 +11230,13 @@
         <v>35</v>
       </c>
       <c r="M168" s="53" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N168" s="51" t="s">
         <v>37</v>
       </c>
       <c r="O168" s="53" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P168" s="51" t="s">
         <v>30</v>
@@ -10953,25 +11254,25 @@
         <v>18</v>
       </c>
       <c r="C169" s="50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D169" s="50" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E169" s="51" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F169" s="51">
         <v>4054700</v>
       </c>
       <c r="G169" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H169" s="40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I169" s="51" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J169" s="54" t="s">
         <v>25</v>
@@ -10983,7 +11284,7 @@
         <v>37</v>
       </c>
       <c r="M169" s="53" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N169" s="51" t="s">
         <v>30</v>
@@ -11007,25 +11308,25 @@
         <v>18</v>
       </c>
       <c r="C170" s="50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D170" s="50" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E170" s="51" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F170" s="51">
         <v>4793659</v>
       </c>
       <c r="G170" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H170" s="40" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I170" s="51" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J170" s="54" t="s">
         <v>25</v>
@@ -11040,7 +11341,7 @@
         <v>36</v>
       </c>
       <c r="N170" s="51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O170" s="53" t="s">
         <v>36</v>
@@ -11061,25 +11362,25 @@
         <v>18</v>
       </c>
       <c r="C171" s="50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D171" s="50" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E171" s="51" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F171" s="51">
         <v>4296833</v>
       </c>
       <c r="G171" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H171" s="40" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I171" s="51" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J171" s="54" t="s">
         <v>25</v>
@@ -11091,13 +11392,13 @@
         <v>26</v>
       </c>
       <c r="M171" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="N171" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="O171" s="53" t="s">
         <v>38</v>
-      </c>
-      <c r="N171" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="O171" s="53" t="s">
-        <v>50</v>
       </c>
       <c r="P171" s="51" t="s">
         <v>30</v>
@@ -11115,25 +11416,25 @@
         <v>18</v>
       </c>
       <c r="C172" s="50" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D172" s="50" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E172" s="51" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F172" s="51">
         <v>3382860</v>
       </c>
       <c r="G172" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H172" s="40" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I172" s="51" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J172" s="54" t="s">
         <v>25</v>
@@ -11145,13 +11446,13 @@
         <v>35</v>
       </c>
       <c r="M172" s="53" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N172" s="51" t="s">
         <v>28</v>
       </c>
       <c r="O172" s="53" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="P172" s="51" t="s">
         <v>30</v>
@@ -11169,25 +11470,25 @@
         <v>18</v>
       </c>
       <c r="C173" s="50" t="s">
+        <v>474</v>
+      </c>
+      <c r="D173" s="50" t="s">
+        <v>475</v>
+      </c>
+      <c r="E173" s="51" t="s">
         <v>476</v>
-      </c>
-      <c r="D173" s="50" t="s">
-        <v>477</v>
-      </c>
-      <c r="E173" s="51" t="s">
-        <v>478</v>
       </c>
       <c r="F173" s="51">
         <v>3326347</v>
       </c>
       <c r="G173" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H173" s="40" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I173" s="52" t="s">
-        <v>356</v>
+        <v>156</v>
       </c>
       <c r="J173" s="54" t="s">
         <v>25</v>
@@ -11199,13 +11500,13 @@
         <v>35</v>
       </c>
       <c r="M173" s="53" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N173" s="51" t="s">
         <v>37</v>
       </c>
       <c r="O173" s="53" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P173" s="51" t="s">
         <v>30</v>
@@ -11223,25 +11524,25 @@
         <v>18</v>
       </c>
       <c r="C174" s="50" t="s">
+        <v>470</v>
+      </c>
+      <c r="D174" s="50" t="s">
+        <v>471</v>
+      </c>
+      <c r="E174" s="51" t="s">
         <v>472</v>
-      </c>
-      <c r="D174" s="50" t="s">
-        <v>473</v>
-      </c>
-      <c r="E174" s="51" t="s">
-        <v>474</v>
       </c>
       <c r="F174" s="51">
         <v>4807588</v>
       </c>
       <c r="G174" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H174" s="40" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I174" s="52" t="s">
-        <v>356</v>
+        <v>156</v>
       </c>
       <c r="J174" s="54" t="s">
         <v>25</v>
@@ -11253,13 +11554,13 @@
         <v>26</v>
       </c>
       <c r="M174" s="53" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N174" s="51" t="s">
         <v>28</v>
       </c>
       <c r="O174" s="53" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="P174" s="51" t="s">
         <v>30</v>
@@ -11277,25 +11578,25 @@
         <v>18</v>
       </c>
       <c r="C175" s="50" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D175" s="50" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E175" s="51" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F175" s="51">
         <v>3382860</v>
       </c>
       <c r="G175" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H175" s="40" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I175" s="52" t="s">
-        <v>356</v>
+        <v>156</v>
       </c>
       <c r="J175" s="54" t="s">
         <v>25</v>
@@ -11307,7 +11608,7 @@
         <v>37</v>
       </c>
       <c r="M175" s="53" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N175" s="51" t="s">
         <v>30</v>
@@ -11334,22 +11635,22 @@
         <v>20</v>
       </c>
       <c r="D176" s="50" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E176" s="51" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F176" s="51">
         <v>2622384</v>
       </c>
       <c r="G176" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H176" s="40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I176" s="52" t="s">
-        <v>356</v>
+        <v>156</v>
       </c>
       <c r="J176" s="54" t="s">
         <v>25</v>
@@ -11361,7 +11662,7 @@
         <v>26</v>
       </c>
       <c r="M176" s="53" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N176" s="51" t="s">
         <v>28</v>
@@ -11385,25 +11686,25 @@
         <v>18</v>
       </c>
       <c r="C177" s="50" t="s">
+        <v>428</v>
+      </c>
+      <c r="D177" s="50" t="s">
+        <v>429</v>
+      </c>
+      <c r="E177" s="51" t="s">
         <v>430</v>
-      </c>
-      <c r="D177" s="50" t="s">
-        <v>431</v>
-      </c>
-      <c r="E177" s="51" t="s">
-        <v>432</v>
       </c>
       <c r="F177" s="51">
         <v>3495076</v>
       </c>
       <c r="G177" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H177" s="40" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I177" s="52" t="s">
-        <v>356</v>
+        <v>156</v>
       </c>
       <c r="J177" s="54" t="s">
         <v>25</v>
@@ -11415,13 +11716,13 @@
         <v>28</v>
       </c>
       <c r="M177" s="53" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N177" s="51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O177" s="53" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="P177" s="51" t="s">
         <v>30</v>
@@ -11439,25 +11740,25 @@
         <v>18</v>
       </c>
       <c r="C178" s="50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D178" s="50" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E178" s="51" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F178" s="51">
         <v>4811736</v>
       </c>
       <c r="G178" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H178" s="40" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I178" s="52" t="s">
-        <v>356</v>
+        <v>156</v>
       </c>
       <c r="J178" s="54" t="s">
         <v>25</v>
@@ -11469,10 +11770,10 @@
         <v>35</v>
       </c>
       <c r="M178" s="53" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N178" s="51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O178" s="53" t="s">
         <v>27</v>
@@ -11493,36 +11794,50 @@
         <v>18</v>
       </c>
       <c r="C179" s="50" t="s">
+        <v>417</v>
+      </c>
+      <c r="D179" s="50" t="s">
+        <v>418</v>
+      </c>
+      <c r="E179" s="51" t="s">
         <v>419</v>
-      </c>
-      <c r="D179" s="50" t="s">
-        <v>420</v>
-      </c>
-      <c r="E179" s="51" t="s">
-        <v>421</v>
       </c>
       <c r="F179" s="51">
         <v>4849854</v>
       </c>
       <c r="G179" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H179" s="40" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="I179" s="51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J179" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="K179" s="51"/>
-      <c r="L179" s="51"/>
-      <c r="M179" s="53"/>
-      <c r="N179" s="51"/>
-      <c r="O179" s="53"/>
-      <c r="P179" s="51"/>
-      <c r="Q179" s="51"/>
+      <c r="K179" s="51">
+        <v>5</v>
+      </c>
+      <c r="L179" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M179" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="N179" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="O179" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="P179" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q179" s="51" t="s">
+        <v>30</v>
+      </c>
       <c r="R179" s="51"/>
     </row>
     <row r="180" ht="15.75">
@@ -11533,36 +11848,50 @@
         <v>18</v>
       </c>
       <c r="C180" s="50" t="s">
+        <v>470</v>
+      </c>
+      <c r="D180" s="50" t="s">
+        <v>471</v>
+      </c>
+      <c r="E180" s="51" t="s">
         <v>472</v>
-      </c>
-      <c r="D180" s="50" t="s">
-        <v>473</v>
-      </c>
-      <c r="E180" s="51" t="s">
-        <v>474</v>
       </c>
       <c r="F180" s="51">
         <v>4807588</v>
       </c>
       <c r="G180" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H180" s="40" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I180" s="51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J180" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="K180" s="51"/>
-      <c r="L180" s="51"/>
-      <c r="M180" s="53"/>
-      <c r="N180" s="51"/>
-      <c r="O180" s="53"/>
-      <c r="P180" s="51"/>
-      <c r="Q180" s="51"/>
+      <c r="K180" s="51">
+        <v>4</v>
+      </c>
+      <c r="L180" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M180" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N180" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="O180" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="P180" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q180" s="51" t="s">
+        <v>30</v>
+      </c>
       <c r="R180" s="51"/>
     </row>
     <row r="181" ht="15.75">
@@ -11573,36 +11902,50 @@
         <v>18</v>
       </c>
       <c r="C181" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D181" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="E181" s="51" t="s">
         <v>510</v>
-      </c>
-      <c r="D181" s="50" t="s">
-        <v>511</v>
-      </c>
-      <c r="E181" s="51" t="s">
-        <v>512</v>
       </c>
       <c r="F181" s="51">
         <v>2231638</v>
       </c>
       <c r="G181" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H181" s="40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I181" s="51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J181" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="K181" s="51"/>
-      <c r="L181" s="51"/>
-      <c r="M181" s="53"/>
-      <c r="N181" s="51"/>
-      <c r="O181" s="53"/>
-      <c r="P181" s="51"/>
-      <c r="Q181" s="51"/>
+      <c r="K181" s="51">
+        <v>7</v>
+      </c>
+      <c r="L181" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="M181" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="N181" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="O181" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="P181" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q181" s="51" t="s">
+        <v>30</v>
+      </c>
       <c r="R181" s="51"/>
     </row>
     <row r="182" ht="30">
@@ -11613,25 +11956,25 @@
         <v>18</v>
       </c>
       <c r="C182" s="50" t="s">
+        <v>406</v>
+      </c>
+      <c r="D182" s="50" t="s">
+        <v>407</v>
+      </c>
+      <c r="E182" s="51" t="s">
         <v>408</v>
-      </c>
-      <c r="D182" s="50" t="s">
-        <v>409</v>
-      </c>
-      <c r="E182" s="51" t="s">
-        <v>410</v>
       </c>
       <c r="F182" s="51">
         <v>4261849</v>
       </c>
       <c r="G182" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H182" s="40" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I182" s="51" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J182" s="54" t="s">
         <v>25</v>
@@ -11643,13 +11986,13 @@
         <v>26</v>
       </c>
       <c r="M182" s="53" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N182" s="51" t="s">
         <v>35</v>
       </c>
       <c r="O182" s="53" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P182" s="51" t="s">
         <v>30</v>
@@ -11667,25 +12010,25 @@
         <v>18</v>
       </c>
       <c r="C183" s="50" t="s">
+        <v>420</v>
+      </c>
+      <c r="D183" s="50" t="s">
+        <v>421</v>
+      </c>
+      <c r="E183" s="51" t="s">
         <v>422</v>
-      </c>
-      <c r="D183" s="50" t="s">
-        <v>423</v>
-      </c>
-      <c r="E183" s="51" t="s">
-        <v>424</v>
       </c>
       <c r="F183" s="51">
         <v>3484149</v>
       </c>
       <c r="G183" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H183" s="40" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I183" s="51" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J183" s="54" t="s">
         <v>25</v>
@@ -11697,10 +12040,14 @@
         <v>26</v>
       </c>
       <c r="M183" s="53" t="s">
-        <v>257</v>
-      </c>
-      <c r="N183" s="51"/>
-      <c r="O183" s="53"/>
+        <v>256</v>
+      </c>
+      <c r="N183" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="O183" s="53" t="s">
+        <v>30</v>
+      </c>
       <c r="P183" s="51" t="s">
         <v>30</v>
       </c>
@@ -11717,25 +12064,25 @@
         <v>18</v>
       </c>
       <c r="C184" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D184" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="E184" s="51" t="s">
         <v>510</v>
-      </c>
-      <c r="D184" s="50" t="s">
-        <v>511</v>
-      </c>
-      <c r="E184" s="51" t="s">
-        <v>512</v>
       </c>
       <c r="F184" s="51">
         <v>2231638</v>
       </c>
       <c r="G184" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H184" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I184" s="51" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J184" s="54" t="s">
         <v>25</v>
@@ -11750,10 +12097,10 @@
         <v>27</v>
       </c>
       <c r="N184" s="51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O184" s="53" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P184" s="51" t="s">
         <v>30</v>
